--- a/Assets/Resources/RFScenarios/Preston/AllLancashireScenarios.xlsx
+++ b/Assets/Resources/RFScenarios/Preston/AllLancashireScenarios.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="133">
   <si>
     <t>Missing Person</t>
   </si>
@@ -401,6 +401,24 @@
   <si>
     <t>Scenario_12</t>
   </si>
+  <si>
+    <t>Wait Feedback Rating</t>
+  </si>
+  <si>
+    <t>Wait Feedback</t>
+  </si>
+  <si>
+    <t>Officer Feedback Rating</t>
+  </si>
+  <si>
+    <t>Officer Feedback</t>
+  </si>
+  <si>
+    <t>Citizen Feedback Rating</t>
+  </si>
+  <si>
+    <t>Citizen Feedback</t>
+  </si>
 </sst>
 </file>
 
@@ -754,9 +772,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="Q88" sqref="Q88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -836,6 +854,24 @@
       <c r="K2" t="s">
         <v>125</v>
       </c>
+      <c r="L2" t="s">
+        <v>127</v>
+      </c>
+      <c r="M2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N2" t="s">
+        <v>129</v>
+      </c>
+      <c r="O2" t="s">
+        <v>130</v>
+      </c>
+      <c r="P2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
@@ -871,12 +907,24 @@
       <c r="K3" s="2">
         <v>0</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
+      <c r="L3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>-1</v>
+      </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -921,12 +969,24 @@
       <c r="K4" s="2">
         <v>0</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+      <c r="L4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>-1</v>
+      </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -971,12 +1031,24 @@
       <c r="K5" s="2">
         <v>0</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+      <c r="L5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>-1</v>
+      </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -1021,12 +1093,24 @@
       <c r="K6" s="2">
         <v>4</v>
       </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
+      <c r="L6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>-1</v>
+      </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
@@ -1071,12 +1155,24 @@
       <c r="K7" s="2">
         <v>4</v>
       </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="L7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>-1</v>
+      </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -1121,12 +1217,24 @@
       <c r="K8" s="2">
         <v>-6</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="L8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>-1</v>
+      </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -1171,12 +1279,24 @@
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+      <c r="L9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>-1</v>
+      </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -1221,12 +1341,24 @@
       <c r="K10" s="3">
         <v>0</v>
       </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+      <c r="L10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>-1</v>
+      </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -1271,12 +1403,24 @@
       <c r="K11" s="3">
         <v>0</v>
       </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
+      <c r="L11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>-1</v>
+      </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -1321,12 +1465,24 @@
       <c r="K12" s="3">
         <v>0</v>
       </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
+      <c r="L12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>-1</v>
+      </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -1371,12 +1527,24 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
+      <c r="L13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>-1</v>
+      </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -1421,12 +1589,24 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
+      <c r="L14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>-1</v>
+      </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -1471,12 +1651,24 @@
       <c r="K15" s="3">
         <v>1</v>
       </c>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="L15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>-1</v>
+      </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -1521,12 +1713,24 @@
       <c r="K16" s="3">
         <v>1</v>
       </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+      <c r="L16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>-1</v>
+      </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -1571,12 +1775,24 @@
       <c r="K17" s="3">
         <v>2</v>
       </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
+      <c r="L17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>-1</v>
+      </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -1621,12 +1837,24 @@
       <c r="K18" s="3">
         <v>2</v>
       </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
+      <c r="L18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>-1</v>
+      </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -1671,12 +1899,24 @@
       <c r="K19" s="3">
         <v>-4</v>
       </c>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
+      <c r="L19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>-1</v>
+      </c>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
@@ -1721,12 +1961,24 @@
       <c r="K20" s="3">
         <v>4</v>
       </c>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
+      <c r="L20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>-1</v>
+      </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
@@ -1771,12 +2023,24 @@
       <c r="K21" s="3">
         <v>4</v>
       </c>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
+      <c r="L21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>-1</v>
+      </c>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
@@ -1821,12 +2085,24 @@
       <c r="K22" s="3">
         <v>5</v>
       </c>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
+      <c r="L22" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N22" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O22" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P22" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>-1</v>
+      </c>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
@@ -1871,12 +2147,24 @@
       <c r="K23" s="3">
         <v>0</v>
       </c>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
+      <c r="L23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>-1</v>
+      </c>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -1921,12 +2209,24 @@
       <c r="K24" s="3">
         <v>-2</v>
       </c>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
+      <c r="L24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>-1</v>
+      </c>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
@@ -1971,12 +2271,24 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
+      <c r="L25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>-1</v>
+      </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
@@ -2021,12 +2333,24 @@
       <c r="K26" s="3">
         <v>1</v>
       </c>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
+      <c r="L26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>-1</v>
+      </c>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
@@ -2071,12 +2395,24 @@
       <c r="K27" s="3">
         <v>0</v>
       </c>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
+      <c r="L27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>-1</v>
+      </c>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -2121,12 +2457,24 @@
       <c r="K28" s="3">
         <v>3</v>
       </c>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
+      <c r="L28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>-1</v>
+      </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -2171,12 +2519,24 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
+      <c r="L29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>-1</v>
+      </c>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -2221,12 +2581,24 @@
       <c r="K30" s="3">
         <v>1</v>
       </c>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
+      <c r="L30" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M30" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N30" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O30" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P30" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>-1</v>
+      </c>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
@@ -2271,12 +2643,24 @@
       <c r="K31" s="3">
         <v>1</v>
       </c>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
+      <c r="L31" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M31" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N31" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O31" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P31" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>-1</v>
+      </c>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -2321,12 +2705,24 @@
       <c r="K32" s="3">
         <v>-1</v>
       </c>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
+      <c r="L32" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M32" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N32" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O32" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P32" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>-1</v>
+      </c>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -2371,12 +2767,24 @@
       <c r="K33" s="3">
         <v>-2</v>
       </c>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
+      <c r="L33" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M33" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N33" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O33" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P33" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>-1</v>
+      </c>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
@@ -2421,12 +2829,24 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
+      <c r="L34" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M34" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N34" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O34" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P34" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>-1</v>
+      </c>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
@@ -2471,12 +2891,24 @@
       <c r="K35" s="3">
         <v>-1</v>
       </c>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
+      <c r="L35" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M35" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N35" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O35" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P35" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>-1</v>
+      </c>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -2521,12 +2953,24 @@
       <c r="K36" s="3">
         <v>0</v>
       </c>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
+      <c r="L36" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M36" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N36" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O36" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P36" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>-1</v>
+      </c>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
@@ -2571,12 +3015,24 @@
       <c r="K37" s="3">
         <v>2</v>
       </c>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
+      <c r="L37" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M37" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N37" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O37" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P37" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>-1</v>
+      </c>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
@@ -2621,12 +3077,24 @@
       <c r="K38" s="3">
         <v>-1</v>
       </c>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
+      <c r="L38" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M38" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N38" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O38" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P38" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>-1</v>
+      </c>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
@@ -2671,12 +3139,24 @@
       <c r="K39" s="3">
         <v>0</v>
       </c>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
+      <c r="L39" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M39" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N39" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O39" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P39" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>-1</v>
+      </c>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
@@ -2721,12 +3201,24 @@
       <c r="K40" s="3">
         <v>2</v>
       </c>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
+      <c r="L40" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M40" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N40" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O40" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P40" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>-1</v>
+      </c>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
@@ -2771,12 +3263,24 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
+      <c r="L41" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M41" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N41" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O41" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P41" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>-1</v>
+      </c>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
@@ -2821,12 +3325,24 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
+      <c r="L42" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M42" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N42" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O42" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P42" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>-1</v>
+      </c>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
@@ -2871,12 +3387,24 @@
       <c r="K43" s="3">
         <v>-4</v>
       </c>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
+      <c r="L43" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M43" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N43" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O43" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P43" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>-1</v>
+      </c>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
@@ -2921,12 +3449,24 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
+      <c r="L44" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M44" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N44" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O44" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P44" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>-1</v>
+      </c>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
@@ -2971,12 +3511,24 @@
       <c r="K45" s="3">
         <v>4</v>
       </c>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
+      <c r="L45" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M45" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N45" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O45" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P45" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>-1</v>
+      </c>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
@@ -3021,12 +3573,24 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
+      <c r="L46" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M46" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N46" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O46" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P46" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>-1</v>
+      </c>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
@@ -3071,12 +3635,24 @@
       <c r="K47" s="3">
         <v>2</v>
       </c>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
+      <c r="L47" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M47" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N47" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O47" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P47" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>-1</v>
+      </c>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
@@ -3121,12 +3697,24 @@
       <c r="K48" s="3">
         <v>1</v>
       </c>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
+      <c r="L48" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M48" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N48" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O48" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P48" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>-1</v>
+      </c>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
@@ -3171,12 +3759,24 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
+      <c r="L49" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M49" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N49" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O49" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P49" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>-1</v>
+      </c>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
@@ -3221,12 +3821,24 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
+      <c r="L50" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M50" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N50" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O50" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P50" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>-1</v>
+      </c>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
@@ -3271,12 +3883,24 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
+      <c r="L51" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M51" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N51" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O51" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P51" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>-1</v>
+      </c>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
@@ -3321,12 +3945,24 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
+      <c r="L52" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M52" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N52" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O52" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P52" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>-1</v>
+      </c>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
@@ -3371,12 +4007,24 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
+      <c r="L53" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M53" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N53" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O53" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P53" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>-1</v>
+      </c>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
@@ -3421,12 +4069,24 @@
       <c r="K54" s="3">
         <v>2</v>
       </c>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
+      <c r="L54" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M54" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N54" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O54" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P54" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>-1</v>
+      </c>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
@@ -3471,12 +4131,24 @@
       <c r="K55" s="3">
         <v>0</v>
       </c>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
+      <c r="L55" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M55" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N55" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O55" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P55" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>-1</v>
+      </c>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
@@ -3521,12 +4193,24 @@
       <c r="K56" s="3">
         <v>1</v>
       </c>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
+      <c r="L56" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M56" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N56" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O56" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P56" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>-1</v>
+      </c>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
@@ -3571,12 +4255,24 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
+      <c r="L57" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M57" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N57" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O57" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P57" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>-1</v>
+      </c>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
@@ -3621,12 +4317,24 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
+      <c r="L58" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M58" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N58" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O58" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P58" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>-1</v>
+      </c>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
@@ -3671,12 +4379,24 @@
       <c r="K59" s="3">
         <v>2</v>
       </c>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
+      <c r="L59" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M59" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N59" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O59" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P59" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>-1</v>
+      </c>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
@@ -3721,12 +4441,24 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
+      <c r="L60" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M60" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N60" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O60" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P60" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>-1</v>
+      </c>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
@@ -3771,12 +4503,24 @@
       <c r="K61" s="3">
         <v>1</v>
       </c>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
+      <c r="L61" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M61" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N61" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O61" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P61" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>-1</v>
+      </c>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
@@ -3821,12 +4565,24 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
+      <c r="L62" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M62" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N62" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O62" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P62" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>-1</v>
+      </c>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
@@ -3871,12 +4627,24 @@
       <c r="K63" s="3">
         <v>2</v>
       </c>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
+      <c r="L63" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M63" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N63" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O63" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P63" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>-1</v>
+      </c>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
@@ -3921,12 +4689,24 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="1"/>
+      <c r="L64" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M64" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N64" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O64" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P64" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>-1</v>
+      </c>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
@@ -3971,12 +4751,24 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="1"/>
+      <c r="L65" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M65" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N65" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O65" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P65" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>-1</v>
+      </c>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
@@ -4021,12 +4813,24 @@
       <c r="K66" s="3">
         <v>2</v>
       </c>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
+      <c r="L66" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M66" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N66" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O66" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P66" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>-1</v>
+      </c>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
@@ -4071,12 +4875,24 @@
       <c r="K67" s="3">
         <v>-2</v>
       </c>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
+      <c r="L67" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M67" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N67" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O67" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P67" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>-1</v>
+      </c>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
@@ -4121,12 +4937,24 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
+      <c r="L68" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M68" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N68" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O68" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P68" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>-1</v>
+      </c>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
@@ -4171,12 +4999,24 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
+      <c r="L69" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M69" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N69" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O69" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P69" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>-1</v>
+      </c>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
@@ -4221,12 +5061,24 @@
       <c r="K70" s="3">
         <v>2</v>
       </c>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="1"/>
+      <c r="L70" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M70" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N70" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O70" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P70" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>-1</v>
+      </c>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
@@ -4271,12 +5123,24 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
+      <c r="L71" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M71" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N71" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O71" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P71" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>-1</v>
+      </c>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
@@ -4321,12 +5185,24 @@
       <c r="K72" s="3">
         <v>4</v>
       </c>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
+      <c r="L72" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M72" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N72" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O72" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P72" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>-1</v>
+      </c>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
@@ -4371,12 +5247,24 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
+      <c r="L73" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M73" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N73" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O73" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P73" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>-1</v>
+      </c>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
@@ -4421,12 +5309,24 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
+      <c r="L74" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M74" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N74" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O74" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P74" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>-1</v>
+      </c>
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
@@ -4471,12 +5371,24 @@
       <c r="K75" s="3">
         <v>-2</v>
       </c>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
+      <c r="L75" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M75" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N75" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O75" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P75" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>-1</v>
+      </c>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
@@ -4521,12 +5433,24 @@
       <c r="K76" s="3">
         <v>1</v>
       </c>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
+      <c r="L76" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M76" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N76" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O76" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P76" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>-1</v>
+      </c>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
@@ -4571,12 +5495,24 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
+      <c r="L77" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M77" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N77" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O77" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P77" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q77" s="2">
+        <v>-1</v>
+      </c>
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
@@ -4621,12 +5557,24 @@
       <c r="K78" s="3">
         <v>-3</v>
       </c>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
+      <c r="L78" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M78" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N78" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O78" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P78" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>-1</v>
+      </c>
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
@@ -4671,12 +5619,24 @@
       <c r="K79" s="3">
         <v>0</v>
       </c>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
+      <c r="L79" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M79" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N79" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O79" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P79" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q79" s="2">
+        <v>-1</v>
+      </c>
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
@@ -4721,12 +5681,24 @@
       <c r="K80" s="3">
         <v>1</v>
       </c>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
-      <c r="P80" s="1"/>
-      <c r="Q80" s="1"/>
+      <c r="L80" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M80" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N80" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O80" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P80" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q80" s="2">
+        <v>-1</v>
+      </c>
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
@@ -4771,12 +5743,24 @@
       <c r="K81" s="3">
         <v>0</v>
       </c>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
-      <c r="P81" s="1"/>
-      <c r="Q81" s="1"/>
+      <c r="L81" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M81" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N81" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O81" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P81" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q81" s="2">
+        <v>-1</v>
+      </c>
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
@@ -4821,12 +5805,24 @@
       <c r="K82" s="3">
         <v>-1</v>
       </c>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
-      <c r="O82" s="1"/>
-      <c r="P82" s="1"/>
-      <c r="Q82" s="1"/>
+      <c r="L82" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M82" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N82" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O82" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P82" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q82" s="2">
+        <v>-1</v>
+      </c>
       <c r="R82" s="1"/>
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
@@ -4871,12 +5867,24 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="1"/>
-      <c r="M83" s="1"/>
-      <c r="N83" s="1"/>
-      <c r="O83" s="1"/>
-      <c r="P83" s="1"/>
-      <c r="Q83" s="1"/>
+      <c r="L83" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M83" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N83" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O83" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P83" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q83" s="2">
+        <v>-1</v>
+      </c>
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
@@ -4921,12 +5929,24 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
-      <c r="O84" s="1"/>
-      <c r="P84" s="1"/>
-      <c r="Q84" s="1"/>
+      <c r="L84" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M84" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N84" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O84" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P84" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q84" s="2">
+        <v>-1</v>
+      </c>
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
@@ -4971,12 +5991,24 @@
       <c r="K85" s="3">
         <v>2</v>
       </c>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
-      <c r="N85" s="1"/>
-      <c r="O85" s="1"/>
-      <c r="P85" s="1"/>
-      <c r="Q85" s="1"/>
+      <c r="L85" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M85" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N85" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O85" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P85" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q85" s="2">
+        <v>-1</v>
+      </c>
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
@@ -5021,12 +6053,24 @@
       <c r="K86" s="3">
         <v>-2</v>
       </c>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
-      <c r="O86" s="1"/>
-      <c r="P86" s="1"/>
-      <c r="Q86" s="1"/>
+      <c r="L86" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M86" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N86" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O86" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P86" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q86" s="2">
+        <v>-1</v>
+      </c>
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
@@ -5071,12 +6115,24 @@
       <c r="K87" s="3">
         <v>1</v>
       </c>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
-      <c r="O87" s="1"/>
-      <c r="P87" s="1"/>
-      <c r="Q87" s="1"/>
+      <c r="L87" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M87" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N87" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O87" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P87" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q87" s="2">
+        <v>-1</v>
+      </c>
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
@@ -5099,12 +6155,12 @@
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
-      <c r="Q88" s="1"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
       <c r="R88" s="1"/>
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>

--- a/Assets/Resources/RFScenarios/Preston/AllLancashireScenarios.xlsx
+++ b/Assets/Resources/RFScenarios/Preston/AllLancashireScenarios.xlsx
@@ -983,8 +983,8 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G138" sqref="G138"/>
+      <pane ySplit="3" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H122" sqref="H122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8360,7 +8360,7 @@
         <v>3</v>
       </c>
       <c r="H120" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I120" s="1">
         <v>4</v>
@@ -8483,10 +8483,18 @@
       <c r="G122" s="1">
         <v>-1</v>
       </c>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
-      <c r="K122" s="1"/>
+      <c r="H122" s="1">
+        <v>4</v>
+      </c>
+      <c r="I122" s="1">
+        <v>4</v>
+      </c>
+      <c r="J122" s="1">
+        <v>2</v>
+      </c>
+      <c r="K122" s="1">
+        <v>0</v>
+      </c>
       <c r="L122" s="2">
         <v>-1</v>
       </c>

--- a/Assets/Resources/RFScenarios/Preston/AllLancashireScenarios.xlsx
+++ b/Assets/Resources/RFScenarios/Preston/AllLancashireScenarios.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Documents\Projects\INSPEC2T\ResourceForce\Assets\Resources\RFScenarios\Preston\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Documents\Projects\INSPEC2T\ResourceForce\RF_Game\Assets\Resources\RFScenarios\Preston\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -983,19 +983,19 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H122" sqref="H122"/>
+      <pane ySplit="3" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.46484375" customWidth="1"/>
-    <col min="4" max="4" width="20.796875" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="20.81640625" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="11" max="11" width="18.46484375" customWidth="1"/>
+    <col min="11" max="11" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>115</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>114</v>
       </c>
@@ -1145,7 +1145,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>114</v>
       </c>
@@ -1207,7 +1207,7 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>114</v>
       </c>
@@ -1269,7 +1269,7 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>114</v>
       </c>
@@ -1331,7 +1331,7 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>114</v>
       </c>
@@ -1393,7 +1393,7 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>114</v>
       </c>
@@ -1455,7 +1455,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>113</v>
       </c>
@@ -1517,7 +1517,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>113</v>
       </c>
@@ -1579,7 +1579,7 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>113</v>
       </c>
@@ -1641,7 +1641,7 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>113</v>
       </c>
@@ -1703,7 +1703,7 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>113</v>
       </c>
@@ -1765,7 +1765,7 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>113</v>
       </c>
@@ -1827,7 +1827,7 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>113</v>
       </c>
@@ -1889,7 +1889,7 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>113</v>
       </c>
@@ -1951,7 +1951,7 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>113</v>
       </c>
@@ -2013,7 +2013,7 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>113</v>
       </c>
@@ -2075,7 +2075,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>113</v>
       </c>
@@ -2137,7 +2137,7 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>113</v>
       </c>
@@ -2199,7 +2199,7 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>113</v>
       </c>
@@ -2261,7 +2261,7 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>113</v>
       </c>
@@ -2323,7 +2323,7 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>112</v>
       </c>
@@ -2385,7 +2385,7 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>112</v>
       </c>
@@ -2447,7 +2447,7 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>112</v>
       </c>
@@ -2509,7 +2509,7 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>112</v>
       </c>
@@ -2571,7 +2571,7 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>112</v>
       </c>
@@ -2633,7 +2633,7 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>112</v>
       </c>
@@ -2695,7 +2695,7 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>111</v>
       </c>
@@ -2757,7 +2757,7 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>111</v>
       </c>
@@ -2819,7 +2819,7 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>111</v>
       </c>
@@ -2881,7 +2881,7 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>111</v>
       </c>
@@ -2943,7 +2943,7 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="114.75" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>111</v>
       </c>
@@ -3005,7 +3005,7 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>110</v>
       </c>
@@ -3067,7 +3067,7 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="63.75" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>110</v>
       </c>
@@ -3129,7 +3129,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="63.75" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>110</v>
       </c>
@@ -3191,7 +3191,7 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="51" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" ht="50" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>110</v>
       </c>
@@ -3253,7 +3253,7 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="63.75" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>110</v>
       </c>
@@ -3315,7 +3315,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="63.75" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>110</v>
       </c>
@@ -3377,7 +3377,7 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" ht="25" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>110</v>
       </c>
@@ -3439,7 +3439,7 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="51" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" ht="50" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>109</v>
       </c>
@@ -3501,7 +3501,7 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="51" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" ht="50" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>109</v>
       </c>
@@ -3563,7 +3563,7 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" ht="38.25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>109</v>
       </c>
@@ -3625,7 +3625,7 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>109</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>54</v>
       </c>
       <c r="E44" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F44" s="3">
         <v>5</v>
@@ -3687,7 +3687,7 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" ht="38.25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>109</v>
       </c>
@@ -3749,7 +3749,7 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" ht="102" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" ht="100" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>109</v>
       </c>
@@ -3811,7 +3811,7 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" ht="25" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>109</v>
       </c>
@@ -3873,7 +3873,7 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" ht="102" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" ht="100" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>109</v>
       </c>
@@ -3935,7 +3935,7 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26" ht="89.25" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>108</v>
       </c>
@@ -3997,7 +3997,7 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26" ht="51" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" ht="50" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>108</v>
       </c>
@@ -4059,7 +4059,7 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" ht="38.25" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>108</v>
       </c>
@@ -4121,7 +4121,7 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" ht="51" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" ht="50" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>108</v>
       </c>
@@ -4183,7 +4183,7 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26" ht="51" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" ht="50" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>108</v>
       </c>
@@ -4245,7 +4245,7 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>108</v>
       </c>
@@ -4307,7 +4307,7 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>108</v>
       </c>
@@ -4369,7 +4369,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" ht="63.75" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" ht="50" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>108</v>
       </c>
@@ -4431,7 +4431,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" ht="102" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" ht="100" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>108</v>
       </c>
@@ -4493,7 +4493,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" ht="51" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" ht="50" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>108</v>
       </c>
@@ -4555,7 +4555,7 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:26" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" ht="25" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>108</v>
       </c>
@@ -4617,7 +4617,7 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26" ht="63.75" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>107</v>
       </c>
@@ -4679,7 +4679,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26" ht="51" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" ht="50" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>107</v>
       </c>
@@ -4741,7 +4741,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26" ht="51" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" ht="50" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>107</v>
       </c>
@@ -4803,7 +4803,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26" ht="38.25" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>107</v>
       </c>
@@ -4865,7 +4865,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26" ht="51" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" ht="50" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>107</v>
       </c>
@@ -4927,7 +4927,7 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:26" ht="51" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" ht="50" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>107</v>
       </c>
@@ -4989,7 +4989,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" spans="1:26" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" ht="25" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>107</v>
       </c>
@@ -5051,7 +5051,7 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:26" ht="38.25" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>107</v>
       </c>
@@ -5113,7 +5113,7 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26" ht="51" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" ht="50" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>106</v>
       </c>
@@ -5175,7 +5175,7 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="1:26" ht="38.25" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>106</v>
       </c>
@@ -5237,7 +5237,7 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" spans="1:26" ht="38.25" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>106</v>
       </c>
@@ -5299,7 +5299,7 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="1:26" ht="89.25" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>106</v>
       </c>
@@ -5361,7 +5361,7 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" spans="1:26" ht="38.25" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>106</v>
       </c>
@@ -5423,7 +5423,7 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" spans="1:26" ht="38.25" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>106</v>
       </c>
@@ -5485,7 +5485,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" ht="63.75" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>105</v>
       </c>
@@ -5547,7 +5547,7 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26" ht="38.25" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>105</v>
       </c>
@@ -5609,7 +5609,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26" ht="63.75" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>105</v>
       </c>
@@ -5671,7 +5671,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" spans="1:26" ht="102" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" ht="100" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>104</v>
       </c>
@@ -5733,7 +5733,7 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:26" ht="63.75" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>104</v>
       </c>
@@ -5795,7 +5795,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:26" ht="51" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" ht="50" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>104</v>
       </c>
@@ -5857,7 +5857,7 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:26" ht="38.25" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>104</v>
       </c>
@@ -5919,7 +5919,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:26" ht="63.75" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>104</v>
       </c>
@@ -5981,7 +5981,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:26" ht="89.25" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>104</v>
       </c>
@@ -6043,7 +6043,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" spans="1:26" ht="51" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" ht="50" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>126</v>
       </c>
@@ -6105,7 +6105,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" spans="1:26" ht="63.75" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>126</v>
       </c>
@@ -6167,7 +6167,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" spans="1:26" ht="38.25" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>126</v>
       </c>
@@ -6229,7 +6229,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" spans="1:26" ht="63.75" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>126</v>
       </c>
@@ -6291,7 +6291,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:26" ht="89.25" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>126</v>
       </c>
@@ -6353,7 +6353,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26" ht="38.25" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>133</v>
       </c>
@@ -6415,7 +6415,7 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:26" ht="38.25" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>133</v>
       </c>
@@ -6477,7 +6477,7 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" ht="38.25" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>133</v>
       </c>
@@ -6539,7 +6539,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26" ht="63.75" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>133</v>
       </c>
@@ -6601,7 +6601,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26" ht="38.25" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>133</v>
       </c>
@@ -6663,7 +6663,7 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" spans="1:26" ht="38.25" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>133</v>
       </c>
@@ -6725,7 +6725,7 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26" ht="51" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" ht="50" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>133</v>
       </c>
@@ -6787,7 +6787,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26" ht="63.75" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>133</v>
       </c>
@@ -6849,7 +6849,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" spans="1:26" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>143</v>
       </c>
@@ -6911,7 +6911,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" spans="1:26" ht="38.25" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>143</v>
       </c>
@@ -6973,7 +6973,7 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" spans="1:26" ht="38.25" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>143</v>
       </c>
@@ -7035,7 +7035,7 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" spans="1:26" ht="89.25" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>143</v>
       </c>
@@ -7097,7 +7097,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" spans="1:26" ht="51" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:26" ht="50" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>143</v>
       </c>
@@ -7159,7 +7159,7 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101" spans="1:26" ht="114.75" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:26" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>150</v>
       </c>
@@ -7221,7 +7221,7 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
     </row>
-    <row r="102" spans="1:26" ht="38.25" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>150</v>
       </c>
@@ -7283,7 +7283,7 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
     </row>
-    <row r="103" spans="1:26" ht="102" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:26" ht="100" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>150</v>
       </c>
@@ -7345,7 +7345,7 @@
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
     </row>
-    <row r="104" spans="1:26" ht="38.25" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>150</v>
       </c>
@@ -7407,7 +7407,7 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" spans="1:26" ht="63.75" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>150</v>
       </c>
@@ -7469,7 +7469,7 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
     </row>
-    <row r="106" spans="1:26" ht="63.75" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:26" ht="50" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>150</v>
       </c>
@@ -7531,7 +7531,7 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107" spans="1:26" ht="51" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:26" ht="50" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>150</v>
       </c>
@@ -7593,7 +7593,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
     </row>
-    <row r="108" spans="1:26" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>160</v>
       </c>
@@ -7655,7 +7655,7 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
     </row>
-    <row r="109" spans="1:26" ht="38.25" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>160</v>
       </c>
@@ -7717,7 +7717,7 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
     </row>
-    <row r="110" spans="1:26" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>160</v>
       </c>
@@ -7779,7 +7779,7 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
     </row>
-    <row r="111" spans="1:26" ht="51" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:26" ht="50" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>160</v>
       </c>
@@ -7841,7 +7841,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
     </row>
-    <row r="112" spans="1:26" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>160</v>
       </c>
@@ -7903,7 +7903,7 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
     </row>
-    <row r="113" spans="1:26" ht="89.25" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:26" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>160</v>
       </c>
@@ -7965,7 +7965,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
     </row>
-    <row r="114" spans="1:26" ht="127.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:26" ht="125" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>167</v>
       </c>
@@ -8027,7 +8027,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
     </row>
-    <row r="115" spans="1:26" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>167</v>
       </c>
@@ -8089,7 +8089,7 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
     </row>
-    <row r="116" spans="1:26" ht="89.25" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:26" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>167</v>
       </c>
@@ -8151,7 +8151,7 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
     </row>
-    <row r="117" spans="1:26" ht="89.25" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:26" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>167</v>
       </c>
@@ -8213,7 +8213,7 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
     </row>
-    <row r="118" spans="1:26" ht="38.25" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>167</v>
       </c>
@@ -8275,7 +8275,7 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
     </row>
-    <row r="119" spans="1:26" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>167</v>
       </c>
@@ -8337,7 +8337,7 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
     </row>
-    <row r="120" spans="1:26" ht="127.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:26" ht="125" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>177</v>
       </c>
@@ -8399,7 +8399,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121" spans="1:26" ht="102" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:26" ht="100" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>177</v>
       </c>
@@ -8461,7 +8461,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
     </row>
-    <row r="122" spans="1:26" ht="51" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:26" ht="50" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>177</v>
       </c>
@@ -8523,7 +8523,7 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
     </row>
-    <row r="123" spans="1:26" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>177</v>
       </c>
@@ -8585,7 +8585,7 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
     </row>
-    <row r="124" spans="1:26" ht="63.75" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>177</v>
       </c>
@@ -8647,7 +8647,7 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
     </row>
-    <row r="125" spans="1:26" ht="127.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:26" ht="125" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>176</v>
       </c>
@@ -8709,7 +8709,7 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
     </row>
-    <row r="126" spans="1:26" ht="89.25" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:26" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>176</v>
       </c>
@@ -8771,7 +8771,7 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" spans="1:26" ht="51" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:26" ht="50" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>176</v>
       </c>
@@ -8833,7 +8833,7 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
     </row>
-    <row r="128" spans="1:26" ht="89.25" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:26" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>176</v>
       </c>
@@ -8895,7 +8895,7 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
     </row>
-    <row r="129" spans="1:26" ht="38.25" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>176</v>
       </c>
@@ -8957,7 +8957,7 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
     </row>
-    <row r="130" spans="1:26" ht="63.75" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>176</v>
       </c>
@@ -9019,7 +9019,7 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
     </row>
-    <row r="131" spans="1:26" ht="89.25" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:26" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>176</v>
       </c>
@@ -9081,7 +9081,7 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
     </row>
-    <row r="132" spans="1:26" ht="89.25" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:26" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>176</v>
       </c>
@@ -9143,7 +9143,7 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
     </row>
-    <row r="133" spans="1:26" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>195</v>
       </c>
@@ -9205,7 +9205,7 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" spans="1:26" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>195</v>
       </c>
@@ -9267,7 +9267,7 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135" spans="1:26" ht="51" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:26" ht="50" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>195</v>
       </c>
@@ -9329,7 +9329,7 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
     </row>
-    <row r="136" spans="1:26" ht="51" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:26" ht="50" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>195</v>
       </c>
@@ -9391,7 +9391,7 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
     </row>
-    <row r="137" spans="1:26" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>195</v>
       </c>
@@ -9453,7 +9453,7 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138" spans="1:26" ht="102" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:26" ht="100" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>195</v>
       </c>
@@ -9515,7 +9515,7 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -9543,7 +9543,7 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
     </row>
-    <row r="140" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -9571,7 +9571,7 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
     </row>
-    <row r="141" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -9599,7 +9599,7 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
     </row>
-    <row r="142" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -9627,7 +9627,7 @@
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
     </row>
-    <row r="143" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -9655,7 +9655,7 @@
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
     </row>
-    <row r="144" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -9683,7 +9683,7 @@
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
     </row>
-    <row r="145" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -9711,7 +9711,7 @@
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
     </row>
-    <row r="146" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -9739,7 +9739,7 @@
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
     </row>
-    <row r="147" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -9767,7 +9767,7 @@
       <c r="Y147" s="1"/>
       <c r="Z147" s="1"/>
     </row>
-    <row r="148" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -9795,7 +9795,7 @@
       <c r="Y148" s="1"/>
       <c r="Z148" s="1"/>
     </row>
-    <row r="149" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -9823,7 +9823,7 @@
       <c r="Y149" s="1"/>
       <c r="Z149" s="1"/>
     </row>
-    <row r="150" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -9851,7 +9851,7 @@
       <c r="Y150" s="1"/>
       <c r="Z150" s="1"/>
     </row>
-    <row r="151" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -9879,7 +9879,7 @@
       <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
     </row>
-    <row r="152" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -9907,7 +9907,7 @@
       <c r="Y152" s="1"/>
       <c r="Z152" s="1"/>
     </row>
-    <row r="153" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -9935,7 +9935,7 @@
       <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
     </row>
-    <row r="154" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -9963,7 +9963,7 @@
       <c r="Y154" s="1"/>
       <c r="Z154" s="1"/>
     </row>
-    <row r="155" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -9991,7 +9991,7 @@
       <c r="Y155" s="1"/>
       <c r="Z155" s="1"/>
     </row>
-    <row r="156" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -10019,7 +10019,7 @@
       <c r="Y156" s="1"/>
       <c r="Z156" s="1"/>
     </row>
-    <row r="157" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -10047,7 +10047,7 @@
       <c r="Y157" s="1"/>
       <c r="Z157" s="1"/>
     </row>
-    <row r="158" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -10075,7 +10075,7 @@
       <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
     </row>
-    <row r="159" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -10103,7 +10103,7 @@
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
     </row>
-    <row r="160" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -10131,7 +10131,7 @@
       <c r="Y160" s="1"/>
       <c r="Z160" s="1"/>
     </row>
-    <row r="161" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -10159,7 +10159,7 @@
       <c r="Y161" s="1"/>
       <c r="Z161" s="1"/>
     </row>
-    <row r="162" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -10187,7 +10187,7 @@
       <c r="Y162" s="1"/>
       <c r="Z162" s="1"/>
     </row>
-    <row r="163" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -10215,7 +10215,7 @@
       <c r="Y163" s="1"/>
       <c r="Z163" s="1"/>
     </row>
-    <row r="164" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -10243,7 +10243,7 @@
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
     </row>
-    <row r="165" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -10271,7 +10271,7 @@
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
     </row>
-    <row r="166" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -10299,7 +10299,7 @@
       <c r="Y166" s="1"/>
       <c r="Z166" s="1"/>
     </row>
-    <row r="167" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -10327,7 +10327,7 @@
       <c r="Y167" s="1"/>
       <c r="Z167" s="1"/>
     </row>
-    <row r="168" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -10355,7 +10355,7 @@
       <c r="Y168" s="1"/>
       <c r="Z168" s="1"/>
     </row>
-    <row r="169" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -10383,7 +10383,7 @@
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
     </row>
-    <row r="170" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -10411,7 +10411,7 @@
       <c r="Y170" s="1"/>
       <c r="Z170" s="1"/>
     </row>
-    <row r="171" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -10439,7 +10439,7 @@
       <c r="Y171" s="1"/>
       <c r="Z171" s="1"/>
     </row>
-    <row r="172" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -10467,7 +10467,7 @@
       <c r="Y172" s="1"/>
       <c r="Z172" s="1"/>
     </row>
-    <row r="173" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -10495,7 +10495,7 @@
       <c r="Y173" s="1"/>
       <c r="Z173" s="1"/>
     </row>
-    <row r="174" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -10523,7 +10523,7 @@
       <c r="Y174" s="1"/>
       <c r="Z174" s="1"/>
     </row>
-    <row r="175" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -10551,7 +10551,7 @@
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
     </row>
-    <row r="176" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -10579,7 +10579,7 @@
       <c r="Y176" s="1"/>
       <c r="Z176" s="1"/>
     </row>
-    <row r="177" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -10607,7 +10607,7 @@
       <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
     </row>
-    <row r="178" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -10635,7 +10635,7 @@
       <c r="Y178" s="1"/>
       <c r="Z178" s="1"/>
     </row>
-    <row r="179" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -10663,7 +10663,7 @@
       <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
     </row>
-    <row r="180" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -10691,7 +10691,7 @@
       <c r="Y180" s="1"/>
       <c r="Z180" s="1"/>
     </row>
-    <row r="181" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -10719,7 +10719,7 @@
       <c r="Y181" s="1"/>
       <c r="Z181" s="1"/>
     </row>
-    <row r="182" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -10747,7 +10747,7 @@
       <c r="Y182" s="1"/>
       <c r="Z182" s="1"/>
     </row>
-    <row r="183" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -10775,7 +10775,7 @@
       <c r="Y183" s="1"/>
       <c r="Z183" s="1"/>
     </row>
-    <row r="184" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -10803,7 +10803,7 @@
       <c r="Y184" s="1"/>
       <c r="Z184" s="1"/>
     </row>
-    <row r="185" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -10831,7 +10831,7 @@
       <c r="Y185" s="1"/>
       <c r="Z185" s="1"/>
     </row>
-    <row r="186" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -10859,7 +10859,7 @@
       <c r="Y186" s="1"/>
       <c r="Z186" s="1"/>
     </row>
-    <row r="187" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -10887,7 +10887,7 @@
       <c r="Y187" s="1"/>
       <c r="Z187" s="1"/>
     </row>
-    <row r="188" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -10915,7 +10915,7 @@
       <c r="Y188" s="1"/>
       <c r="Z188" s="1"/>
     </row>
-    <row r="189" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -10943,7 +10943,7 @@
       <c r="Y189" s="1"/>
       <c r="Z189" s="1"/>
     </row>
-    <row r="190" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -10971,7 +10971,7 @@
       <c r="Y190" s="1"/>
       <c r="Z190" s="1"/>
     </row>
-    <row r="191" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -10999,7 +10999,7 @@
       <c r="Y191" s="1"/>
       <c r="Z191" s="1"/>
     </row>
-    <row r="192" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -11027,7 +11027,7 @@
       <c r="Y192" s="1"/>
       <c r="Z192" s="1"/>
     </row>
-    <row r="193" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -11055,7 +11055,7 @@
       <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
     </row>
-    <row r="194" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -11083,7 +11083,7 @@
       <c r="Y194" s="1"/>
       <c r="Z194" s="1"/>
     </row>
-    <row r="195" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -11111,7 +11111,7 @@
       <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
     </row>
-    <row r="196" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -11139,7 +11139,7 @@
       <c r="Y196" s="1"/>
       <c r="Z196" s="1"/>
     </row>
-    <row r="197" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -11167,7 +11167,7 @@
       <c r="Y197" s="1"/>
       <c r="Z197" s="1"/>
     </row>
-    <row r="198" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -11195,7 +11195,7 @@
       <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
     </row>
-    <row r="199" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -11223,7 +11223,7 @@
       <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
     </row>
-    <row r="200" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -11251,7 +11251,7 @@
       <c r="Y200" s="1"/>
       <c r="Z200" s="1"/>
     </row>
-    <row r="201" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -11279,7 +11279,7 @@
       <c r="Y201" s="1"/>
       <c r="Z201" s="1"/>
     </row>
-    <row r="202" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -11307,7 +11307,7 @@
       <c r="Y202" s="1"/>
       <c r="Z202" s="1"/>
     </row>
-    <row r="203" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -11335,7 +11335,7 @@
       <c r="Y203" s="1"/>
       <c r="Z203" s="1"/>
     </row>
-    <row r="204" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -11363,7 +11363,7 @@
       <c r="Y204" s="1"/>
       <c r="Z204" s="1"/>
     </row>
-    <row r="205" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -11391,7 +11391,7 @@
       <c r="Y205" s="1"/>
       <c r="Z205" s="1"/>
     </row>
-    <row r="206" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -11419,7 +11419,7 @@
       <c r="Y206" s="1"/>
       <c r="Z206" s="1"/>
     </row>
-    <row r="207" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -11447,7 +11447,7 @@
       <c r="Y207" s="1"/>
       <c r="Z207" s="1"/>
     </row>
-    <row r="208" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -11475,7 +11475,7 @@
       <c r="Y208" s="1"/>
       <c r="Z208" s="1"/>
     </row>
-    <row r="209" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -11503,7 +11503,7 @@
       <c r="Y209" s="1"/>
       <c r="Z209" s="1"/>
     </row>
-    <row r="210" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -11531,7 +11531,7 @@
       <c r="Y210" s="1"/>
       <c r="Z210" s="1"/>
     </row>
-    <row r="211" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -11559,7 +11559,7 @@
       <c r="Y211" s="1"/>
       <c r="Z211" s="1"/>
     </row>
-    <row r="212" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -11587,7 +11587,7 @@
       <c r="Y212" s="1"/>
       <c r="Z212" s="1"/>
     </row>
-    <row r="213" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -11615,7 +11615,7 @@
       <c r="Y213" s="1"/>
       <c r="Z213" s="1"/>
     </row>
-    <row r="214" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -11643,7 +11643,7 @@
       <c r="Y214" s="1"/>
       <c r="Z214" s="1"/>
     </row>
-    <row r="215" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -11671,7 +11671,7 @@
       <c r="Y215" s="1"/>
       <c r="Z215" s="1"/>
     </row>
-    <row r="216" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -11699,7 +11699,7 @@
       <c r="Y216" s="1"/>
       <c r="Z216" s="1"/>
     </row>
-    <row r="217" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -11727,7 +11727,7 @@
       <c r="Y217" s="1"/>
       <c r="Z217" s="1"/>
     </row>
-    <row r="218" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -11755,7 +11755,7 @@
       <c r="Y218" s="1"/>
       <c r="Z218" s="1"/>
     </row>
-    <row r="219" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -11783,7 +11783,7 @@
       <c r="Y219" s="1"/>
       <c r="Z219" s="1"/>
     </row>
-    <row r="220" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -11811,7 +11811,7 @@
       <c r="Y220" s="1"/>
       <c r="Z220" s="1"/>
     </row>
-    <row r="221" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -11839,7 +11839,7 @@
       <c r="Y221" s="1"/>
       <c r="Z221" s="1"/>
     </row>
-    <row r="222" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -11867,7 +11867,7 @@
       <c r="Y222" s="1"/>
       <c r="Z222" s="1"/>
     </row>
-    <row r="223" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -11895,7 +11895,7 @@
       <c r="Y223" s="1"/>
       <c r="Z223" s="1"/>
     </row>
-    <row r="224" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -11923,7 +11923,7 @@
       <c r="Y224" s="1"/>
       <c r="Z224" s="1"/>
     </row>
-    <row r="225" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -11951,7 +11951,7 @@
       <c r="Y225" s="1"/>
       <c r="Z225" s="1"/>
     </row>
-    <row r="226" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -11979,7 +11979,7 @@
       <c r="Y226" s="1"/>
       <c r="Z226" s="1"/>
     </row>
-    <row r="227" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -12007,7 +12007,7 @@
       <c r="Y227" s="1"/>
       <c r="Z227" s="1"/>
     </row>
-    <row r="228" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -12035,7 +12035,7 @@
       <c r="Y228" s="1"/>
       <c r="Z228" s="1"/>
     </row>
-    <row r="229" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -12063,7 +12063,7 @@
       <c r="Y229" s="1"/>
       <c r="Z229" s="1"/>
     </row>
-    <row r="230" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -12091,7 +12091,7 @@
       <c r="Y230" s="1"/>
       <c r="Z230" s="1"/>
     </row>
-    <row r="231" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -12119,7 +12119,7 @@
       <c r="Y231" s="1"/>
       <c r="Z231" s="1"/>
     </row>
-    <row r="232" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -12147,7 +12147,7 @@
       <c r="Y232" s="1"/>
       <c r="Z232" s="1"/>
     </row>
-    <row r="233" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -12175,7 +12175,7 @@
       <c r="Y233" s="1"/>
       <c r="Z233" s="1"/>
     </row>
-    <row r="234" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -12203,7 +12203,7 @@
       <c r="Y234" s="1"/>
       <c r="Z234" s="1"/>
     </row>
-    <row r="235" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -12231,7 +12231,7 @@
       <c r="Y235" s="1"/>
       <c r="Z235" s="1"/>
     </row>
-    <row r="236" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -12259,7 +12259,7 @@
       <c r="Y236" s="1"/>
       <c r="Z236" s="1"/>
     </row>
-    <row r="237" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -12287,7 +12287,7 @@
       <c r="Y237" s="1"/>
       <c r="Z237" s="1"/>
     </row>
-    <row r="238" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -12315,7 +12315,7 @@
       <c r="Y238" s="1"/>
       <c r="Z238" s="1"/>
     </row>
-    <row r="239" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -12343,7 +12343,7 @@
       <c r="Y239" s="1"/>
       <c r="Z239" s="1"/>
     </row>
-    <row r="240" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -12371,7 +12371,7 @@
       <c r="Y240" s="1"/>
       <c r="Z240" s="1"/>
     </row>
-    <row r="241" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -12399,7 +12399,7 @@
       <c r="Y241" s="1"/>
       <c r="Z241" s="1"/>
     </row>
-    <row r="242" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -12427,7 +12427,7 @@
       <c r="Y242" s="1"/>
       <c r="Z242" s="1"/>
     </row>
-    <row r="243" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -12455,7 +12455,7 @@
       <c r="Y243" s="1"/>
       <c r="Z243" s="1"/>
     </row>
-    <row r="244" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -12483,7 +12483,7 @@
       <c r="Y244" s="1"/>
       <c r="Z244" s="1"/>
     </row>
-    <row r="245" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -12511,7 +12511,7 @@
       <c r="Y245" s="1"/>
       <c r="Z245" s="1"/>
     </row>
-    <row r="246" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -12539,7 +12539,7 @@
       <c r="Y246" s="1"/>
       <c r="Z246" s="1"/>
     </row>
-    <row r="247" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -12567,7 +12567,7 @@
       <c r="Y247" s="1"/>
       <c r="Z247" s="1"/>
     </row>
-    <row r="248" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -12595,7 +12595,7 @@
       <c r="Y248" s="1"/>
       <c r="Z248" s="1"/>
     </row>
-    <row r="249" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -12623,7 +12623,7 @@
       <c r="Y249" s="1"/>
       <c r="Z249" s="1"/>
     </row>
-    <row r="250" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -12651,7 +12651,7 @@
       <c r="Y250" s="1"/>
       <c r="Z250" s="1"/>
     </row>
-    <row r="251" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -12679,7 +12679,7 @@
       <c r="Y251" s="1"/>
       <c r="Z251" s="1"/>
     </row>
-    <row r="252" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -12707,7 +12707,7 @@
       <c r="Y252" s="1"/>
       <c r="Z252" s="1"/>
     </row>
-    <row r="253" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -12735,7 +12735,7 @@
       <c r="Y253" s="1"/>
       <c r="Z253" s="1"/>
     </row>
-    <row r="254" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -12763,7 +12763,7 @@
       <c r="Y254" s="1"/>
       <c r="Z254" s="1"/>
     </row>
-    <row r="255" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -12791,7 +12791,7 @@
       <c r="Y255" s="1"/>
       <c r="Z255" s="1"/>
     </row>
-    <row r="256" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -12819,7 +12819,7 @@
       <c r="Y256" s="1"/>
       <c r="Z256" s="1"/>
     </row>
-    <row r="257" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -12847,7 +12847,7 @@
       <c r="Y257" s="1"/>
       <c r="Z257" s="1"/>
     </row>
-    <row r="258" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -12875,7 +12875,7 @@
       <c r="Y258" s="1"/>
       <c r="Z258" s="1"/>
     </row>
-    <row r="259" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -12903,7 +12903,7 @@
       <c r="Y259" s="1"/>
       <c r="Z259" s="1"/>
     </row>
-    <row r="260" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -12931,7 +12931,7 @@
       <c r="Y260" s="1"/>
       <c r="Z260" s="1"/>
     </row>
-    <row r="261" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -12959,7 +12959,7 @@
       <c r="Y261" s="1"/>
       <c r="Z261" s="1"/>
     </row>
-    <row r="262" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -12987,7 +12987,7 @@
       <c r="Y262" s="1"/>
       <c r="Z262" s="1"/>
     </row>
-    <row r="263" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -13015,7 +13015,7 @@
       <c r="Y263" s="1"/>
       <c r="Z263" s="1"/>
     </row>
-    <row r="264" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -13043,7 +13043,7 @@
       <c r="Y264" s="1"/>
       <c r="Z264" s="1"/>
     </row>
-    <row r="265" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -13071,7 +13071,7 @@
       <c r="Y265" s="1"/>
       <c r="Z265" s="1"/>
     </row>
-    <row r="266" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -13099,7 +13099,7 @@
       <c r="Y266" s="1"/>
       <c r="Z266" s="1"/>
     </row>
-    <row r="267" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -13127,7 +13127,7 @@
       <c r="Y267" s="1"/>
       <c r="Z267" s="1"/>
     </row>
-    <row r="268" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -13155,7 +13155,7 @@
       <c r="Y268" s="1"/>
       <c r="Z268" s="1"/>
     </row>
-    <row r="269" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -13183,7 +13183,7 @@
       <c r="Y269" s="1"/>
       <c r="Z269" s="1"/>
     </row>
-    <row r="270" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -13211,7 +13211,7 @@
       <c r="Y270" s="1"/>
       <c r="Z270" s="1"/>
     </row>
-    <row r="271" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -13239,7 +13239,7 @@
       <c r="Y271" s="1"/>
       <c r="Z271" s="1"/>
     </row>
-    <row r="272" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -13267,7 +13267,7 @@
       <c r="Y272" s="1"/>
       <c r="Z272" s="1"/>
     </row>
-    <row r="273" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -13295,7 +13295,7 @@
       <c r="Y273" s="1"/>
       <c r="Z273" s="1"/>
     </row>
-    <row r="274" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -13323,7 +13323,7 @@
       <c r="Y274" s="1"/>
       <c r="Z274" s="1"/>
     </row>
-    <row r="275" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -13351,7 +13351,7 @@
       <c r="Y275" s="1"/>
       <c r="Z275" s="1"/>
     </row>
-    <row r="276" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -13379,7 +13379,7 @@
       <c r="Y276" s="1"/>
       <c r="Z276" s="1"/>
     </row>
-    <row r="277" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -13407,7 +13407,7 @@
       <c r="Y277" s="1"/>
       <c r="Z277" s="1"/>
     </row>
-    <row r="278" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -13435,7 +13435,7 @@
       <c r="Y278" s="1"/>
       <c r="Z278" s="1"/>
     </row>
-    <row r="279" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -13463,7 +13463,7 @@
       <c r="Y279" s="1"/>
       <c r="Z279" s="1"/>
     </row>
-    <row r="280" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -13491,7 +13491,7 @@
       <c r="Y280" s="1"/>
       <c r="Z280" s="1"/>
     </row>
-    <row r="281" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -13519,7 +13519,7 @@
       <c r="Y281" s="1"/>
       <c r="Z281" s="1"/>
     </row>
-    <row r="282" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -13547,7 +13547,7 @@
       <c r="Y282" s="1"/>
       <c r="Z282" s="1"/>
     </row>
-    <row r="283" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -13575,7 +13575,7 @@
       <c r="Y283" s="1"/>
       <c r="Z283" s="1"/>
     </row>
-    <row r="284" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -13603,7 +13603,7 @@
       <c r="Y284" s="1"/>
       <c r="Z284" s="1"/>
     </row>
-    <row r="285" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -13631,7 +13631,7 @@
       <c r="Y285" s="1"/>
       <c r="Z285" s="1"/>
     </row>
-    <row r="286" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -13659,7 +13659,7 @@
       <c r="Y286" s="1"/>
       <c r="Z286" s="1"/>
     </row>
-    <row r="287" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -13687,7 +13687,7 @@
       <c r="Y287" s="1"/>
       <c r="Z287" s="1"/>
     </row>
-    <row r="288" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -13715,7 +13715,7 @@
       <c r="Y288" s="1"/>
       <c r="Z288" s="1"/>
     </row>
-    <row r="289" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -13743,7 +13743,7 @@
       <c r="Y289" s="1"/>
       <c r="Z289" s="1"/>
     </row>
-    <row r="290" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -13771,7 +13771,7 @@
       <c r="Y290" s="1"/>
       <c r="Z290" s="1"/>
     </row>
-    <row r="291" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -13799,7 +13799,7 @@
       <c r="Y291" s="1"/>
       <c r="Z291" s="1"/>
     </row>
-    <row r="292" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -13827,7 +13827,7 @@
       <c r="Y292" s="1"/>
       <c r="Z292" s="1"/>
     </row>
-    <row r="293" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -13855,7 +13855,7 @@
       <c r="Y293" s="1"/>
       <c r="Z293" s="1"/>
     </row>
-    <row r="294" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -13883,7 +13883,7 @@
       <c r="Y294" s="1"/>
       <c r="Z294" s="1"/>
     </row>
-    <row r="295" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -13911,7 +13911,7 @@
       <c r="Y295" s="1"/>
       <c r="Z295" s="1"/>
     </row>
-    <row r="296" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -13939,7 +13939,7 @@
       <c r="Y296" s="1"/>
       <c r="Z296" s="1"/>
     </row>
-    <row r="297" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -13967,7 +13967,7 @@
       <c r="Y297" s="1"/>
       <c r="Z297" s="1"/>
     </row>
-    <row r="298" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -13995,7 +13995,7 @@
       <c r="Y298" s="1"/>
       <c r="Z298" s="1"/>
     </row>
-    <row r="299" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -14023,7 +14023,7 @@
       <c r="Y299" s="1"/>
       <c r="Z299" s="1"/>
     </row>
-    <row r="300" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -14051,7 +14051,7 @@
       <c r="Y300" s="1"/>
       <c r="Z300" s="1"/>
     </row>
-    <row r="301" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -14079,7 +14079,7 @@
       <c r="Y301" s="1"/>
       <c r="Z301" s="1"/>
     </row>
-    <row r="302" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -14107,7 +14107,7 @@
       <c r="Y302" s="1"/>
       <c r="Z302" s="1"/>
     </row>
-    <row r="303" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -14135,7 +14135,7 @@
       <c r="Y303" s="1"/>
       <c r="Z303" s="1"/>
     </row>
-    <row r="304" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -14163,7 +14163,7 @@
       <c r="Y304" s="1"/>
       <c r="Z304" s="1"/>
     </row>
-    <row r="305" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -14191,7 +14191,7 @@
       <c r="Y305" s="1"/>
       <c r="Z305" s="1"/>
     </row>
-    <row r="306" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -14219,7 +14219,7 @@
       <c r="Y306" s="1"/>
       <c r="Z306" s="1"/>
     </row>
-    <row r="307" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -14247,7 +14247,7 @@
       <c r="Y307" s="1"/>
       <c r="Z307" s="1"/>
     </row>
-    <row r="308" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -14275,7 +14275,7 @@
       <c r="Y308" s="1"/>
       <c r="Z308" s="1"/>
     </row>
-    <row r="309" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -14303,7 +14303,7 @@
       <c r="Y309" s="1"/>
       <c r="Z309" s="1"/>
     </row>
-    <row r="310" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -14331,7 +14331,7 @@
       <c r="Y310" s="1"/>
       <c r="Z310" s="1"/>
     </row>
-    <row r="311" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -14359,7 +14359,7 @@
       <c r="Y311" s="1"/>
       <c r="Z311" s="1"/>
     </row>
-    <row r="312" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -14387,7 +14387,7 @@
       <c r="Y312" s="1"/>
       <c r="Z312" s="1"/>
     </row>
-    <row r="313" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -14415,7 +14415,7 @@
       <c r="Y313" s="1"/>
       <c r="Z313" s="1"/>
     </row>
-    <row r="314" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -14443,7 +14443,7 @@
       <c r="Y314" s="1"/>
       <c r="Z314" s="1"/>
     </row>
-    <row r="315" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -14471,7 +14471,7 @@
       <c r="Y315" s="1"/>
       <c r="Z315" s="1"/>
     </row>
-    <row r="316" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -14499,7 +14499,7 @@
       <c r="Y316" s="1"/>
       <c r="Z316" s="1"/>
     </row>
-    <row r="317" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -14527,7 +14527,7 @@
       <c r="Y317" s="1"/>
       <c r="Z317" s="1"/>
     </row>
-    <row r="318" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -14555,7 +14555,7 @@
       <c r="Y318" s="1"/>
       <c r="Z318" s="1"/>
     </row>
-    <row r="319" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -14583,7 +14583,7 @@
       <c r="Y319" s="1"/>
       <c r="Z319" s="1"/>
     </row>
-    <row r="320" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -14611,7 +14611,7 @@
       <c r="Y320" s="1"/>
       <c r="Z320" s="1"/>
     </row>
-    <row r="321" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -14639,7 +14639,7 @@
       <c r="Y321" s="1"/>
       <c r="Z321" s="1"/>
     </row>
-    <row r="322" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -14667,7 +14667,7 @@
       <c r="Y322" s="1"/>
       <c r="Z322" s="1"/>
     </row>
-    <row r="323" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -14695,7 +14695,7 @@
       <c r="Y323" s="1"/>
       <c r="Z323" s="1"/>
     </row>
-    <row r="324" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -14723,7 +14723,7 @@
       <c r="Y324" s="1"/>
       <c r="Z324" s="1"/>
     </row>
-    <row r="325" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -14751,7 +14751,7 @@
       <c r="Y325" s="1"/>
       <c r="Z325" s="1"/>
     </row>
-    <row r="326" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -14779,7 +14779,7 @@
       <c r="Y326" s="1"/>
       <c r="Z326" s="1"/>
     </row>
-    <row r="327" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -14807,7 +14807,7 @@
       <c r="Y327" s="1"/>
       <c r="Z327" s="1"/>
     </row>
-    <row r="328" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -14835,7 +14835,7 @@
       <c r="Y328" s="1"/>
       <c r="Z328" s="1"/>
     </row>
-    <row r="329" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -14863,7 +14863,7 @@
       <c r="Y329" s="1"/>
       <c r="Z329" s="1"/>
     </row>
-    <row r="330" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -14891,7 +14891,7 @@
       <c r="Y330" s="1"/>
       <c r="Z330" s="1"/>
     </row>
-    <row r="331" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -14919,7 +14919,7 @@
       <c r="Y331" s="1"/>
       <c r="Z331" s="1"/>
     </row>
-    <row r="332" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -14947,7 +14947,7 @@
       <c r="Y332" s="1"/>
       <c r="Z332" s="1"/>
     </row>
-    <row r="333" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -14975,7 +14975,7 @@
       <c r="Y333" s="1"/>
       <c r="Z333" s="1"/>
     </row>
-    <row r="334" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -15003,7 +15003,7 @@
       <c r="Y334" s="1"/>
       <c r="Z334" s="1"/>
     </row>
-    <row r="335" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -15031,7 +15031,7 @@
       <c r="Y335" s="1"/>
       <c r="Z335" s="1"/>
     </row>
-    <row r="336" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -15059,7 +15059,7 @@
       <c r="Y336" s="1"/>
       <c r="Z336" s="1"/>
     </row>
-    <row r="337" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -15087,7 +15087,7 @@
       <c r="Y337" s="1"/>
       <c r="Z337" s="1"/>
     </row>
-    <row r="338" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -15115,7 +15115,7 @@
       <c r="Y338" s="1"/>
       <c r="Z338" s="1"/>
     </row>
-    <row r="339" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -15143,7 +15143,7 @@
       <c r="Y339" s="1"/>
       <c r="Z339" s="1"/>
     </row>
-    <row r="340" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -15171,7 +15171,7 @@
       <c r="Y340" s="1"/>
       <c r="Z340" s="1"/>
     </row>
-    <row r="341" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -15199,7 +15199,7 @@
       <c r="Y341" s="1"/>
       <c r="Z341" s="1"/>
     </row>
-    <row r="342" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -15227,7 +15227,7 @@
       <c r="Y342" s="1"/>
       <c r="Z342" s="1"/>
     </row>
-    <row r="343" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -15255,7 +15255,7 @@
       <c r="Y343" s="1"/>
       <c r="Z343" s="1"/>
     </row>
-    <row r="344" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -15283,7 +15283,7 @@
       <c r="Y344" s="1"/>
       <c r="Z344" s="1"/>
     </row>
-    <row r="345" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -15311,7 +15311,7 @@
       <c r="Y345" s="1"/>
       <c r="Z345" s="1"/>
     </row>
-    <row r="346" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -15339,7 +15339,7 @@
       <c r="Y346" s="1"/>
       <c r="Z346" s="1"/>
     </row>
-    <row r="347" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -15367,7 +15367,7 @@
       <c r="Y347" s="1"/>
       <c r="Z347" s="1"/>
     </row>
-    <row r="348" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -15395,7 +15395,7 @@
       <c r="Y348" s="1"/>
       <c r="Z348" s="1"/>
     </row>
-    <row r="349" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -15423,7 +15423,7 @@
       <c r="Y349" s="1"/>
       <c r="Z349" s="1"/>
     </row>
-    <row r="350" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -15451,7 +15451,7 @@
       <c r="Y350" s="1"/>
       <c r="Z350" s="1"/>
     </row>
-    <row r="351" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -15479,7 +15479,7 @@
       <c r="Y351" s="1"/>
       <c r="Z351" s="1"/>
     </row>
-    <row r="352" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -15507,7 +15507,7 @@
       <c r="Y352" s="1"/>
       <c r="Z352" s="1"/>
     </row>
-    <row r="353" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -15535,7 +15535,7 @@
       <c r="Y353" s="1"/>
       <c r="Z353" s="1"/>
     </row>
-    <row r="354" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -15563,7 +15563,7 @@
       <c r="Y354" s="1"/>
       <c r="Z354" s="1"/>
     </row>
-    <row r="355" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -15591,7 +15591,7 @@
       <c r="Y355" s="1"/>
       <c r="Z355" s="1"/>
     </row>
-    <row r="356" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -15619,7 +15619,7 @@
       <c r="Y356" s="1"/>
       <c r="Z356" s="1"/>
     </row>
-    <row r="357" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -15647,7 +15647,7 @@
       <c r="Y357" s="1"/>
       <c r="Z357" s="1"/>
     </row>
-    <row r="358" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -15675,7 +15675,7 @@
       <c r="Y358" s="1"/>
       <c r="Z358" s="1"/>
     </row>
-    <row r="359" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -15703,7 +15703,7 @@
       <c r="Y359" s="1"/>
       <c r="Z359" s="1"/>
     </row>
-    <row r="360" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -15731,7 +15731,7 @@
       <c r="Y360" s="1"/>
       <c r="Z360" s="1"/>
     </row>
-    <row r="361" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -15759,7 +15759,7 @@
       <c r="Y361" s="1"/>
       <c r="Z361" s="1"/>
     </row>
-    <row r="362" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -15787,7 +15787,7 @@
       <c r="Y362" s="1"/>
       <c r="Z362" s="1"/>
     </row>
-    <row r="363" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -15815,7 +15815,7 @@
       <c r="Y363" s="1"/>
       <c r="Z363" s="1"/>
     </row>
-    <row r="364" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -15843,7 +15843,7 @@
       <c r="Y364" s="1"/>
       <c r="Z364" s="1"/>
     </row>
-    <row r="365" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -15871,7 +15871,7 @@
       <c r="Y365" s="1"/>
       <c r="Z365" s="1"/>
     </row>
-    <row r="366" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -15899,7 +15899,7 @@
       <c r="Y366" s="1"/>
       <c r="Z366" s="1"/>
     </row>
-    <row r="367" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -15927,7 +15927,7 @@
       <c r="Y367" s="1"/>
       <c r="Z367" s="1"/>
     </row>
-    <row r="368" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -15955,7 +15955,7 @@
       <c r="Y368" s="1"/>
       <c r="Z368" s="1"/>
     </row>
-    <row r="369" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -15983,7 +15983,7 @@
       <c r="Y369" s="1"/>
       <c r="Z369" s="1"/>
     </row>
-    <row r="370" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -16011,7 +16011,7 @@
       <c r="Y370" s="1"/>
       <c r="Z370" s="1"/>
     </row>
-    <row r="371" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -16039,7 +16039,7 @@
       <c r="Y371" s="1"/>
       <c r="Z371" s="1"/>
     </row>
-    <row r="372" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -16067,7 +16067,7 @@
       <c r="Y372" s="1"/>
       <c r="Z372" s="1"/>
     </row>
-    <row r="373" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -16095,7 +16095,7 @@
       <c r="Y373" s="1"/>
       <c r="Z373" s="1"/>
     </row>
-    <row r="374" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -16123,7 +16123,7 @@
       <c r="Y374" s="1"/>
       <c r="Z374" s="1"/>
     </row>
-    <row r="375" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -16151,7 +16151,7 @@
       <c r="Y375" s="1"/>
       <c r="Z375" s="1"/>
     </row>
-    <row r="376" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -16179,7 +16179,7 @@
       <c r="Y376" s="1"/>
       <c r="Z376" s="1"/>
     </row>
-    <row r="377" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -16207,7 +16207,7 @@
       <c r="Y377" s="1"/>
       <c r="Z377" s="1"/>
     </row>
-    <row r="378" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -16235,7 +16235,7 @@
       <c r="Y378" s="1"/>
       <c r="Z378" s="1"/>
     </row>
-    <row r="379" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -16263,7 +16263,7 @@
       <c r="Y379" s="1"/>
       <c r="Z379" s="1"/>
     </row>
-    <row r="380" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -16291,7 +16291,7 @@
       <c r="Y380" s="1"/>
       <c r="Z380" s="1"/>
     </row>
-    <row r="381" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -16319,7 +16319,7 @@
       <c r="Y381" s="1"/>
       <c r="Z381" s="1"/>
     </row>
-    <row r="382" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -16347,7 +16347,7 @@
       <c r="Y382" s="1"/>
       <c r="Z382" s="1"/>
     </row>
-    <row r="383" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -16375,7 +16375,7 @@
       <c r="Y383" s="1"/>
       <c r="Z383" s="1"/>
     </row>
-    <row r="384" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -16403,7 +16403,7 @@
       <c r="Y384" s="1"/>
       <c r="Z384" s="1"/>
     </row>
-    <row r="385" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -16431,7 +16431,7 @@
       <c r="Y385" s="1"/>
       <c r="Z385" s="1"/>
     </row>
-    <row r="386" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -16459,7 +16459,7 @@
       <c r="Y386" s="1"/>
       <c r="Z386" s="1"/>
     </row>
-    <row r="387" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -16487,7 +16487,7 @@
       <c r="Y387" s="1"/>
       <c r="Z387" s="1"/>
     </row>
-    <row r="388" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -16515,7 +16515,7 @@
       <c r="Y388" s="1"/>
       <c r="Z388" s="1"/>
     </row>
-    <row r="389" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -16543,7 +16543,7 @@
       <c r="Y389" s="1"/>
       <c r="Z389" s="1"/>
     </row>
-    <row r="390" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -16571,7 +16571,7 @@
       <c r="Y390" s="1"/>
       <c r="Z390" s="1"/>
     </row>
-    <row r="391" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -16599,7 +16599,7 @@
       <c r="Y391" s="1"/>
       <c r="Z391" s="1"/>
     </row>
-    <row r="392" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -16627,7 +16627,7 @@
       <c r="Y392" s="1"/>
       <c r="Z392" s="1"/>
     </row>
-    <row r="393" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -16655,7 +16655,7 @@
       <c r="Y393" s="1"/>
       <c r="Z393" s="1"/>
     </row>
-    <row r="394" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -16683,7 +16683,7 @@
       <c r="Y394" s="1"/>
       <c r="Z394" s="1"/>
     </row>
-    <row r="395" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -16711,7 +16711,7 @@
       <c r="Y395" s="1"/>
       <c r="Z395" s="1"/>
     </row>
-    <row r="396" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -16739,7 +16739,7 @@
       <c r="Y396" s="1"/>
       <c r="Z396" s="1"/>
     </row>
-    <row r="397" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -16767,7 +16767,7 @@
       <c r="Y397" s="1"/>
       <c r="Z397" s="1"/>
     </row>
-    <row r="398" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -16795,7 +16795,7 @@
       <c r="Y398" s="1"/>
       <c r="Z398" s="1"/>
     </row>
-    <row r="399" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -16823,7 +16823,7 @@
       <c r="Y399" s="1"/>
       <c r="Z399" s="1"/>
     </row>
-    <row r="400" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -16851,7 +16851,7 @@
       <c r="Y400" s="1"/>
       <c r="Z400" s="1"/>
     </row>
-    <row r="401" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -16879,7 +16879,7 @@
       <c r="Y401" s="1"/>
       <c r="Z401" s="1"/>
     </row>
-    <row r="402" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -16907,7 +16907,7 @@
       <c r="Y402" s="1"/>
       <c r="Z402" s="1"/>
     </row>
-    <row r="403" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -16935,7 +16935,7 @@
       <c r="Y403" s="1"/>
       <c r="Z403" s="1"/>
     </row>
-    <row r="404" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -16963,7 +16963,7 @@
       <c r="Y404" s="1"/>
       <c r="Z404" s="1"/>
     </row>
-    <row r="405" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -16991,7 +16991,7 @@
       <c r="Y405" s="1"/>
       <c r="Z405" s="1"/>
     </row>
-    <row r="406" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -17019,7 +17019,7 @@
       <c r="Y406" s="1"/>
       <c r="Z406" s="1"/>
     </row>
-    <row r="407" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -17047,7 +17047,7 @@
       <c r="Y407" s="1"/>
       <c r="Z407" s="1"/>
     </row>
-    <row r="408" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -17075,7 +17075,7 @@
       <c r="Y408" s="1"/>
       <c r="Z408" s="1"/>
     </row>
-    <row r="409" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -17103,7 +17103,7 @@
       <c r="Y409" s="1"/>
       <c r="Z409" s="1"/>
     </row>
-    <row r="410" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -17131,7 +17131,7 @@
       <c r="Y410" s="1"/>
       <c r="Z410" s="1"/>
     </row>
-    <row r="411" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -17159,7 +17159,7 @@
       <c r="Y411" s="1"/>
       <c r="Z411" s="1"/>
     </row>
-    <row r="412" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -17187,7 +17187,7 @@
       <c r="Y412" s="1"/>
       <c r="Z412" s="1"/>
     </row>
-    <row r="413" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -17215,7 +17215,7 @@
       <c r="Y413" s="1"/>
       <c r="Z413" s="1"/>
     </row>
-    <row r="414" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -17243,7 +17243,7 @@
       <c r="Y414" s="1"/>
       <c r="Z414" s="1"/>
     </row>
-    <row r="415" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -17271,7 +17271,7 @@
       <c r="Y415" s="1"/>
       <c r="Z415" s="1"/>
     </row>
-    <row r="416" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -17299,7 +17299,7 @@
       <c r="Y416" s="1"/>
       <c r="Z416" s="1"/>
     </row>
-    <row r="417" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -17327,7 +17327,7 @@
       <c r="Y417" s="1"/>
       <c r="Z417" s="1"/>
     </row>
-    <row r="418" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -17355,7 +17355,7 @@
       <c r="Y418" s="1"/>
       <c r="Z418" s="1"/>
     </row>
-    <row r="419" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -17383,7 +17383,7 @@
       <c r="Y419" s="1"/>
       <c r="Z419" s="1"/>
     </row>
-    <row r="420" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -17411,7 +17411,7 @@
       <c r="Y420" s="1"/>
       <c r="Z420" s="1"/>
     </row>
-    <row r="421" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -17439,7 +17439,7 @@
       <c r="Y421" s="1"/>
       <c r="Z421" s="1"/>
     </row>
-    <row r="422" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -17467,7 +17467,7 @@
       <c r="Y422" s="1"/>
       <c r="Z422" s="1"/>
     </row>
-    <row r="423" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -17495,7 +17495,7 @@
       <c r="Y423" s="1"/>
       <c r="Z423" s="1"/>
     </row>
-    <row r="424" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -17523,7 +17523,7 @@
       <c r="Y424" s="1"/>
       <c r="Z424" s="1"/>
     </row>
-    <row r="425" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -17551,7 +17551,7 @@
       <c r="Y425" s="1"/>
       <c r="Z425" s="1"/>
     </row>
-    <row r="426" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -17579,7 +17579,7 @@
       <c r="Y426" s="1"/>
       <c r="Z426" s="1"/>
     </row>
-    <row r="427" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -17607,7 +17607,7 @@
       <c r="Y427" s="1"/>
       <c r="Z427" s="1"/>
     </row>
-    <row r="428" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -17635,7 +17635,7 @@
       <c r="Y428" s="1"/>
       <c r="Z428" s="1"/>
     </row>
-    <row r="429" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -17663,7 +17663,7 @@
       <c r="Y429" s="1"/>
       <c r="Z429" s="1"/>
     </row>
-    <row r="430" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -17691,7 +17691,7 @@
       <c r="Y430" s="1"/>
       <c r="Z430" s="1"/>
     </row>
-    <row r="431" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -17719,7 +17719,7 @@
       <c r="Y431" s="1"/>
       <c r="Z431" s="1"/>
     </row>
-    <row r="432" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -17747,7 +17747,7 @@
       <c r="Y432" s="1"/>
       <c r="Z432" s="1"/>
     </row>
-    <row r="433" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -17775,7 +17775,7 @@
       <c r="Y433" s="1"/>
       <c r="Z433" s="1"/>
     </row>
-    <row r="434" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -17803,7 +17803,7 @@
       <c r="Y434" s="1"/>
       <c r="Z434" s="1"/>
     </row>
-    <row r="435" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -17831,7 +17831,7 @@
       <c r="Y435" s="1"/>
       <c r="Z435" s="1"/>
     </row>
-    <row r="436" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -17859,7 +17859,7 @@
       <c r="Y436" s="1"/>
       <c r="Z436" s="1"/>
     </row>
-    <row r="437" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -17887,7 +17887,7 @@
       <c r="Y437" s="1"/>
       <c r="Z437" s="1"/>
     </row>
-    <row r="438" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -17915,7 +17915,7 @@
       <c r="Y438" s="1"/>
       <c r="Z438" s="1"/>
     </row>
-    <row r="439" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -17943,7 +17943,7 @@
       <c r="Y439" s="1"/>
       <c r="Z439" s="1"/>
     </row>
-    <row r="440" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -17971,7 +17971,7 @@
       <c r="Y440" s="1"/>
       <c r="Z440" s="1"/>
     </row>
-    <row r="441" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -17999,7 +17999,7 @@
       <c r="Y441" s="1"/>
       <c r="Z441" s="1"/>
     </row>
-    <row r="442" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -18027,7 +18027,7 @@
       <c r="Y442" s="1"/>
       <c r="Z442" s="1"/>
     </row>
-    <row r="443" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -18055,7 +18055,7 @@
       <c r="Y443" s="1"/>
       <c r="Z443" s="1"/>
     </row>
-    <row r="444" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -18083,7 +18083,7 @@
       <c r="Y444" s="1"/>
       <c r="Z444" s="1"/>
     </row>
-    <row r="445" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -18111,7 +18111,7 @@
       <c r="Y445" s="1"/>
       <c r="Z445" s="1"/>
     </row>
-    <row r="446" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -18139,7 +18139,7 @@
       <c r="Y446" s="1"/>
       <c r="Z446" s="1"/>
     </row>
-    <row r="447" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -18167,7 +18167,7 @@
       <c r="Y447" s="1"/>
       <c r="Z447" s="1"/>
     </row>
-    <row r="448" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -18195,7 +18195,7 @@
       <c r="Y448" s="1"/>
       <c r="Z448" s="1"/>
     </row>
-    <row r="449" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -18223,7 +18223,7 @@
       <c r="Y449" s="1"/>
       <c r="Z449" s="1"/>
     </row>
-    <row r="450" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -18251,7 +18251,7 @@
       <c r="Y450" s="1"/>
       <c r="Z450" s="1"/>
     </row>
-    <row r="451" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -18279,7 +18279,7 @@
       <c r="Y451" s="1"/>
       <c r="Z451" s="1"/>
     </row>
-    <row r="452" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -18307,7 +18307,7 @@
       <c r="Y452" s="1"/>
       <c r="Z452" s="1"/>
     </row>
-    <row r="453" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -18335,7 +18335,7 @@
       <c r="Y453" s="1"/>
       <c r="Z453" s="1"/>
     </row>
-    <row r="454" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -18363,7 +18363,7 @@
       <c r="Y454" s="1"/>
       <c r="Z454" s="1"/>
     </row>
-    <row r="455" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -18391,7 +18391,7 @@
       <c r="Y455" s="1"/>
       <c r="Z455" s="1"/>
     </row>
-    <row r="456" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -18419,7 +18419,7 @@
       <c r="Y456" s="1"/>
       <c r="Z456" s="1"/>
     </row>
-    <row r="457" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -18447,7 +18447,7 @@
       <c r="Y457" s="1"/>
       <c r="Z457" s="1"/>
     </row>
-    <row r="458" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -18475,7 +18475,7 @@
       <c r="Y458" s="1"/>
       <c r="Z458" s="1"/>
     </row>
-    <row r="459" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -18503,7 +18503,7 @@
       <c r="Y459" s="1"/>
       <c r="Z459" s="1"/>
     </row>
-    <row r="460" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -18531,7 +18531,7 @@
       <c r="Y460" s="1"/>
       <c r="Z460" s="1"/>
     </row>
-    <row r="461" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -18559,7 +18559,7 @@
       <c r="Y461" s="1"/>
       <c r="Z461" s="1"/>
     </row>
-    <row r="462" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -18587,7 +18587,7 @@
       <c r="Y462" s="1"/>
       <c r="Z462" s="1"/>
     </row>
-    <row r="463" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -18615,7 +18615,7 @@
       <c r="Y463" s="1"/>
       <c r="Z463" s="1"/>
     </row>
-    <row r="464" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -18643,7 +18643,7 @@
       <c r="Y464" s="1"/>
       <c r="Z464" s="1"/>
     </row>
-    <row r="465" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -18671,7 +18671,7 @@
       <c r="Y465" s="1"/>
       <c r="Z465" s="1"/>
     </row>
-    <row r="466" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -18699,7 +18699,7 @@
       <c r="Y466" s="1"/>
       <c r="Z466" s="1"/>
     </row>
-    <row r="467" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -18727,7 +18727,7 @@
       <c r="Y467" s="1"/>
       <c r="Z467" s="1"/>
     </row>
-    <row r="468" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -18755,7 +18755,7 @@
       <c r="Y468" s="1"/>
       <c r="Z468" s="1"/>
     </row>
-    <row r="469" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -18783,7 +18783,7 @@
       <c r="Y469" s="1"/>
       <c r="Z469" s="1"/>
     </row>
-    <row r="470" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -18811,7 +18811,7 @@
       <c r="Y470" s="1"/>
       <c r="Z470" s="1"/>
     </row>
-    <row r="471" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -18839,7 +18839,7 @@
       <c r="Y471" s="1"/>
       <c r="Z471" s="1"/>
     </row>
-    <row r="472" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -18867,7 +18867,7 @@
       <c r="Y472" s="1"/>
       <c r="Z472" s="1"/>
     </row>
-    <row r="473" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -18895,7 +18895,7 @@
       <c r="Y473" s="1"/>
       <c r="Z473" s="1"/>
     </row>
-    <row r="474" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -18923,7 +18923,7 @@
       <c r="Y474" s="1"/>
       <c r="Z474" s="1"/>
     </row>
-    <row r="475" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -18951,7 +18951,7 @@
       <c r="Y475" s="1"/>
       <c r="Z475" s="1"/>
     </row>
-    <row r="476" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -18979,7 +18979,7 @@
       <c r="Y476" s="1"/>
       <c r="Z476" s="1"/>
     </row>
-    <row r="477" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -19007,7 +19007,7 @@
       <c r="Y477" s="1"/>
       <c r="Z477" s="1"/>
     </row>
-    <row r="478" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -19035,7 +19035,7 @@
       <c r="Y478" s="1"/>
       <c r="Z478" s="1"/>
     </row>
-    <row r="479" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -19063,7 +19063,7 @@
       <c r="Y479" s="1"/>
       <c r="Z479" s="1"/>
     </row>
-    <row r="480" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -19091,7 +19091,7 @@
       <c r="Y480" s="1"/>
       <c r="Z480" s="1"/>
     </row>
-    <row r="481" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -19119,7 +19119,7 @@
       <c r="Y481" s="1"/>
       <c r="Z481" s="1"/>
     </row>
-    <row r="482" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -19147,7 +19147,7 @@
       <c r="Y482" s="1"/>
       <c r="Z482" s="1"/>
     </row>
-    <row r="483" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -19175,7 +19175,7 @@
       <c r="Y483" s="1"/>
       <c r="Z483" s="1"/>
     </row>
-    <row r="484" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -19203,7 +19203,7 @@
       <c r="Y484" s="1"/>
       <c r="Z484" s="1"/>
     </row>
-    <row r="485" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -19231,7 +19231,7 @@
       <c r="Y485" s="1"/>
       <c r="Z485" s="1"/>
     </row>
-    <row r="486" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -19259,7 +19259,7 @@
       <c r="Y486" s="1"/>
       <c r="Z486" s="1"/>
     </row>
-    <row r="487" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -19287,7 +19287,7 @@
       <c r="Y487" s="1"/>
       <c r="Z487" s="1"/>
     </row>
-    <row r="488" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -19315,7 +19315,7 @@
       <c r="Y488" s="1"/>
       <c r="Z488" s="1"/>
     </row>
-    <row r="489" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -19343,7 +19343,7 @@
       <c r="Y489" s="1"/>
       <c r="Z489" s="1"/>
     </row>
-    <row r="490" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -19371,7 +19371,7 @@
       <c r="Y490" s="1"/>
       <c r="Z490" s="1"/>
     </row>
-    <row r="491" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -19399,7 +19399,7 @@
       <c r="Y491" s="1"/>
       <c r="Z491" s="1"/>
     </row>
-    <row r="492" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -19427,7 +19427,7 @@
       <c r="Y492" s="1"/>
       <c r="Z492" s="1"/>
     </row>
-    <row r="493" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -19455,7 +19455,7 @@
       <c r="Y493" s="1"/>
       <c r="Z493" s="1"/>
     </row>
-    <row r="494" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -19483,7 +19483,7 @@
       <c r="Y494" s="1"/>
       <c r="Z494" s="1"/>
     </row>
-    <row r="495" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -19511,7 +19511,7 @@
       <c r="Y495" s="1"/>
       <c r="Z495" s="1"/>
     </row>
-    <row r="496" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -19539,7 +19539,7 @@
       <c r="Y496" s="1"/>
       <c r="Z496" s="1"/>
     </row>
-    <row r="497" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -19567,7 +19567,7 @@
       <c r="Y497" s="1"/>
       <c r="Z497" s="1"/>
     </row>
-    <row r="498" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -19595,7 +19595,7 @@
       <c r="Y498" s="1"/>
       <c r="Z498" s="1"/>
     </row>
-    <row r="499" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -19623,7 +19623,7 @@
       <c r="Y499" s="1"/>
       <c r="Z499" s="1"/>
     </row>
-    <row r="500" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -19651,7 +19651,7 @@
       <c r="Y500" s="1"/>
       <c r="Z500" s="1"/>
     </row>
-    <row r="501" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -19679,7 +19679,7 @@
       <c r="Y501" s="1"/>
       <c r="Z501" s="1"/>
     </row>
-    <row r="502" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -19707,7 +19707,7 @@
       <c r="Y502" s="1"/>
       <c r="Z502" s="1"/>
     </row>
-    <row r="503" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -19735,7 +19735,7 @@
       <c r="Y503" s="1"/>
       <c r="Z503" s="1"/>
     </row>
-    <row r="504" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -19763,7 +19763,7 @@
       <c r="Y504" s="1"/>
       <c r="Z504" s="1"/>
     </row>
-    <row r="505" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -19791,7 +19791,7 @@
       <c r="Y505" s="1"/>
       <c r="Z505" s="1"/>
     </row>
-    <row r="506" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -19819,7 +19819,7 @@
       <c r="Y506" s="1"/>
       <c r="Z506" s="1"/>
     </row>
-    <row r="507" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -19847,7 +19847,7 @@
       <c r="Y507" s="1"/>
       <c r="Z507" s="1"/>
     </row>
-    <row r="508" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -19875,7 +19875,7 @@
       <c r="Y508" s="1"/>
       <c r="Z508" s="1"/>
     </row>
-    <row r="509" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -19903,7 +19903,7 @@
       <c r="Y509" s="1"/>
       <c r="Z509" s="1"/>
     </row>
-    <row r="510" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -19931,7 +19931,7 @@
       <c r="Y510" s="1"/>
       <c r="Z510" s="1"/>
     </row>
-    <row r="511" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -19959,7 +19959,7 @@
       <c r="Y511" s="1"/>
       <c r="Z511" s="1"/>
     </row>
-    <row r="512" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -19987,7 +19987,7 @@
       <c r="Y512" s="1"/>
       <c r="Z512" s="1"/>
     </row>
-    <row r="513" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -20015,7 +20015,7 @@
       <c r="Y513" s="1"/>
       <c r="Z513" s="1"/>
     </row>
-    <row r="514" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -20043,7 +20043,7 @@
       <c r="Y514" s="1"/>
       <c r="Z514" s="1"/>
     </row>
-    <row r="515" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -20071,7 +20071,7 @@
       <c r="Y515" s="1"/>
       <c r="Z515" s="1"/>
     </row>
-    <row r="516" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -20099,7 +20099,7 @@
       <c r="Y516" s="1"/>
       <c r="Z516" s="1"/>
     </row>
-    <row r="517" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -20127,7 +20127,7 @@
       <c r="Y517" s="1"/>
       <c r="Z517" s="1"/>
     </row>
-    <row r="518" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -20155,7 +20155,7 @@
       <c r="Y518" s="1"/>
       <c r="Z518" s="1"/>
     </row>
-    <row r="519" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -20183,7 +20183,7 @@
       <c r="Y519" s="1"/>
       <c r="Z519" s="1"/>
     </row>
-    <row r="520" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -20211,7 +20211,7 @@
       <c r="Y520" s="1"/>
       <c r="Z520" s="1"/>
     </row>
-    <row r="521" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -20239,7 +20239,7 @@
       <c r="Y521" s="1"/>
       <c r="Z521" s="1"/>
     </row>
-    <row r="522" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -20267,7 +20267,7 @@
       <c r="Y522" s="1"/>
       <c r="Z522" s="1"/>
     </row>
-    <row r="523" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -20295,7 +20295,7 @@
       <c r="Y523" s="1"/>
       <c r="Z523" s="1"/>
     </row>
-    <row r="524" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -20323,7 +20323,7 @@
       <c r="Y524" s="1"/>
       <c r="Z524" s="1"/>
     </row>
-    <row r="525" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -20351,7 +20351,7 @@
       <c r="Y525" s="1"/>
       <c r="Z525" s="1"/>
     </row>
-    <row r="526" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -20379,7 +20379,7 @@
       <c r="Y526" s="1"/>
       <c r="Z526" s="1"/>
     </row>
-    <row r="527" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -20407,7 +20407,7 @@
       <c r="Y527" s="1"/>
       <c r="Z527" s="1"/>
     </row>
-    <row r="528" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -20435,7 +20435,7 @@
       <c r="Y528" s="1"/>
       <c r="Z528" s="1"/>
     </row>
-    <row r="529" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -20463,7 +20463,7 @@
       <c r="Y529" s="1"/>
       <c r="Z529" s="1"/>
     </row>
-    <row r="530" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -20491,7 +20491,7 @@
       <c r="Y530" s="1"/>
       <c r="Z530" s="1"/>
     </row>
-    <row r="531" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -20519,7 +20519,7 @@
       <c r="Y531" s="1"/>
       <c r="Z531" s="1"/>
     </row>
-    <row r="532" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -20547,7 +20547,7 @@
       <c r="Y532" s="1"/>
       <c r="Z532" s="1"/>
     </row>
-    <row r="533" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -20575,7 +20575,7 @@
       <c r="Y533" s="1"/>
       <c r="Z533" s="1"/>
     </row>
-    <row r="534" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -20603,7 +20603,7 @@
       <c r="Y534" s="1"/>
       <c r="Z534" s="1"/>
     </row>
-    <row r="535" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -20631,7 +20631,7 @@
       <c r="Y535" s="1"/>
       <c r="Z535" s="1"/>
     </row>
-    <row r="536" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -20659,7 +20659,7 @@
       <c r="Y536" s="1"/>
       <c r="Z536" s="1"/>
     </row>
-    <row r="537" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -20687,7 +20687,7 @@
       <c r="Y537" s="1"/>
       <c r="Z537" s="1"/>
     </row>
-    <row r="538" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -20715,7 +20715,7 @@
       <c r="Y538" s="1"/>
       <c r="Z538" s="1"/>
     </row>
-    <row r="539" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -20743,7 +20743,7 @@
       <c r="Y539" s="1"/>
       <c r="Z539" s="1"/>
     </row>
-    <row r="540" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -20771,7 +20771,7 @@
       <c r="Y540" s="1"/>
       <c r="Z540" s="1"/>
     </row>
-    <row r="541" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -20799,7 +20799,7 @@
       <c r="Y541" s="1"/>
       <c r="Z541" s="1"/>
     </row>
-    <row r="542" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -20827,7 +20827,7 @@
       <c r="Y542" s="1"/>
       <c r="Z542" s="1"/>
     </row>
-    <row r="543" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -20855,7 +20855,7 @@
       <c r="Y543" s="1"/>
       <c r="Z543" s="1"/>
     </row>
-    <row r="544" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -20883,7 +20883,7 @@
       <c r="Y544" s="1"/>
       <c r="Z544" s="1"/>
     </row>
-    <row r="545" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -20911,7 +20911,7 @@
       <c r="Y545" s="1"/>
       <c r="Z545" s="1"/>
     </row>
-    <row r="546" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -20939,7 +20939,7 @@
       <c r="Y546" s="1"/>
       <c r="Z546" s="1"/>
     </row>
-    <row r="547" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -20967,7 +20967,7 @@
       <c r="Y547" s="1"/>
       <c r="Z547" s="1"/>
     </row>
-    <row r="548" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -20995,7 +20995,7 @@
       <c r="Y548" s="1"/>
       <c r="Z548" s="1"/>
     </row>
-    <row r="549" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -21023,7 +21023,7 @@
       <c r="Y549" s="1"/>
       <c r="Z549" s="1"/>
     </row>
-    <row r="550" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -21051,7 +21051,7 @@
       <c r="Y550" s="1"/>
       <c r="Z550" s="1"/>
     </row>
-    <row r="551" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -21079,7 +21079,7 @@
       <c r="Y551" s="1"/>
       <c r="Z551" s="1"/>
     </row>
-    <row r="552" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -21107,7 +21107,7 @@
       <c r="Y552" s="1"/>
       <c r="Z552" s="1"/>
     </row>
-    <row r="553" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -21135,7 +21135,7 @@
       <c r="Y553" s="1"/>
       <c r="Z553" s="1"/>
     </row>
-    <row r="554" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -21163,7 +21163,7 @@
       <c r="Y554" s="1"/>
       <c r="Z554" s="1"/>
     </row>
-    <row r="555" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -21191,7 +21191,7 @@
       <c r="Y555" s="1"/>
       <c r="Z555" s="1"/>
     </row>
-    <row r="556" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -21219,7 +21219,7 @@
       <c r="Y556" s="1"/>
       <c r="Z556" s="1"/>
     </row>
-    <row r="557" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -21247,7 +21247,7 @@
       <c r="Y557" s="1"/>
       <c r="Z557" s="1"/>
     </row>
-    <row r="558" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -21275,7 +21275,7 @@
       <c r="Y558" s="1"/>
       <c r="Z558" s="1"/>
     </row>
-    <row r="559" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -21303,7 +21303,7 @@
       <c r="Y559" s="1"/>
       <c r="Z559" s="1"/>
     </row>
-    <row r="560" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -21331,7 +21331,7 @@
       <c r="Y560" s="1"/>
       <c r="Z560" s="1"/>
     </row>
-    <row r="561" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -21359,7 +21359,7 @@
       <c r="Y561" s="1"/>
       <c r="Z561" s="1"/>
     </row>
-    <row r="562" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -21387,7 +21387,7 @@
       <c r="Y562" s="1"/>
       <c r="Z562" s="1"/>
     </row>
-    <row r="563" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -21415,7 +21415,7 @@
       <c r="Y563" s="1"/>
       <c r="Z563" s="1"/>
     </row>
-    <row r="564" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -21443,7 +21443,7 @@
       <c r="Y564" s="1"/>
       <c r="Z564" s="1"/>
     </row>
-    <row r="565" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -21471,7 +21471,7 @@
       <c r="Y565" s="1"/>
       <c r="Z565" s="1"/>
     </row>
-    <row r="566" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -21499,7 +21499,7 @@
       <c r="Y566" s="1"/>
       <c r="Z566" s="1"/>
     </row>
-    <row r="567" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -21527,7 +21527,7 @@
       <c r="Y567" s="1"/>
       <c r="Z567" s="1"/>
     </row>
-    <row r="568" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -21555,7 +21555,7 @@
       <c r="Y568" s="1"/>
       <c r="Z568" s="1"/>
     </row>
-    <row r="569" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -21583,7 +21583,7 @@
       <c r="Y569" s="1"/>
       <c r="Z569" s="1"/>
     </row>
-    <row r="570" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -21611,7 +21611,7 @@
       <c r="Y570" s="1"/>
       <c r="Z570" s="1"/>
     </row>
-    <row r="571" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -21639,7 +21639,7 @@
       <c r="Y571" s="1"/>
       <c r="Z571" s="1"/>
     </row>
-    <row r="572" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -21667,7 +21667,7 @@
       <c r="Y572" s="1"/>
       <c r="Z572" s="1"/>
     </row>
-    <row r="573" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -21695,7 +21695,7 @@
       <c r="Y573" s="1"/>
       <c r="Z573" s="1"/>
     </row>
-    <row r="574" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -21723,7 +21723,7 @@
       <c r="Y574" s="1"/>
       <c r="Z574" s="1"/>
     </row>
-    <row r="575" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -21751,7 +21751,7 @@
       <c r="Y575" s="1"/>
       <c r="Z575" s="1"/>
     </row>
-    <row r="576" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -21779,7 +21779,7 @@
       <c r="Y576" s="1"/>
       <c r="Z576" s="1"/>
     </row>
-    <row r="577" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -21807,7 +21807,7 @@
       <c r="Y577" s="1"/>
       <c r="Z577" s="1"/>
     </row>
-    <row r="578" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -21835,7 +21835,7 @@
       <c r="Y578" s="1"/>
       <c r="Z578" s="1"/>
     </row>
-    <row r="579" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -21863,7 +21863,7 @@
       <c r="Y579" s="1"/>
       <c r="Z579" s="1"/>
     </row>
-    <row r="580" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -21891,7 +21891,7 @@
       <c r="Y580" s="1"/>
       <c r="Z580" s="1"/>
     </row>
-    <row r="581" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -21919,7 +21919,7 @@
       <c r="Y581" s="1"/>
       <c r="Z581" s="1"/>
     </row>
-    <row r="582" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -21947,7 +21947,7 @@
       <c r="Y582" s="1"/>
       <c r="Z582" s="1"/>
     </row>
-    <row r="583" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -21975,7 +21975,7 @@
       <c r="Y583" s="1"/>
       <c r="Z583" s="1"/>
     </row>
-    <row r="584" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -22003,7 +22003,7 @@
       <c r="Y584" s="1"/>
       <c r="Z584" s="1"/>
     </row>
-    <row r="585" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -22031,7 +22031,7 @@
       <c r="Y585" s="1"/>
       <c r="Z585" s="1"/>
     </row>
-    <row r="586" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -22059,7 +22059,7 @@
       <c r="Y586" s="1"/>
       <c r="Z586" s="1"/>
     </row>
-    <row r="587" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -22087,7 +22087,7 @@
       <c r="Y587" s="1"/>
       <c r="Z587" s="1"/>
     </row>
-    <row r="588" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -22115,7 +22115,7 @@
       <c r="Y588" s="1"/>
       <c r="Z588" s="1"/>
     </row>
-    <row r="589" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -22143,7 +22143,7 @@
       <c r="Y589" s="1"/>
       <c r="Z589" s="1"/>
     </row>
-    <row r="590" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -22171,7 +22171,7 @@
       <c r="Y590" s="1"/>
       <c r="Z590" s="1"/>
     </row>
-    <row r="591" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -22199,7 +22199,7 @@
       <c r="Y591" s="1"/>
       <c r="Z591" s="1"/>
     </row>
-    <row r="592" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -22227,7 +22227,7 @@
       <c r="Y592" s="1"/>
       <c r="Z592" s="1"/>
     </row>
-    <row r="593" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -22255,7 +22255,7 @@
       <c r="Y593" s="1"/>
       <c r="Z593" s="1"/>
     </row>
-    <row r="594" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -22283,7 +22283,7 @@
       <c r="Y594" s="1"/>
       <c r="Z594" s="1"/>
     </row>
-    <row r="595" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -22311,7 +22311,7 @@
       <c r="Y595" s="1"/>
       <c r="Z595" s="1"/>
     </row>
-    <row r="596" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -22339,7 +22339,7 @@
       <c r="Y596" s="1"/>
       <c r="Z596" s="1"/>
     </row>
-    <row r="597" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -22367,7 +22367,7 @@
       <c r="Y597" s="1"/>
       <c r="Z597" s="1"/>
     </row>
-    <row r="598" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -22395,7 +22395,7 @@
       <c r="Y598" s="1"/>
       <c r="Z598" s="1"/>
     </row>
-    <row r="599" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -22423,7 +22423,7 @@
       <c r="Y599" s="1"/>
       <c r="Z599" s="1"/>
     </row>
-    <row r="600" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -22451,7 +22451,7 @@
       <c r="Y600" s="1"/>
       <c r="Z600" s="1"/>
     </row>
-    <row r="601" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -22479,7 +22479,7 @@
       <c r="Y601" s="1"/>
       <c r="Z601" s="1"/>
     </row>
-    <row r="602" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -22507,7 +22507,7 @@
       <c r="Y602" s="1"/>
       <c r="Z602" s="1"/>
     </row>
-    <row r="603" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -22535,7 +22535,7 @@
       <c r="Y603" s="1"/>
       <c r="Z603" s="1"/>
     </row>
-    <row r="604" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -22563,7 +22563,7 @@
       <c r="Y604" s="1"/>
       <c r="Z604" s="1"/>
     </row>
-    <row r="605" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -22591,7 +22591,7 @@
       <c r="Y605" s="1"/>
       <c r="Z605" s="1"/>
     </row>
-    <row r="606" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -22619,7 +22619,7 @@
       <c r="Y606" s="1"/>
       <c r="Z606" s="1"/>
     </row>
-    <row r="607" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -22647,7 +22647,7 @@
       <c r="Y607" s="1"/>
       <c r="Z607" s="1"/>
     </row>
-    <row r="608" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -22675,7 +22675,7 @@
       <c r="Y608" s="1"/>
       <c r="Z608" s="1"/>
     </row>
-    <row r="609" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -22703,7 +22703,7 @@
       <c r="Y609" s="1"/>
       <c r="Z609" s="1"/>
     </row>
-    <row r="610" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -22731,7 +22731,7 @@
       <c r="Y610" s="1"/>
       <c r="Z610" s="1"/>
     </row>
-    <row r="611" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -22759,7 +22759,7 @@
       <c r="Y611" s="1"/>
       <c r="Z611" s="1"/>
     </row>
-    <row r="612" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -22787,7 +22787,7 @@
       <c r="Y612" s="1"/>
       <c r="Z612" s="1"/>
     </row>
-    <row r="613" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -22815,7 +22815,7 @@
       <c r="Y613" s="1"/>
       <c r="Z613" s="1"/>
     </row>
-    <row r="614" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -22843,7 +22843,7 @@
       <c r="Y614" s="1"/>
       <c r="Z614" s="1"/>
     </row>
-    <row r="615" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -22871,7 +22871,7 @@
       <c r="Y615" s="1"/>
       <c r="Z615" s="1"/>
     </row>
-    <row r="616" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -22899,7 +22899,7 @@
       <c r="Y616" s="1"/>
       <c r="Z616" s="1"/>
     </row>
-    <row r="617" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -22927,7 +22927,7 @@
       <c r="Y617" s="1"/>
       <c r="Z617" s="1"/>
     </row>
-    <row r="618" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -22955,7 +22955,7 @@
       <c r="Y618" s="1"/>
       <c r="Z618" s="1"/>
     </row>
-    <row r="619" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -22983,7 +22983,7 @@
       <c r="Y619" s="1"/>
       <c r="Z619" s="1"/>
     </row>
-    <row r="620" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -23011,7 +23011,7 @@
       <c r="Y620" s="1"/>
       <c r="Z620" s="1"/>
     </row>
-    <row r="621" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -23039,7 +23039,7 @@
       <c r="Y621" s="1"/>
       <c r="Z621" s="1"/>
     </row>
-    <row r="622" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -23067,7 +23067,7 @@
       <c r="Y622" s="1"/>
       <c r="Z622" s="1"/>
     </row>
-    <row r="623" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -23095,7 +23095,7 @@
       <c r="Y623" s="1"/>
       <c r="Z623" s="1"/>
     </row>
-    <row r="624" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -23123,7 +23123,7 @@
       <c r="Y624" s="1"/>
       <c r="Z624" s="1"/>
     </row>
-    <row r="625" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -23151,7 +23151,7 @@
       <c r="Y625" s="1"/>
       <c r="Z625" s="1"/>
     </row>
-    <row r="626" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -23179,7 +23179,7 @@
       <c r="Y626" s="1"/>
       <c r="Z626" s="1"/>
     </row>
-    <row r="627" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -23207,7 +23207,7 @@
       <c r="Y627" s="1"/>
       <c r="Z627" s="1"/>
     </row>
-    <row r="628" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -23235,7 +23235,7 @@
       <c r="Y628" s="1"/>
       <c r="Z628" s="1"/>
     </row>
-    <row r="629" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -23263,7 +23263,7 @@
       <c r="Y629" s="1"/>
       <c r="Z629" s="1"/>
     </row>
-    <row r="630" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -23291,7 +23291,7 @@
       <c r="Y630" s="1"/>
       <c r="Z630" s="1"/>
     </row>
-    <row r="631" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -23319,7 +23319,7 @@
       <c r="Y631" s="1"/>
       <c r="Z631" s="1"/>
     </row>
-    <row r="632" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -23347,7 +23347,7 @@
       <c r="Y632" s="1"/>
       <c r="Z632" s="1"/>
     </row>
-    <row r="633" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -23375,7 +23375,7 @@
       <c r="Y633" s="1"/>
       <c r="Z633" s="1"/>
     </row>
-    <row r="634" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -23403,7 +23403,7 @@
       <c r="Y634" s="1"/>
       <c r="Z634" s="1"/>
     </row>
-    <row r="635" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -23431,7 +23431,7 @@
       <c r="Y635" s="1"/>
       <c r="Z635" s="1"/>
     </row>
-    <row r="636" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -23459,7 +23459,7 @@
       <c r="Y636" s="1"/>
       <c r="Z636" s="1"/>
     </row>
-    <row r="637" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -23487,7 +23487,7 @@
       <c r="Y637" s="1"/>
       <c r="Z637" s="1"/>
     </row>
-    <row r="638" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -23515,7 +23515,7 @@
       <c r="Y638" s="1"/>
       <c r="Z638" s="1"/>
     </row>
-    <row r="639" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -23543,7 +23543,7 @@
       <c r="Y639" s="1"/>
       <c r="Z639" s="1"/>
     </row>
-    <row r="640" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -23571,7 +23571,7 @@
       <c r="Y640" s="1"/>
       <c r="Z640" s="1"/>
     </row>
-    <row r="641" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -23599,7 +23599,7 @@
       <c r="Y641" s="1"/>
       <c r="Z641" s="1"/>
     </row>
-    <row r="642" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -23627,7 +23627,7 @@
       <c r="Y642" s="1"/>
       <c r="Z642" s="1"/>
     </row>
-    <row r="643" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -23655,7 +23655,7 @@
       <c r="Y643" s="1"/>
       <c r="Z643" s="1"/>
     </row>
-    <row r="644" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -23683,7 +23683,7 @@
       <c r="Y644" s="1"/>
       <c r="Z644" s="1"/>
     </row>
-    <row r="645" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -23711,7 +23711,7 @@
       <c r="Y645" s="1"/>
       <c r="Z645" s="1"/>
     </row>
-    <row r="646" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -23739,7 +23739,7 @@
       <c r="Y646" s="1"/>
       <c r="Z646" s="1"/>
     </row>
-    <row r="647" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -23767,7 +23767,7 @@
       <c r="Y647" s="1"/>
       <c r="Z647" s="1"/>
     </row>
-    <row r="648" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -23795,7 +23795,7 @@
       <c r="Y648" s="1"/>
       <c r="Z648" s="1"/>
     </row>
-    <row r="649" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -23823,7 +23823,7 @@
       <c r="Y649" s="1"/>
       <c r="Z649" s="1"/>
     </row>
-    <row r="650" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -23851,7 +23851,7 @@
       <c r="Y650" s="1"/>
       <c r="Z650" s="1"/>
     </row>
-    <row r="651" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -23879,7 +23879,7 @@
       <c r="Y651" s="1"/>
       <c r="Z651" s="1"/>
     </row>
-    <row r="652" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -23907,7 +23907,7 @@
       <c r="Y652" s="1"/>
       <c r="Z652" s="1"/>
     </row>
-    <row r="653" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -23935,7 +23935,7 @@
       <c r="Y653" s="1"/>
       <c r="Z653" s="1"/>
     </row>
-    <row r="654" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -23963,7 +23963,7 @@
       <c r="Y654" s="1"/>
       <c r="Z654" s="1"/>
     </row>
-    <row r="655" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -23991,7 +23991,7 @@
       <c r="Y655" s="1"/>
       <c r="Z655" s="1"/>
     </row>
-    <row r="656" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -24019,7 +24019,7 @@
       <c r="Y656" s="1"/>
       <c r="Z656" s="1"/>
     </row>
-    <row r="657" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -24047,7 +24047,7 @@
       <c r="Y657" s="1"/>
       <c r="Z657" s="1"/>
     </row>
-    <row r="658" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -24075,7 +24075,7 @@
       <c r="Y658" s="1"/>
       <c r="Z658" s="1"/>
     </row>
-    <row r="659" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -24103,7 +24103,7 @@
       <c r="Y659" s="1"/>
       <c r="Z659" s="1"/>
     </row>
-    <row r="660" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -24131,7 +24131,7 @@
       <c r="Y660" s="1"/>
       <c r="Z660" s="1"/>
     </row>
-    <row r="661" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -24159,7 +24159,7 @@
       <c r="Y661" s="1"/>
       <c r="Z661" s="1"/>
     </row>
-    <row r="662" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -24187,7 +24187,7 @@
       <c r="Y662" s="1"/>
       <c r="Z662" s="1"/>
     </row>
-    <row r="663" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -24215,7 +24215,7 @@
       <c r="Y663" s="1"/>
       <c r="Z663" s="1"/>
     </row>
-    <row r="664" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -24243,7 +24243,7 @@
       <c r="Y664" s="1"/>
       <c r="Z664" s="1"/>
     </row>
-    <row r="665" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -24271,7 +24271,7 @@
       <c r="Y665" s="1"/>
       <c r="Z665" s="1"/>
     </row>
-    <row r="666" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -24299,7 +24299,7 @@
       <c r="Y666" s="1"/>
       <c r="Z666" s="1"/>
     </row>
-    <row r="667" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -24327,7 +24327,7 @@
       <c r="Y667" s="1"/>
       <c r="Z667" s="1"/>
     </row>
-    <row r="668" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -24355,7 +24355,7 @@
       <c r="Y668" s="1"/>
       <c r="Z668" s="1"/>
     </row>
-    <row r="669" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -24383,7 +24383,7 @@
       <c r="Y669" s="1"/>
       <c r="Z669" s="1"/>
     </row>
-    <row r="670" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -24411,7 +24411,7 @@
       <c r="Y670" s="1"/>
       <c r="Z670" s="1"/>
     </row>
-    <row r="671" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -24439,7 +24439,7 @@
       <c r="Y671" s="1"/>
       <c r="Z671" s="1"/>
     </row>
-    <row r="672" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -24467,7 +24467,7 @@
       <c r="Y672" s="1"/>
       <c r="Z672" s="1"/>
     </row>
-    <row r="673" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -24495,7 +24495,7 @@
       <c r="Y673" s="1"/>
       <c r="Z673" s="1"/>
     </row>
-    <row r="674" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -24523,7 +24523,7 @@
       <c r="Y674" s="1"/>
       <c r="Z674" s="1"/>
     </row>
-    <row r="675" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -24551,7 +24551,7 @@
       <c r="Y675" s="1"/>
       <c r="Z675" s="1"/>
     </row>
-    <row r="676" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -24579,7 +24579,7 @@
       <c r="Y676" s="1"/>
       <c r="Z676" s="1"/>
     </row>
-    <row r="677" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -24607,7 +24607,7 @@
       <c r="Y677" s="1"/>
       <c r="Z677" s="1"/>
     </row>
-    <row r="678" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -24635,7 +24635,7 @@
       <c r="Y678" s="1"/>
       <c r="Z678" s="1"/>
     </row>
-    <row r="679" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -24663,7 +24663,7 @@
       <c r="Y679" s="1"/>
       <c r="Z679" s="1"/>
     </row>
-    <row r="680" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -24691,7 +24691,7 @@
       <c r="Y680" s="1"/>
       <c r="Z680" s="1"/>
     </row>
-    <row r="681" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -24719,7 +24719,7 @@
       <c r="Y681" s="1"/>
       <c r="Z681" s="1"/>
     </row>
-    <row r="682" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -24747,7 +24747,7 @@
       <c r="Y682" s="1"/>
       <c r="Z682" s="1"/>
     </row>
-    <row r="683" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -24775,7 +24775,7 @@
       <c r="Y683" s="1"/>
       <c r="Z683" s="1"/>
     </row>
-    <row r="684" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -24803,7 +24803,7 @@
       <c r="Y684" s="1"/>
       <c r="Z684" s="1"/>
     </row>
-    <row r="685" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -24831,7 +24831,7 @@
       <c r="Y685" s="1"/>
       <c r="Z685" s="1"/>
     </row>
-    <row r="686" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -24859,7 +24859,7 @@
       <c r="Y686" s="1"/>
       <c r="Z686" s="1"/>
     </row>
-    <row r="687" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -24887,7 +24887,7 @@
       <c r="Y687" s="1"/>
       <c r="Z687" s="1"/>
     </row>
-    <row r="688" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -24915,7 +24915,7 @@
       <c r="Y688" s="1"/>
       <c r="Z688" s="1"/>
     </row>
-    <row r="689" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -24943,7 +24943,7 @@
       <c r="Y689" s="1"/>
       <c r="Z689" s="1"/>
     </row>
-    <row r="690" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -24971,7 +24971,7 @@
       <c r="Y690" s="1"/>
       <c r="Z690" s="1"/>
     </row>
-    <row r="691" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -24999,7 +24999,7 @@
       <c r="Y691" s="1"/>
       <c r="Z691" s="1"/>
     </row>
-    <row r="692" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -25027,7 +25027,7 @@
       <c r="Y692" s="1"/>
       <c r="Z692" s="1"/>
     </row>
-    <row r="693" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -25055,7 +25055,7 @@
       <c r="Y693" s="1"/>
       <c r="Z693" s="1"/>
     </row>
-    <row r="694" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -25083,7 +25083,7 @@
       <c r="Y694" s="1"/>
       <c r="Z694" s="1"/>
     </row>
-    <row r="695" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -25111,7 +25111,7 @@
       <c r="Y695" s="1"/>
       <c r="Z695" s="1"/>
     </row>
-    <row r="696" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -25139,7 +25139,7 @@
       <c r="Y696" s="1"/>
       <c r="Z696" s="1"/>
     </row>
-    <row r="697" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -25167,7 +25167,7 @@
       <c r="Y697" s="1"/>
       <c r="Z697" s="1"/>
     </row>
-    <row r="698" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -25195,7 +25195,7 @@
       <c r="Y698" s="1"/>
       <c r="Z698" s="1"/>
     </row>
-    <row r="699" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -25223,7 +25223,7 @@
       <c r="Y699" s="1"/>
       <c r="Z699" s="1"/>
     </row>
-    <row r="700" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -25251,7 +25251,7 @@
       <c r="Y700" s="1"/>
       <c r="Z700" s="1"/>
     </row>
-    <row r="701" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -25279,7 +25279,7 @@
       <c r="Y701" s="1"/>
       <c r="Z701" s="1"/>
     </row>
-    <row r="702" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -25307,7 +25307,7 @@
       <c r="Y702" s="1"/>
       <c r="Z702" s="1"/>
     </row>
-    <row r="703" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -25335,7 +25335,7 @@
       <c r="Y703" s="1"/>
       <c r="Z703" s="1"/>
     </row>
-    <row r="704" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -25363,7 +25363,7 @@
       <c r="Y704" s="1"/>
       <c r="Z704" s="1"/>
     </row>
-    <row r="705" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -25391,7 +25391,7 @@
       <c r="Y705" s="1"/>
       <c r="Z705" s="1"/>
     </row>
-    <row r="706" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -25419,7 +25419,7 @@
       <c r="Y706" s="1"/>
       <c r="Z706" s="1"/>
     </row>
-    <row r="707" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -25447,7 +25447,7 @@
       <c r="Y707" s="1"/>
       <c r="Z707" s="1"/>
     </row>
-    <row r="708" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -25475,7 +25475,7 @@
       <c r="Y708" s="1"/>
       <c r="Z708" s="1"/>
     </row>
-    <row r="709" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -25503,7 +25503,7 @@
       <c r="Y709" s="1"/>
       <c r="Z709" s="1"/>
     </row>
-    <row r="710" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -25531,7 +25531,7 @@
       <c r="Y710" s="1"/>
       <c r="Z710" s="1"/>
     </row>
-    <row r="711" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -25559,7 +25559,7 @@
       <c r="Y711" s="1"/>
       <c r="Z711" s="1"/>
     </row>
-    <row r="712" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -25587,7 +25587,7 @@
       <c r="Y712" s="1"/>
       <c r="Z712" s="1"/>
     </row>
-    <row r="713" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -25615,7 +25615,7 @@
       <c r="Y713" s="1"/>
       <c r="Z713" s="1"/>
     </row>
-    <row r="714" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -25643,7 +25643,7 @@
       <c r="Y714" s="1"/>
       <c r="Z714" s="1"/>
     </row>
-    <row r="715" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -25671,7 +25671,7 @@
       <c r="Y715" s="1"/>
       <c r="Z715" s="1"/>
     </row>
-    <row r="716" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -25699,7 +25699,7 @@
       <c r="Y716" s="1"/>
       <c r="Z716" s="1"/>
     </row>
-    <row r="717" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -25727,7 +25727,7 @@
       <c r="Y717" s="1"/>
       <c r="Z717" s="1"/>
     </row>
-    <row r="718" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -25755,7 +25755,7 @@
       <c r="Y718" s="1"/>
       <c r="Z718" s="1"/>
     </row>
-    <row r="719" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -25783,7 +25783,7 @@
       <c r="Y719" s="1"/>
       <c r="Z719" s="1"/>
     </row>
-    <row r="720" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -25811,7 +25811,7 @@
       <c r="Y720" s="1"/>
       <c r="Z720" s="1"/>
     </row>
-    <row r="721" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -25839,7 +25839,7 @@
       <c r="Y721" s="1"/>
       <c r="Z721" s="1"/>
     </row>
-    <row r="722" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -25867,7 +25867,7 @@
       <c r="Y722" s="1"/>
       <c r="Z722" s="1"/>
     </row>
-    <row r="723" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -25895,7 +25895,7 @@
       <c r="Y723" s="1"/>
       <c r="Z723" s="1"/>
     </row>
-    <row r="724" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -25923,7 +25923,7 @@
       <c r="Y724" s="1"/>
       <c r="Z724" s="1"/>
     </row>
-    <row r="725" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -25951,7 +25951,7 @@
       <c r="Y725" s="1"/>
       <c r="Z725" s="1"/>
     </row>
-    <row r="726" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -25979,7 +25979,7 @@
       <c r="Y726" s="1"/>
       <c r="Z726" s="1"/>
     </row>
-    <row r="727" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -26007,7 +26007,7 @@
       <c r="Y727" s="1"/>
       <c r="Z727" s="1"/>
     </row>
-    <row r="728" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -26035,7 +26035,7 @@
       <c r="Y728" s="1"/>
       <c r="Z728" s="1"/>
     </row>
-    <row r="729" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -26063,7 +26063,7 @@
       <c r="Y729" s="1"/>
       <c r="Z729" s="1"/>
     </row>
-    <row r="730" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -26091,7 +26091,7 @@
       <c r="Y730" s="1"/>
       <c r="Z730" s="1"/>
     </row>
-    <row r="731" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -26119,7 +26119,7 @@
       <c r="Y731" s="1"/>
       <c r="Z731" s="1"/>
     </row>
-    <row r="732" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -26147,7 +26147,7 @@
       <c r="Y732" s="1"/>
       <c r="Z732" s="1"/>
     </row>
-    <row r="733" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -26175,7 +26175,7 @@
       <c r="Y733" s="1"/>
       <c r="Z733" s="1"/>
     </row>
-    <row r="734" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -26203,7 +26203,7 @@
       <c r="Y734" s="1"/>
       <c r="Z734" s="1"/>
     </row>
-    <row r="735" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -26231,7 +26231,7 @@
       <c r="Y735" s="1"/>
       <c r="Z735" s="1"/>
     </row>
-    <row r="736" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -26259,7 +26259,7 @@
       <c r="Y736" s="1"/>
       <c r="Z736" s="1"/>
     </row>
-    <row r="737" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -26287,7 +26287,7 @@
       <c r="Y737" s="1"/>
       <c r="Z737" s="1"/>
     </row>
-    <row r="738" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -26315,7 +26315,7 @@
       <c r="Y738" s="1"/>
       <c r="Z738" s="1"/>
     </row>
-    <row r="739" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -26343,7 +26343,7 @@
       <c r="Y739" s="1"/>
       <c r="Z739" s="1"/>
     </row>
-    <row r="740" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -26371,7 +26371,7 @@
       <c r="Y740" s="1"/>
       <c r="Z740" s="1"/>
     </row>
-    <row r="741" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -26399,7 +26399,7 @@
       <c r="Y741" s="1"/>
       <c r="Z741" s="1"/>
     </row>
-    <row r="742" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -26427,7 +26427,7 @@
       <c r="Y742" s="1"/>
       <c r="Z742" s="1"/>
     </row>
-    <row r="743" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -26455,7 +26455,7 @@
       <c r="Y743" s="1"/>
       <c r="Z743" s="1"/>
     </row>
-    <row r="744" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -26483,7 +26483,7 @@
       <c r="Y744" s="1"/>
       <c r="Z744" s="1"/>
     </row>
-    <row r="745" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -26511,7 +26511,7 @@
       <c r="Y745" s="1"/>
       <c r="Z745" s="1"/>
     </row>
-    <row r="746" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -26539,7 +26539,7 @@
       <c r="Y746" s="1"/>
       <c r="Z746" s="1"/>
     </row>
-    <row r="747" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -26567,7 +26567,7 @@
       <c r="Y747" s="1"/>
       <c r="Z747" s="1"/>
     </row>
-    <row r="748" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -26595,7 +26595,7 @@
       <c r="Y748" s="1"/>
       <c r="Z748" s="1"/>
     </row>
-    <row r="749" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -26623,7 +26623,7 @@
       <c r="Y749" s="1"/>
       <c r="Z749" s="1"/>
     </row>
-    <row r="750" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -26651,7 +26651,7 @@
       <c r="Y750" s="1"/>
       <c r="Z750" s="1"/>
     </row>
-    <row r="751" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -26679,7 +26679,7 @@
       <c r="Y751" s="1"/>
       <c r="Z751" s="1"/>
     </row>
-    <row r="752" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -26707,7 +26707,7 @@
       <c r="Y752" s="1"/>
       <c r="Z752" s="1"/>
     </row>
-    <row r="753" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -26735,7 +26735,7 @@
       <c r="Y753" s="1"/>
       <c r="Z753" s="1"/>
     </row>
-    <row r="754" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -26763,7 +26763,7 @@
       <c r="Y754" s="1"/>
       <c r="Z754" s="1"/>
     </row>
-    <row r="755" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -26791,7 +26791,7 @@
       <c r="Y755" s="1"/>
       <c r="Z755" s="1"/>
     </row>
-    <row r="756" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -26819,7 +26819,7 @@
       <c r="Y756" s="1"/>
       <c r="Z756" s="1"/>
     </row>
-    <row r="757" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -26847,7 +26847,7 @@
       <c r="Y757" s="1"/>
       <c r="Z757" s="1"/>
     </row>
-    <row r="758" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -26875,7 +26875,7 @@
       <c r="Y758" s="1"/>
       <c r="Z758" s="1"/>
     </row>
-    <row r="759" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -26903,7 +26903,7 @@
       <c r="Y759" s="1"/>
       <c r="Z759" s="1"/>
     </row>
-    <row r="760" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -26931,7 +26931,7 @@
       <c r="Y760" s="1"/>
       <c r="Z760" s="1"/>
     </row>
-    <row r="761" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -26959,7 +26959,7 @@
       <c r="Y761" s="1"/>
       <c r="Z761" s="1"/>
     </row>
-    <row r="762" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -26987,7 +26987,7 @@
       <c r="Y762" s="1"/>
       <c r="Z762" s="1"/>
     </row>
-    <row r="763" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -27015,7 +27015,7 @@
       <c r="Y763" s="1"/>
       <c r="Z763" s="1"/>
     </row>
-    <row r="764" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -27043,7 +27043,7 @@
       <c r="Y764" s="1"/>
       <c r="Z764" s="1"/>
     </row>
-    <row r="765" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -27071,7 +27071,7 @@
       <c r="Y765" s="1"/>
       <c r="Z765" s="1"/>
     </row>
-    <row r="766" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -27099,7 +27099,7 @@
       <c r="Y766" s="1"/>
       <c r="Z766" s="1"/>
     </row>
-    <row r="767" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -27127,7 +27127,7 @@
       <c r="Y767" s="1"/>
       <c r="Z767" s="1"/>
     </row>
-    <row r="768" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -27155,7 +27155,7 @@
       <c r="Y768" s="1"/>
       <c r="Z768" s="1"/>
     </row>
-    <row r="769" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -27183,7 +27183,7 @@
       <c r="Y769" s="1"/>
       <c r="Z769" s="1"/>
     </row>
-    <row r="770" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -27211,7 +27211,7 @@
       <c r="Y770" s="1"/>
       <c r="Z770" s="1"/>
     </row>
-    <row r="771" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -27239,7 +27239,7 @@
       <c r="Y771" s="1"/>
       <c r="Z771" s="1"/>
     </row>
-    <row r="772" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -27267,7 +27267,7 @@
       <c r="Y772" s="1"/>
       <c r="Z772" s="1"/>
     </row>
-    <row r="773" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -27295,7 +27295,7 @@
       <c r="Y773" s="1"/>
       <c r="Z773" s="1"/>
     </row>
-    <row r="774" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -27323,7 +27323,7 @@
       <c r="Y774" s="1"/>
       <c r="Z774" s="1"/>
     </row>
-    <row r="775" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -27351,7 +27351,7 @@
       <c r="Y775" s="1"/>
       <c r="Z775" s="1"/>
     </row>
-    <row r="776" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -27379,7 +27379,7 @@
       <c r="Y776" s="1"/>
       <c r="Z776" s="1"/>
     </row>
-    <row r="777" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -27407,7 +27407,7 @@
       <c r="Y777" s="1"/>
       <c r="Z777" s="1"/>
     </row>
-    <row r="778" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -27435,7 +27435,7 @@
       <c r="Y778" s="1"/>
       <c r="Z778" s="1"/>
     </row>
-    <row r="779" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -27463,7 +27463,7 @@
       <c r="Y779" s="1"/>
       <c r="Z779" s="1"/>
     </row>
-    <row r="780" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -27491,7 +27491,7 @@
       <c r="Y780" s="1"/>
       <c r="Z780" s="1"/>
     </row>
-    <row r="781" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -27519,7 +27519,7 @@
       <c r="Y781" s="1"/>
       <c r="Z781" s="1"/>
     </row>
-    <row r="782" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -27547,7 +27547,7 @@
       <c r="Y782" s="1"/>
       <c r="Z782" s="1"/>
     </row>
-    <row r="783" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -27575,7 +27575,7 @@
       <c r="Y783" s="1"/>
       <c r="Z783" s="1"/>
     </row>
-    <row r="784" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -27603,7 +27603,7 @@
       <c r="Y784" s="1"/>
       <c r="Z784" s="1"/>
     </row>
-    <row r="785" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -27631,7 +27631,7 @@
       <c r="Y785" s="1"/>
       <c r="Z785" s="1"/>
     </row>
-    <row r="786" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -27659,7 +27659,7 @@
       <c r="Y786" s="1"/>
       <c r="Z786" s="1"/>
     </row>
-    <row r="787" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -27687,7 +27687,7 @@
       <c r="Y787" s="1"/>
       <c r="Z787" s="1"/>
     </row>
-    <row r="788" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -27715,7 +27715,7 @@
       <c r="Y788" s="1"/>
       <c r="Z788" s="1"/>
     </row>
-    <row r="789" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -27743,7 +27743,7 @@
       <c r="Y789" s="1"/>
       <c r="Z789" s="1"/>
     </row>
-    <row r="790" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -27771,7 +27771,7 @@
       <c r="Y790" s="1"/>
       <c r="Z790" s="1"/>
     </row>
-    <row r="791" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -27799,7 +27799,7 @@
       <c r="Y791" s="1"/>
       <c r="Z791" s="1"/>
     </row>
-    <row r="792" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -27827,7 +27827,7 @@
       <c r="Y792" s="1"/>
       <c r="Z792" s="1"/>
     </row>
-    <row r="793" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -27855,7 +27855,7 @@
       <c r="Y793" s="1"/>
       <c r="Z793" s="1"/>
     </row>
-    <row r="794" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -27883,7 +27883,7 @@
       <c r="Y794" s="1"/>
       <c r="Z794" s="1"/>
     </row>
-    <row r="795" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -27911,7 +27911,7 @@
       <c r="Y795" s="1"/>
       <c r="Z795" s="1"/>
     </row>
-    <row r="796" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -27939,7 +27939,7 @@
       <c r="Y796" s="1"/>
       <c r="Z796" s="1"/>
     </row>
-    <row r="797" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -27967,7 +27967,7 @@
       <c r="Y797" s="1"/>
       <c r="Z797" s="1"/>
     </row>
-    <row r="798" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -27995,7 +27995,7 @@
       <c r="Y798" s="1"/>
       <c r="Z798" s="1"/>
     </row>
-    <row r="799" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -28023,7 +28023,7 @@
       <c r="Y799" s="1"/>
       <c r="Z799" s="1"/>
     </row>
-    <row r="800" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -28051,7 +28051,7 @@
       <c r="Y800" s="1"/>
       <c r="Z800" s="1"/>
     </row>
-    <row r="801" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -28079,7 +28079,7 @@
       <c r="Y801" s="1"/>
       <c r="Z801" s="1"/>
     </row>
-    <row r="802" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -28107,7 +28107,7 @@
       <c r="Y802" s="1"/>
       <c r="Z802" s="1"/>
     </row>
-    <row r="803" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -28135,7 +28135,7 @@
       <c r="Y803" s="1"/>
       <c r="Z803" s="1"/>
     </row>
-    <row r="804" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -28163,7 +28163,7 @@
       <c r="Y804" s="1"/>
       <c r="Z804" s="1"/>
     </row>
-    <row r="805" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -28191,7 +28191,7 @@
       <c r="Y805" s="1"/>
       <c r="Z805" s="1"/>
     </row>
-    <row r="806" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -28219,7 +28219,7 @@
       <c r="Y806" s="1"/>
       <c r="Z806" s="1"/>
     </row>
-    <row r="807" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -28247,7 +28247,7 @@
       <c r="Y807" s="1"/>
       <c r="Z807" s="1"/>
     </row>
-    <row r="808" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -28275,7 +28275,7 @@
       <c r="Y808" s="1"/>
       <c r="Z808" s="1"/>
     </row>
-    <row r="809" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -28303,7 +28303,7 @@
       <c r="Y809" s="1"/>
       <c r="Z809" s="1"/>
     </row>
-    <row r="810" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -28331,7 +28331,7 @@
       <c r="Y810" s="1"/>
       <c r="Z810" s="1"/>
     </row>
-    <row r="811" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -28359,7 +28359,7 @@
       <c r="Y811" s="1"/>
       <c r="Z811" s="1"/>
     </row>
-    <row r="812" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -28387,7 +28387,7 @@
       <c r="Y812" s="1"/>
       <c r="Z812" s="1"/>
     </row>
-    <row r="813" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -28415,7 +28415,7 @@
       <c r="Y813" s="1"/>
       <c r="Z813" s="1"/>
     </row>
-    <row r="814" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -28443,7 +28443,7 @@
       <c r="Y814" s="1"/>
       <c r="Z814" s="1"/>
     </row>
-    <row r="815" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -28471,7 +28471,7 @@
       <c r="Y815" s="1"/>
       <c r="Z815" s="1"/>
     </row>
-    <row r="816" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -28499,7 +28499,7 @@
       <c r="Y816" s="1"/>
       <c r="Z816" s="1"/>
     </row>
-    <row r="817" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -28527,7 +28527,7 @@
       <c r="Y817" s="1"/>
       <c r="Z817" s="1"/>
     </row>
-    <row r="818" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -28555,7 +28555,7 @@
       <c r="Y818" s="1"/>
       <c r="Z818" s="1"/>
     </row>
-    <row r="819" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -28583,7 +28583,7 @@
       <c r="Y819" s="1"/>
       <c r="Z819" s="1"/>
     </row>
-    <row r="820" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -28611,7 +28611,7 @@
       <c r="Y820" s="1"/>
       <c r="Z820" s="1"/>
     </row>
-    <row r="821" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -28639,7 +28639,7 @@
       <c r="Y821" s="1"/>
       <c r="Z821" s="1"/>
     </row>
-    <row r="822" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -28667,7 +28667,7 @@
       <c r="Y822" s="1"/>
       <c r="Z822" s="1"/>
     </row>
-    <row r="823" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -28695,7 +28695,7 @@
       <c r="Y823" s="1"/>
       <c r="Z823" s="1"/>
     </row>
-    <row r="824" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -28723,7 +28723,7 @@
       <c r="Y824" s="1"/>
       <c r="Z824" s="1"/>
     </row>
-    <row r="825" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -28751,7 +28751,7 @@
       <c r="Y825" s="1"/>
       <c r="Z825" s="1"/>
     </row>
-    <row r="826" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -28779,7 +28779,7 @@
       <c r="Y826" s="1"/>
       <c r="Z826" s="1"/>
     </row>
-    <row r="827" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -28807,7 +28807,7 @@
       <c r="Y827" s="1"/>
       <c r="Z827" s="1"/>
     </row>
-    <row r="828" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -28835,7 +28835,7 @@
       <c r="Y828" s="1"/>
       <c r="Z828" s="1"/>
     </row>
-    <row r="829" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -28863,7 +28863,7 @@
       <c r="Y829" s="1"/>
       <c r="Z829" s="1"/>
     </row>
-    <row r="830" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -28891,7 +28891,7 @@
       <c r="Y830" s="1"/>
       <c r="Z830" s="1"/>
     </row>
-    <row r="831" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -28919,7 +28919,7 @@
       <c r="Y831" s="1"/>
       <c r="Z831" s="1"/>
     </row>
-    <row r="832" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -28947,7 +28947,7 @@
       <c r="Y832" s="1"/>
       <c r="Z832" s="1"/>
     </row>
-    <row r="833" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -28975,7 +28975,7 @@
       <c r="Y833" s="1"/>
       <c r="Z833" s="1"/>
     </row>
-    <row r="834" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -29003,7 +29003,7 @@
       <c r="Y834" s="1"/>
       <c r="Z834" s="1"/>
     </row>
-    <row r="835" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -29031,7 +29031,7 @@
       <c r="Y835" s="1"/>
       <c r="Z835" s="1"/>
     </row>
-    <row r="836" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -29059,7 +29059,7 @@
       <c r="Y836" s="1"/>
       <c r="Z836" s="1"/>
     </row>
-    <row r="837" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -29087,7 +29087,7 @@
       <c r="Y837" s="1"/>
       <c r="Z837" s="1"/>
     </row>
-    <row r="838" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -29115,7 +29115,7 @@
       <c r="Y838" s="1"/>
       <c r="Z838" s="1"/>
     </row>
-    <row r="839" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -29143,7 +29143,7 @@
       <c r="Y839" s="1"/>
       <c r="Z839" s="1"/>
     </row>
-    <row r="840" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -29171,7 +29171,7 @@
       <c r="Y840" s="1"/>
       <c r="Z840" s="1"/>
     </row>
-    <row r="841" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -29199,7 +29199,7 @@
       <c r="Y841" s="1"/>
       <c r="Z841" s="1"/>
     </row>
-    <row r="842" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -29227,7 +29227,7 @@
       <c r="Y842" s="1"/>
       <c r="Z842" s="1"/>
     </row>
-    <row r="843" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -29255,7 +29255,7 @@
       <c r="Y843" s="1"/>
       <c r="Z843" s="1"/>
     </row>
-    <row r="844" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -29283,7 +29283,7 @@
       <c r="Y844" s="1"/>
       <c r="Z844" s="1"/>
     </row>
-    <row r="845" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -29311,7 +29311,7 @@
       <c r="Y845" s="1"/>
       <c r="Z845" s="1"/>
     </row>
-    <row r="846" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -29339,7 +29339,7 @@
       <c r="Y846" s="1"/>
       <c r="Z846" s="1"/>
     </row>
-    <row r="847" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -29367,7 +29367,7 @@
       <c r="Y847" s="1"/>
       <c r="Z847" s="1"/>
     </row>
-    <row r="848" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -29395,7 +29395,7 @@
       <c r="Y848" s="1"/>
       <c r="Z848" s="1"/>
     </row>
-    <row r="849" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -29423,7 +29423,7 @@
       <c r="Y849" s="1"/>
       <c r="Z849" s="1"/>
     </row>
-    <row r="850" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -29451,7 +29451,7 @@
       <c r="Y850" s="1"/>
       <c r="Z850" s="1"/>
     </row>
-    <row r="851" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -29479,7 +29479,7 @@
       <c r="Y851" s="1"/>
       <c r="Z851" s="1"/>
     </row>
-    <row r="852" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -29507,7 +29507,7 @@
       <c r="Y852" s="1"/>
       <c r="Z852" s="1"/>
     </row>
-    <row r="853" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -29535,7 +29535,7 @@
       <c r="Y853" s="1"/>
       <c r="Z853" s="1"/>
     </row>
-    <row r="854" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -29563,7 +29563,7 @@
       <c r="Y854" s="1"/>
       <c r="Z854" s="1"/>
     </row>
-    <row r="855" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -29591,7 +29591,7 @@
       <c r="Y855" s="1"/>
       <c r="Z855" s="1"/>
     </row>
-    <row r="856" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -29619,7 +29619,7 @@
       <c r="Y856" s="1"/>
       <c r="Z856" s="1"/>
     </row>
-    <row r="857" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -29647,7 +29647,7 @@
       <c r="Y857" s="1"/>
       <c r="Z857" s="1"/>
     </row>
-    <row r="858" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -29675,7 +29675,7 @@
       <c r="Y858" s="1"/>
       <c r="Z858" s="1"/>
     </row>
-    <row r="859" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -29703,7 +29703,7 @@
       <c r="Y859" s="1"/>
       <c r="Z859" s="1"/>
     </row>
-    <row r="860" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
@@ -29731,7 +29731,7 @@
       <c r="Y860" s="1"/>
       <c r="Z860" s="1"/>
     </row>
-    <row r="861" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
@@ -29759,7 +29759,7 @@
       <c r="Y861" s="1"/>
       <c r="Z861" s="1"/>
     </row>
-    <row r="862" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
@@ -29787,7 +29787,7 @@
       <c r="Y862" s="1"/>
       <c r="Z862" s="1"/>
     </row>
-    <row r="863" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
@@ -29815,7 +29815,7 @@
       <c r="Y863" s="1"/>
       <c r="Z863" s="1"/>
     </row>
-    <row r="864" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
@@ -29843,7 +29843,7 @@
       <c r="Y864" s="1"/>
       <c r="Z864" s="1"/>
     </row>
-    <row r="865" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
@@ -29871,7 +29871,7 @@
       <c r="Y865" s="1"/>
       <c r="Z865" s="1"/>
     </row>
-    <row r="866" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
@@ -29899,7 +29899,7 @@
       <c r="Y866" s="1"/>
       <c r="Z866" s="1"/>
     </row>
-    <row r="867" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
@@ -29927,7 +29927,7 @@
       <c r="Y867" s="1"/>
       <c r="Z867" s="1"/>
     </row>
-    <row r="868" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
@@ -29955,7 +29955,7 @@
       <c r="Y868" s="1"/>
       <c r="Z868" s="1"/>
     </row>
-    <row r="869" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
@@ -29983,7 +29983,7 @@
       <c r="Y869" s="1"/>
       <c r="Z869" s="1"/>
     </row>
-    <row r="870" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
@@ -30011,7 +30011,7 @@
       <c r="Y870" s="1"/>
       <c r="Z870" s="1"/>
     </row>
-    <row r="871" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
@@ -30039,7 +30039,7 @@
       <c r="Y871" s="1"/>
       <c r="Z871" s="1"/>
     </row>
-    <row r="872" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
@@ -30067,7 +30067,7 @@
       <c r="Y872" s="1"/>
       <c r="Z872" s="1"/>
     </row>
-    <row r="873" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
@@ -30095,7 +30095,7 @@
       <c r="Y873" s="1"/>
       <c r="Z873" s="1"/>
     </row>
-    <row r="874" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
@@ -30123,7 +30123,7 @@
       <c r="Y874" s="1"/>
       <c r="Z874" s="1"/>
     </row>
-    <row r="875" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
@@ -30151,7 +30151,7 @@
       <c r="Y875" s="1"/>
       <c r="Z875" s="1"/>
     </row>
-    <row r="876" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
@@ -30179,7 +30179,7 @@
       <c r="Y876" s="1"/>
       <c r="Z876" s="1"/>
     </row>
-    <row r="877" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
@@ -30207,7 +30207,7 @@
       <c r="Y877" s="1"/>
       <c r="Z877" s="1"/>
     </row>
-    <row r="878" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
@@ -30235,7 +30235,7 @@
       <c r="Y878" s="1"/>
       <c r="Z878" s="1"/>
     </row>
-    <row r="879" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
@@ -30263,7 +30263,7 @@
       <c r="Y879" s="1"/>
       <c r="Z879" s="1"/>
     </row>
-    <row r="880" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
@@ -30291,7 +30291,7 @@
       <c r="Y880" s="1"/>
       <c r="Z880" s="1"/>
     </row>
-    <row r="881" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -30319,7 +30319,7 @@
       <c r="Y881" s="1"/>
       <c r="Z881" s="1"/>
     </row>
-    <row r="882" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -30347,7 +30347,7 @@
       <c r="Y882" s="1"/>
       <c r="Z882" s="1"/>
     </row>
-    <row r="883" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
@@ -30375,7 +30375,7 @@
       <c r="Y883" s="1"/>
       <c r="Z883" s="1"/>
     </row>
-    <row r="884" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
@@ -30403,7 +30403,7 @@
       <c r="Y884" s="1"/>
       <c r="Z884" s="1"/>
     </row>
-    <row r="885" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
@@ -30431,7 +30431,7 @@
       <c r="Y885" s="1"/>
       <c r="Z885" s="1"/>
     </row>
-    <row r="886" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
@@ -30459,7 +30459,7 @@
       <c r="Y886" s="1"/>
       <c r="Z886" s="1"/>
     </row>
-    <row r="887" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
@@ -30487,7 +30487,7 @@
       <c r="Y887" s="1"/>
       <c r="Z887" s="1"/>
     </row>
-    <row r="888" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
@@ -30515,7 +30515,7 @@
       <c r="Y888" s="1"/>
       <c r="Z888" s="1"/>
     </row>
-    <row r="889" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
@@ -30543,7 +30543,7 @@
       <c r="Y889" s="1"/>
       <c r="Z889" s="1"/>
     </row>
-    <row r="890" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
@@ -30571,7 +30571,7 @@
       <c r="Y890" s="1"/>
       <c r="Z890" s="1"/>
     </row>
-    <row r="891" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
@@ -30599,7 +30599,7 @@
       <c r="Y891" s="1"/>
       <c r="Z891" s="1"/>
     </row>
-    <row r="892" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
@@ -30627,7 +30627,7 @@
       <c r="Y892" s="1"/>
       <c r="Z892" s="1"/>
     </row>
-    <row r="893" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
@@ -30655,7 +30655,7 @@
       <c r="Y893" s="1"/>
       <c r="Z893" s="1"/>
     </row>
-    <row r="894" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
@@ -30683,7 +30683,7 @@
       <c r="Y894" s="1"/>
       <c r="Z894" s="1"/>
     </row>
-    <row r="895" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
@@ -30711,7 +30711,7 @@
       <c r="Y895" s="1"/>
       <c r="Z895" s="1"/>
     </row>
-    <row r="896" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
@@ -30739,7 +30739,7 @@
       <c r="Y896" s="1"/>
       <c r="Z896" s="1"/>
     </row>
-    <row r="897" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
@@ -30767,7 +30767,7 @@
       <c r="Y897" s="1"/>
       <c r="Z897" s="1"/>
     </row>
-    <row r="898" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
@@ -30795,7 +30795,7 @@
       <c r="Y898" s="1"/>
       <c r="Z898" s="1"/>
     </row>
-    <row r="899" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="899" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
@@ -30823,7 +30823,7 @@
       <c r="Y899" s="1"/>
       <c r="Z899" s="1"/>
     </row>
-    <row r="900" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
@@ -30851,7 +30851,7 @@
       <c r="Y900" s="1"/>
       <c r="Z900" s="1"/>
     </row>
-    <row r="901" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
@@ -30879,7 +30879,7 @@
       <c r="Y901" s="1"/>
       <c r="Z901" s="1"/>
     </row>
-    <row r="902" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
@@ -30907,7 +30907,7 @@
       <c r="Y902" s="1"/>
       <c r="Z902" s="1"/>
     </row>
-    <row r="903" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="903" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
@@ -30935,7 +30935,7 @@
       <c r="Y903" s="1"/>
       <c r="Z903" s="1"/>
     </row>
-    <row r="904" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="904" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
@@ -30963,7 +30963,7 @@
       <c r="Y904" s="1"/>
       <c r="Z904" s="1"/>
     </row>
-    <row r="905" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="905" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
@@ -30991,7 +30991,7 @@
       <c r="Y905" s="1"/>
       <c r="Z905" s="1"/>
     </row>
-    <row r="906" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="906" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
@@ -31019,7 +31019,7 @@
       <c r="Y906" s="1"/>
       <c r="Z906" s="1"/>
     </row>
-    <row r="907" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="907" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
@@ -31047,7 +31047,7 @@
       <c r="Y907" s="1"/>
       <c r="Z907" s="1"/>
     </row>
-    <row r="908" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="908" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
@@ -31075,7 +31075,7 @@
       <c r="Y908" s="1"/>
       <c r="Z908" s="1"/>
     </row>
-    <row r="909" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
@@ -31103,7 +31103,7 @@
       <c r="Y909" s="1"/>
       <c r="Z909" s="1"/>
     </row>
-    <row r="910" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
@@ -31131,7 +31131,7 @@
       <c r="Y910" s="1"/>
       <c r="Z910" s="1"/>
     </row>
-    <row r="911" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="911" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
@@ -31159,7 +31159,7 @@
       <c r="Y911" s="1"/>
       <c r="Z911" s="1"/>
     </row>
-    <row r="912" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="912" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
@@ -31187,7 +31187,7 @@
       <c r="Y912" s="1"/>
       <c r="Z912" s="1"/>
     </row>
-    <row r="913" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
@@ -31215,7 +31215,7 @@
       <c r="Y913" s="1"/>
       <c r="Z913" s="1"/>
     </row>
-    <row r="914" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="914" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
@@ -31243,7 +31243,7 @@
       <c r="Y914" s="1"/>
       <c r="Z914" s="1"/>
     </row>
-    <row r="915" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="915" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
@@ -31271,7 +31271,7 @@
       <c r="Y915" s="1"/>
       <c r="Z915" s="1"/>
     </row>
-    <row r="916" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="1"/>
@@ -31299,7 +31299,7 @@
       <c r="Y916" s="1"/>
       <c r="Z916" s="1"/>
     </row>
-    <row r="917" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="917" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
@@ -31327,7 +31327,7 @@
       <c r="Y917" s="1"/>
       <c r="Z917" s="1"/>
     </row>
-    <row r="918" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="918" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
@@ -31355,7 +31355,7 @@
       <c r="Y918" s="1"/>
       <c r="Z918" s="1"/>
     </row>
-    <row r="919" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="919" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
@@ -31383,7 +31383,7 @@
       <c r="Y919" s="1"/>
       <c r="Z919" s="1"/>
     </row>
-    <row r="920" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="920" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
@@ -31411,7 +31411,7 @@
       <c r="Y920" s="1"/>
       <c r="Z920" s="1"/>
     </row>
-    <row r="921" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="921" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="1"/>
@@ -31439,7 +31439,7 @@
       <c r="Y921" s="1"/>
       <c r="Z921" s="1"/>
     </row>
-    <row r="922" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="922" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="1"/>
@@ -31467,7 +31467,7 @@
       <c r="Y922" s="1"/>
       <c r="Z922" s="1"/>
     </row>
-    <row r="923" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="923" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="1"/>
@@ -31495,7 +31495,7 @@
       <c r="Y923" s="1"/>
       <c r="Z923" s="1"/>
     </row>
-    <row r="924" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="924" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="1"/>
@@ -31523,7 +31523,7 @@
       <c r="Y924" s="1"/>
       <c r="Z924" s="1"/>
     </row>
-    <row r="925" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="925" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="1"/>
@@ -31551,7 +31551,7 @@
       <c r="Y925" s="1"/>
       <c r="Z925" s="1"/>
     </row>
-    <row r="926" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="926" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="1"/>
@@ -31579,7 +31579,7 @@
       <c r="Y926" s="1"/>
       <c r="Z926" s="1"/>
     </row>
-    <row r="927" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="927" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="1"/>
@@ -31607,7 +31607,7 @@
       <c r="Y927" s="1"/>
       <c r="Z927" s="1"/>
     </row>
-    <row r="928" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="928" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="1"/>
@@ -31635,7 +31635,7 @@
       <c r="Y928" s="1"/>
       <c r="Z928" s="1"/>
     </row>
-    <row r="929" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="929" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="1"/>
@@ -31663,7 +31663,7 @@
       <c r="Y929" s="1"/>
       <c r="Z929" s="1"/>
     </row>
-    <row r="930" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="930" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="1"/>
@@ -31691,7 +31691,7 @@
       <c r="Y930" s="1"/>
       <c r="Z930" s="1"/>
     </row>
-    <row r="931" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="931" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="1"/>
@@ -31719,7 +31719,7 @@
       <c r="Y931" s="1"/>
       <c r="Z931" s="1"/>
     </row>
-    <row r="932" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="932" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="1"/>
@@ -31747,7 +31747,7 @@
       <c r="Y932" s="1"/>
       <c r="Z932" s="1"/>
     </row>
-    <row r="933" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="933" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="1"/>
@@ -31775,7 +31775,7 @@
       <c r="Y933" s="1"/>
       <c r="Z933" s="1"/>
     </row>
-    <row r="934" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="934" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="1"/>
@@ -31803,7 +31803,7 @@
       <c r="Y934" s="1"/>
       <c r="Z934" s="1"/>
     </row>
-    <row r="935" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="935" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="1"/>
@@ -31831,7 +31831,7 @@
       <c r="Y935" s="1"/>
       <c r="Z935" s="1"/>
     </row>
-    <row r="936" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="936" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="1"/>
@@ -31859,7 +31859,7 @@
       <c r="Y936" s="1"/>
       <c r="Z936" s="1"/>
     </row>
-    <row r="937" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="937" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="1"/>
@@ -31887,7 +31887,7 @@
       <c r="Y937" s="1"/>
       <c r="Z937" s="1"/>
     </row>
-    <row r="938" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="938" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="1"/>
@@ -31915,7 +31915,7 @@
       <c r="Y938" s="1"/>
       <c r="Z938" s="1"/>
     </row>
-    <row r="939" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="939" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="1"/>
@@ -31943,7 +31943,7 @@
       <c r="Y939" s="1"/>
       <c r="Z939" s="1"/>
     </row>
-    <row r="940" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="940" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="1"/>
@@ -31971,7 +31971,7 @@
       <c r="Y940" s="1"/>
       <c r="Z940" s="1"/>
     </row>
-    <row r="941" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="941" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="1"/>
@@ -31999,7 +31999,7 @@
       <c r="Y941" s="1"/>
       <c r="Z941" s="1"/>
     </row>
-    <row r="942" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="942" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="1"/>
@@ -32027,7 +32027,7 @@
       <c r="Y942" s="1"/>
       <c r="Z942" s="1"/>
     </row>
-    <row r="943" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="943" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="1"/>
@@ -32055,7 +32055,7 @@
       <c r="Y943" s="1"/>
       <c r="Z943" s="1"/>
     </row>
-    <row r="944" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="944" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="1"/>
@@ -32083,7 +32083,7 @@
       <c r="Y944" s="1"/>
       <c r="Z944" s="1"/>
     </row>
-    <row r="945" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="945" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="1"/>
@@ -32111,7 +32111,7 @@
       <c r="Y945" s="1"/>
       <c r="Z945" s="1"/>
     </row>
-    <row r="946" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="946" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="1"/>
@@ -32139,7 +32139,7 @@
       <c r="Y946" s="1"/>
       <c r="Z946" s="1"/>
     </row>
-    <row r="947" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="947" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="1"/>
@@ -32167,7 +32167,7 @@
       <c r="Y947" s="1"/>
       <c r="Z947" s="1"/>
     </row>
-    <row r="948" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="948" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="1"/>
@@ -32195,7 +32195,7 @@
       <c r="Y948" s="1"/>
       <c r="Z948" s="1"/>
     </row>
-    <row r="949" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="949" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="1"/>
@@ -32223,7 +32223,7 @@
       <c r="Y949" s="1"/>
       <c r="Z949" s="1"/>
     </row>
-    <row r="950" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="950" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="1"/>
@@ -32251,7 +32251,7 @@
       <c r="Y950" s="1"/>
       <c r="Z950" s="1"/>
     </row>
-    <row r="951" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="951" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="1"/>
@@ -32279,7 +32279,7 @@
       <c r="Y951" s="1"/>
       <c r="Z951" s="1"/>
     </row>
-    <row r="952" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="952" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="1"/>
@@ -32307,7 +32307,7 @@
       <c r="Y952" s="1"/>
       <c r="Z952" s="1"/>
     </row>
-    <row r="953" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="953" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="1"/>
@@ -32335,7 +32335,7 @@
       <c r="Y953" s="1"/>
       <c r="Z953" s="1"/>
     </row>
-    <row r="954" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="954" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="1"/>
@@ -32363,7 +32363,7 @@
       <c r="Y954" s="1"/>
       <c r="Z954" s="1"/>
     </row>
-    <row r="955" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="955" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="1"/>
@@ -32391,7 +32391,7 @@
       <c r="Y955" s="1"/>
       <c r="Z955" s="1"/>
     </row>
-    <row r="956" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="956" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A956" s="1"/>
       <c r="B956" s="1"/>
       <c r="C956" s="1"/>
@@ -32419,7 +32419,7 @@
       <c r="Y956" s="1"/>
       <c r="Z956" s="1"/>
     </row>
-    <row r="957" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="957" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A957" s="1"/>
       <c r="B957" s="1"/>
       <c r="C957" s="1"/>
@@ -32447,7 +32447,7 @@
       <c r="Y957" s="1"/>
       <c r="Z957" s="1"/>
     </row>
-    <row r="958" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="958" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A958" s="1"/>
       <c r="B958" s="1"/>
       <c r="C958" s="1"/>
@@ -32475,7 +32475,7 @@
       <c r="Y958" s="1"/>
       <c r="Z958" s="1"/>
     </row>
-    <row r="959" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="959" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A959" s="1"/>
       <c r="B959" s="1"/>
       <c r="C959" s="1"/>
@@ -32503,7 +32503,7 @@
       <c r="Y959" s="1"/>
       <c r="Z959" s="1"/>
     </row>
-    <row r="960" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="960" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A960" s="1"/>
       <c r="B960" s="1"/>
       <c r="C960" s="1"/>
@@ -32531,7 +32531,7 @@
       <c r="Y960" s="1"/>
       <c r="Z960" s="1"/>
     </row>
-    <row r="961" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="961" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A961" s="1"/>
       <c r="B961" s="1"/>
       <c r="C961" s="1"/>
@@ -32559,7 +32559,7 @@
       <c r="Y961" s="1"/>
       <c r="Z961" s="1"/>
     </row>
-    <row r="962" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="962" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A962" s="1"/>
       <c r="B962" s="1"/>
       <c r="C962" s="1"/>
@@ -32587,7 +32587,7 @@
       <c r="Y962" s="1"/>
       <c r="Z962" s="1"/>
     </row>
-    <row r="963" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="963" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A963" s="1"/>
       <c r="B963" s="1"/>
       <c r="C963" s="1"/>
@@ -32615,7 +32615,7 @@
       <c r="Y963" s="1"/>
       <c r="Z963" s="1"/>
     </row>
-    <row r="964" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="964" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A964" s="1"/>
       <c r="B964" s="1"/>
       <c r="C964" s="1"/>
@@ -32643,7 +32643,7 @@
       <c r="Y964" s="1"/>
       <c r="Z964" s="1"/>
     </row>
-    <row r="965" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="965" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A965" s="1"/>
       <c r="B965" s="1"/>
       <c r="C965" s="1"/>
@@ -32671,7 +32671,7 @@
       <c r="Y965" s="1"/>
       <c r="Z965" s="1"/>
     </row>
-    <row r="966" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="966" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A966" s="1"/>
       <c r="B966" s="1"/>
       <c r="C966" s="1"/>
@@ -32699,7 +32699,7 @@
       <c r="Y966" s="1"/>
       <c r="Z966" s="1"/>
     </row>
-    <row r="967" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="967" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A967" s="1"/>
       <c r="B967" s="1"/>
       <c r="C967" s="1"/>
@@ -32727,7 +32727,7 @@
       <c r="Y967" s="1"/>
       <c r="Z967" s="1"/>
     </row>
-    <row r="968" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="968" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A968" s="1"/>
       <c r="B968" s="1"/>
       <c r="C968" s="1"/>
@@ -32755,7 +32755,7 @@
       <c r="Y968" s="1"/>
       <c r="Z968" s="1"/>
     </row>
-    <row r="969" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="969" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A969" s="1"/>
       <c r="B969" s="1"/>
       <c r="C969" s="1"/>
@@ -32783,7 +32783,7 @@
       <c r="Y969" s="1"/>
       <c r="Z969" s="1"/>
     </row>
-    <row r="970" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="970" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A970" s="1"/>
       <c r="B970" s="1"/>
       <c r="C970" s="1"/>
@@ -32811,7 +32811,7 @@
       <c r="Y970" s="1"/>
       <c r="Z970" s="1"/>
     </row>
-    <row r="971" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="971" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A971" s="1"/>
       <c r="B971" s="1"/>
       <c r="C971" s="1"/>
@@ -32839,7 +32839,7 @@
       <c r="Y971" s="1"/>
       <c r="Z971" s="1"/>
     </row>
-    <row r="972" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="972" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A972" s="1"/>
       <c r="B972" s="1"/>
       <c r="C972" s="1"/>
@@ -32867,7 +32867,7 @@
       <c r="Y972" s="1"/>
       <c r="Z972" s="1"/>
     </row>
-    <row r="973" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="973" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A973" s="1"/>
       <c r="B973" s="1"/>
       <c r="C973" s="1"/>
@@ -32895,7 +32895,7 @@
       <c r="Y973" s="1"/>
       <c r="Z973" s="1"/>
     </row>
-    <row r="974" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="974" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A974" s="1"/>
       <c r="B974" s="1"/>
       <c r="C974" s="1"/>
@@ -32923,7 +32923,7 @@
       <c r="Y974" s="1"/>
       <c r="Z974" s="1"/>
     </row>
-    <row r="975" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="975" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A975" s="1"/>
       <c r="B975" s="1"/>
       <c r="C975" s="1"/>
@@ -32951,7 +32951,7 @@
       <c r="Y975" s="1"/>
       <c r="Z975" s="1"/>
     </row>
-    <row r="976" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="976" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A976" s="1"/>
       <c r="B976" s="1"/>
       <c r="C976" s="1"/>
@@ -32979,7 +32979,7 @@
       <c r="Y976" s="1"/>
       <c r="Z976" s="1"/>
     </row>
-    <row r="977" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="977" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A977" s="1"/>
       <c r="B977" s="1"/>
       <c r="C977" s="1"/>
@@ -33007,7 +33007,7 @@
       <c r="Y977" s="1"/>
       <c r="Z977" s="1"/>
     </row>
-    <row r="978" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="978" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A978" s="1"/>
       <c r="B978" s="1"/>
       <c r="C978" s="1"/>
@@ -33035,7 +33035,7 @@
       <c r="Y978" s="1"/>
       <c r="Z978" s="1"/>
     </row>
-    <row r="979" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="979" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A979" s="1"/>
       <c r="B979" s="1"/>
       <c r="C979" s="1"/>
@@ -33063,7 +33063,7 @@
       <c r="Y979" s="1"/>
       <c r="Z979" s="1"/>
     </row>
-    <row r="980" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="980" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A980" s="1"/>
       <c r="B980" s="1"/>
       <c r="C980" s="1"/>
@@ -33091,7 +33091,7 @@
       <c r="Y980" s="1"/>
       <c r="Z980" s="1"/>
     </row>
-    <row r="981" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="981" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A981" s="1"/>
       <c r="B981" s="1"/>
       <c r="C981" s="1"/>
@@ -33119,7 +33119,7 @@
       <c r="Y981" s="1"/>
       <c r="Z981" s="1"/>
     </row>
-    <row r="982" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="982" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A982" s="1"/>
       <c r="B982" s="1"/>
       <c r="C982" s="1"/>
@@ -33147,7 +33147,7 @@
       <c r="Y982" s="1"/>
       <c r="Z982" s="1"/>
     </row>
-    <row r="983" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="983" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A983" s="1"/>
       <c r="B983" s="1"/>
       <c r="C983" s="1"/>
@@ -33175,7 +33175,7 @@
       <c r="Y983" s="1"/>
       <c r="Z983" s="1"/>
     </row>
-    <row r="984" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="984" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A984" s="1"/>
       <c r="B984" s="1"/>
       <c r="C984" s="1"/>
@@ -33203,7 +33203,7 @@
       <c r="Y984" s="1"/>
       <c r="Z984" s="1"/>
     </row>
-    <row r="985" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="985" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A985" s="1"/>
       <c r="B985" s="1"/>
       <c r="C985" s="1"/>
@@ -33231,7 +33231,7 @@
       <c r="Y985" s="1"/>
       <c r="Z985" s="1"/>
     </row>
-    <row r="986" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="986" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A986" s="1"/>
       <c r="B986" s="1"/>
       <c r="C986" s="1"/>
@@ -33259,7 +33259,7 @@
       <c r="Y986" s="1"/>
       <c r="Z986" s="1"/>
     </row>
-    <row r="987" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="987" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A987" s="1"/>
       <c r="B987" s="1"/>
       <c r="C987" s="1"/>
@@ -33287,7 +33287,7 @@
       <c r="Y987" s="1"/>
       <c r="Z987" s="1"/>
     </row>
-    <row r="988" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="988" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A988" s="1"/>
       <c r="B988" s="1"/>
       <c r="C988" s="1"/>
@@ -33315,7 +33315,7 @@
       <c r="Y988" s="1"/>
       <c r="Z988" s="1"/>
     </row>
-    <row r="989" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="989" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A989" s="1"/>
       <c r="B989" s="1"/>
       <c r="C989" s="1"/>
@@ -33343,7 +33343,7 @@
       <c r="Y989" s="1"/>
       <c r="Z989" s="1"/>
     </row>
-    <row r="990" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="990" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A990" s="1"/>
       <c r="B990" s="1"/>
       <c r="C990" s="1"/>
@@ -33371,7 +33371,7 @@
       <c r="Y990" s="1"/>
       <c r="Z990" s="1"/>
     </row>
-    <row r="991" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="991" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A991" s="1"/>
       <c r="B991" s="1"/>
       <c r="C991" s="1"/>
@@ -33399,7 +33399,7 @@
       <c r="Y991" s="1"/>
       <c r="Z991" s="1"/>
     </row>
-    <row r="992" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="992" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A992" s="1"/>
       <c r="B992" s="1"/>
       <c r="C992" s="1"/>
@@ -33427,7 +33427,7 @@
       <c r="Y992" s="1"/>
       <c r="Z992" s="1"/>
     </row>
-    <row r="993" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="993" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A993" s="1"/>
       <c r="B993" s="1"/>
       <c r="C993" s="1"/>
@@ -33455,7 +33455,7 @@
       <c r="Y993" s="1"/>
       <c r="Z993" s="1"/>
     </row>
-    <row r="994" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="994" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A994" s="1"/>
       <c r="B994" s="1"/>
       <c r="C994" s="1"/>
@@ -33483,7 +33483,7 @@
       <c r="Y994" s="1"/>
       <c r="Z994" s="1"/>
     </row>
-    <row r="995" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="995" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A995" s="1"/>
       <c r="B995" s="1"/>
       <c r="C995" s="1"/>
@@ -33511,7 +33511,7 @@
       <c r="Y995" s="1"/>
       <c r="Z995" s="1"/>
     </row>
-    <row r="996" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="996" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A996" s="1"/>
       <c r="B996" s="1"/>
       <c r="C996" s="1"/>
@@ -33539,7 +33539,7 @@
       <c r="Y996" s="1"/>
       <c r="Z996" s="1"/>
     </row>
-    <row r="997" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="997" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A997" s="1"/>
       <c r="B997" s="1"/>
       <c r="C997" s="1"/>
@@ -33567,7 +33567,7 @@
       <c r="Y997" s="1"/>
       <c r="Z997" s="1"/>
     </row>
-    <row r="998" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="998" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A998" s="1"/>
       <c r="B998" s="1"/>
       <c r="C998" s="1"/>
@@ -33595,7 +33595,7 @@
       <c r="Y998" s="1"/>
       <c r="Z998" s="1"/>
     </row>
-    <row r="999" spans="1:26" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="999" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A999" s="1"/>
       <c r="B999" s="1"/>
       <c r="C999" s="1"/>

--- a/Assets/Resources/RFScenarios/Preston/AllLancashireScenarios.xlsx
+++ b/Assets/Resources/RFScenarios/Preston/AllLancashireScenarios.xlsx
@@ -504,9 +504,6 @@
     <t>Scenario_16</t>
   </si>
   <si>
-    <t>Report of a group of youths causing havoc on a small residential estate. The report can only describe the youths as "the usual ones"</t>
-  </si>
-  <si>
     <t>On arrival, the youths who have their faces concealed, run away.</t>
   </si>
   <si>
@@ -628,6 +625,9 @@
   </si>
   <si>
     <t>Park is searched, but the dog is not found, however, due to the owner information being known, officers go to the address and advise owner on controlling their dog in the future</t>
+  </si>
+  <si>
+    <t>Report of a group of youths causing havoc on a small residential estate. The report can only describe the youths as 'the usual ones'</t>
   </si>
 </sst>
 </file>
@@ -983,8 +983,8 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
+      <pane ySplit="3" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7604,7 +7604,7 @@
         <v>71</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="E108" s="1">
         <v>3</v>
@@ -7666,7 +7666,7 @@
         <v>6</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E109" s="1">
         <v>-1</v>
@@ -7728,7 +7728,7 @@
         <v>6</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E110" s="1">
         <v>-1</v>
@@ -7790,7 +7790,7 @@
         <v>71</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E111" s="1">
         <v>6</v>
@@ -7852,7 +7852,7 @@
         <v>6</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E112" s="1">
         <v>-1</v>
@@ -7914,7 +7914,7 @@
         <v>6</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E113" s="1">
         <v>-1</v>
@@ -7967,16 +7967,16 @@
     </row>
     <row r="114" spans="1:26" ht="125" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B114" s="1">
         <v>1</v>
       </c>
       <c r="C114" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="E114" s="1">
         <v>3</v>
@@ -8029,16 +8029,16 @@
     </row>
     <row r="115" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B115" s="1">
         <v>2</v>
       </c>
       <c r="C115" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="E115" s="1">
         <v>6</v>
@@ -8091,7 +8091,7 @@
     </row>
     <row r="116" spans="1:26" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B116" s="1">
         <v>3</v>
@@ -8100,7 +8100,7 @@
         <v>6</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E116" s="1">
         <v>-1</v>
@@ -8153,7 +8153,7 @@
     </row>
     <row r="117" spans="1:26" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B117" s="1">
         <v>4</v>
@@ -8162,7 +8162,7 @@
         <v>6</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E117" s="1">
         <v>-1</v>
@@ -8215,7 +8215,7 @@
     </row>
     <row r="118" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B118" s="1">
         <v>5</v>
@@ -8224,7 +8224,7 @@
         <v>6</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E118" s="1">
         <v>-1</v>
@@ -8277,7 +8277,7 @@
     </row>
     <row r="119" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B119" s="1">
         <v>6</v>
@@ -8286,7 +8286,7 @@
         <v>6</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E119" s="1">
         <v>-1</v>
@@ -8339,16 +8339,16 @@
     </row>
     <row r="120" spans="1:26" ht="125" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B120" s="1">
         <v>1</v>
       </c>
       <c r="C120" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="E120" s="1">
         <v>4</v>
@@ -8401,7 +8401,7 @@
     </row>
     <row r="121" spans="1:26" ht="100" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B121" s="1">
         <v>2</v>
@@ -8410,7 +8410,7 @@
         <v>6</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E121" s="1">
         <v>-1</v>
@@ -8463,16 +8463,16 @@
     </row>
     <row r="122" spans="1:26" ht="50" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B122" s="1">
         <v>3</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E122" s="1">
         <v>4</v>
@@ -8525,7 +8525,7 @@
     </row>
     <row r="123" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B123" s="1">
         <v>4</v>
@@ -8534,7 +8534,7 @@
         <v>6</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E123" s="1">
         <v>-1</v>
@@ -8587,7 +8587,7 @@
     </row>
     <row r="124" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B124" s="1">
         <v>5</v>
@@ -8596,7 +8596,7 @@
         <v>6</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E124" s="1">
         <v>-1</v>
@@ -8649,16 +8649,16 @@
     </row>
     <row r="125" spans="1:26" ht="125" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B125" s="1">
         <v>1</v>
       </c>
       <c r="C125" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="E125" s="1">
         <v>2</v>
@@ -8711,16 +8711,16 @@
     </row>
     <row r="126" spans="1:26" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B126" s="1">
         <v>2</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E126" s="1">
         <v>5</v>
@@ -8773,16 +8773,16 @@
     </row>
     <row r="127" spans="1:26" ht="50" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B127" s="1">
         <v>3</v>
       </c>
       <c r="C127" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E127" s="1">
         <v>5</v>
@@ -8835,7 +8835,7 @@
     </row>
     <row r="128" spans="1:26" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B128" s="1">
         <v>4</v>
@@ -8844,7 +8844,7 @@
         <v>6</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E128" s="1">
         <v>-1</v>
@@ -8897,16 +8897,16 @@
     </row>
     <row r="129" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B129" s="1">
         <v>5</v>
       </c>
       <c r="C129" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="E129" s="1">
         <v>8</v>
@@ -8959,7 +8959,7 @@
     </row>
     <row r="130" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B130" s="1">
         <v>6</v>
@@ -8968,7 +8968,7 @@
         <v>6</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E130" s="1">
         <v>-1</v>
@@ -9021,7 +9021,7 @@
     </row>
     <row r="131" spans="1:26" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B131" s="1">
         <v>7</v>
@@ -9030,7 +9030,7 @@
         <v>6</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E131" s="1">
         <v>-1</v>
@@ -9083,7 +9083,7 @@
     </row>
     <row r="132" spans="1:26" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B132" s="1">
         <v>8</v>
@@ -9092,7 +9092,7 @@
         <v>6</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E132" s="1">
         <v>-1</v>
@@ -9145,16 +9145,16 @@
     </row>
     <row r="133" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B133" s="1">
         <v>1</v>
       </c>
       <c r="C133" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D133" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="E133" s="1">
         <v>2</v>
@@ -9207,16 +9207,16 @@
     </row>
     <row r="134" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B134" s="1">
         <v>2</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E134" s="1">
         <v>4</v>
@@ -9269,16 +9269,16 @@
     </row>
     <row r="135" spans="1:26" ht="50" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B135" s="1">
         <v>3</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E135" s="1">
         <v>2</v>
@@ -9331,7 +9331,7 @@
     </row>
     <row r="136" spans="1:26" ht="50" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B136" s="1">
         <v>4</v>
@@ -9340,7 +9340,7 @@
         <v>6</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E136" s="1">
         <v>-1</v>
@@ -9393,7 +9393,7 @@
     </row>
     <row r="137" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B137" s="1">
         <v>5</v>
@@ -9402,7 +9402,7 @@
         <v>6</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E137" s="1">
         <v>-1</v>
@@ -9455,7 +9455,7 @@
     </row>
     <row r="138" spans="1:26" ht="100" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B138" s="1">
         <v>6</v>
@@ -9464,7 +9464,7 @@
         <v>6</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E138" s="1">
         <v>-1</v>

--- a/Assets/Resources/RFScenarios/Preston/AllLancashireScenarios.xlsx
+++ b/Assets/Resources/RFScenarios/Preston/AllLancashireScenarios.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="316">
   <si>
     <t>Missing Person</t>
   </si>
@@ -629,6 +629,345 @@
   <si>
     <t>Report of a group of youths causing havoc on a small residential estate. The report can only describe the youths as 'the usual ones'</t>
   </si>
+  <si>
+    <t>Not a good choice, female could be in serious trouble</t>
+  </si>
+  <si>
+    <t>Great Choice, but citizens could help</t>
+  </si>
+  <si>
+    <t>Citizens could help, but is deployment not best?</t>
+  </si>
+  <si>
+    <t>Bad Choice, person could be in significant danger</t>
+  </si>
+  <si>
+    <t>You should use  the new information, the woman could be in significant danger</t>
+  </si>
+  <si>
+    <t>Great Choice, officers are needed to locate the woman</t>
+  </si>
+  <si>
+    <t>Should officers really be involved in this case?</t>
+  </si>
+  <si>
+    <t>Good choice, other incidents may take priority</t>
+  </si>
+  <si>
+    <t>Good choice, but officers may be needed later, be careful</t>
+  </si>
+  <si>
+    <t>There may not be a need to send officers, but citizens may feel ignored</t>
+  </si>
+  <si>
+    <t>An assault has taken place, now would have been a good time to send officers</t>
+  </si>
+  <si>
+    <t>Good choice, an officer should be able to diffuse the situation</t>
+  </si>
+  <si>
+    <t>Good call, citizens can assist quite a bit with this</t>
+  </si>
+  <si>
+    <t>This type of incident should not be ignored</t>
+  </si>
+  <si>
+    <t>Great choice, this is the best option here</t>
+  </si>
+  <si>
+    <t>Best Choice, but could citizens help?</t>
+  </si>
+  <si>
+    <t>Not a good choice, this is a serious investigation</t>
+  </si>
+  <si>
+    <t>Great choice, this is a serious investigation</t>
+  </si>
+  <si>
+    <t>Not a good choice, citizens feel their information is ignored</t>
+  </si>
+  <si>
+    <t>Good Choice</t>
+  </si>
+  <si>
+    <t>Good choice as this is not an urgent incident</t>
+  </si>
+  <si>
+    <t>Could this resource be better used</t>
+  </si>
+  <si>
+    <t>Good choice, often citizens can help with issues like this</t>
+  </si>
+  <si>
+    <t>This is not a good choice as this is a high profile incident</t>
+  </si>
+  <si>
+    <t>Good choice, but could other options be explored?</t>
+  </si>
+  <si>
+    <t>Good choice, the officer will be able to close this case</t>
+  </si>
+  <si>
+    <t>Officers should have been sent to detain the offender quickly</t>
+  </si>
+  <si>
+    <t>Bad Choice, there is a fight on-going</t>
+  </si>
+  <si>
+    <t>Best choice, citizens could provide help but a fight is on-going</t>
+  </si>
+  <si>
+    <t>What were you thinking? Someone has serious injuries</t>
+  </si>
+  <si>
+    <t>Great choice, responding to a serious injury should help close this case</t>
+  </si>
+  <si>
+    <t>The scene has been identifeid as severe, you should have sent officers</t>
+  </si>
+  <si>
+    <t>Great choice, officers need to attend to secure the scene</t>
+  </si>
+  <si>
+    <t>Great choice, officers are needed to close this case and arrest the aggressor</t>
+  </si>
+  <si>
+    <t>Not a good choice, this incident could potentially get out of hand</t>
+  </si>
+  <si>
+    <t>Good choice, officers will be able to diffuse the situation</t>
+  </si>
+  <si>
+    <t>Great choice, citizens may be able to help identify the suspect</t>
+  </si>
+  <si>
+    <t>The incident has been left to get out of hand, you should really send an officer soon</t>
+  </si>
+  <si>
+    <t>Not a good choice, could get even worse</t>
+  </si>
+  <si>
+    <t>You should send officers, the incident has developed to an assault</t>
+  </si>
+  <si>
+    <t>Ok, the man was prosecuted but may have more information</t>
+  </si>
+  <si>
+    <t>Good choice, officers should be able to prevent the incident escalating further</t>
+  </si>
+  <si>
+    <t>Listening to the people will help gain confidence and can lead to further arrests</t>
+  </si>
+  <si>
+    <t>The male may have more information that could lead to further arrests, should have sent officers</t>
+  </si>
+  <si>
+    <t>Officers will be able to identify further offenders if there are any</t>
+  </si>
+  <si>
+    <t>The male may have assaulted an officer but there may be more offenders, should have sent officers</t>
+  </si>
+  <si>
+    <t>You had all the information to make an arrest, should have sent an officer</t>
+  </si>
+  <si>
+    <t>Great choice, the officer will be able to make an arrest now</t>
+  </si>
+  <si>
+    <t>Good choice, saving officers for more important incidents is important</t>
+  </si>
+  <si>
+    <t>Sending officers is ok, but there could be a better choice</t>
+  </si>
+  <si>
+    <t>Not a good choice, incident may get out of hand</t>
+  </si>
+  <si>
+    <t>This is a good choice</t>
+  </si>
+  <si>
+    <t>Bad choice, the situation has escalated, you should really react to this</t>
+  </si>
+  <si>
+    <t>Good choice, sending officers to stop the assault is important</t>
+  </si>
+  <si>
+    <t>This is ok, but maybe asking for help would be a better option</t>
+  </si>
+  <si>
+    <t>Good call, the officer should be able to resolve the situation with the information</t>
+  </si>
+  <si>
+    <t>A male is reported missing and could be in danger</t>
+  </si>
+  <si>
+    <t>The male requires further aid, helping would have increased public opinion</t>
+  </si>
+  <si>
+    <t>Great choice, aiding the elderly will help improve relations</t>
+  </si>
+  <si>
+    <t>The information provided could have directed officers to the lost male</t>
+  </si>
+  <si>
+    <t>Good choice, not all incidents should see a deployment</t>
+  </si>
+  <si>
+    <t>With limited resources, consider the incident and decide officer time could be used elsewhere</t>
+  </si>
+  <si>
+    <t>Not the best decision, driver could be in need of assistance</t>
+  </si>
+  <si>
+    <t>Good choice, delayed deployment may cause issues</t>
+  </si>
+  <si>
+    <t>Why would you wait? You risk losing key evidence</t>
+  </si>
+  <si>
+    <t>Good choice, you can't ignore something like this</t>
+  </si>
+  <si>
+    <t>More officers are required to close this case, delaying will cause frustration to other road users</t>
+  </si>
+  <si>
+    <t>Great call, officers will be able to deal with the situation</t>
+  </si>
+  <si>
+    <t>Not the best, but not considered urgent, but be aware the situation could get worse</t>
+  </si>
+  <si>
+    <t>Information from citizens may help to prosecute the offender</t>
+  </si>
+  <si>
+    <t>Difficult choice, remember to set priorities with other incidents</t>
+  </si>
+  <si>
+    <t>Citizesn may be able to help identify the male</t>
+  </si>
+  <si>
+    <t>There may have been better choices to help aprehend the male</t>
+  </si>
+  <si>
+    <t>Bad choice, you should use the information from citizens, otherwise they will feel ignored</t>
+  </si>
+  <si>
+    <t>Good call, you do not want the scenario to get any worse</t>
+  </si>
+  <si>
+    <t>Questionable choice, the incidnet has escalated and may escalate further</t>
+  </si>
+  <si>
+    <t>Should have sent officers, the male will likely get away without being arrested</t>
+  </si>
+  <si>
+    <t>Sending officers will help to arrest the male. Good choice</t>
+  </si>
+  <si>
+    <t>Bad call, you don't know what might happen to the child</t>
+  </si>
+  <si>
+    <t>Great, officers will be able to begin searching for the child</t>
+  </si>
+  <si>
+    <t>This is a great choice, citizens may be able to provide more information as to the location of the child</t>
+  </si>
+  <si>
+    <t>Great, without further information, officers will have to keep searching</t>
+  </si>
+  <si>
+    <t>Tough choice, other incidents may take priority</t>
+  </si>
+  <si>
+    <t>Sending officers will be able to handle the incident quickly</t>
+  </si>
+  <si>
+    <t>There is a chance that the incident may now escalate, consider sending officers</t>
+  </si>
+  <si>
+    <t>Good choice, you do not want the situation getting worse</t>
+  </si>
+  <si>
+    <t>You cannot ignore this incident as it could get worse</t>
+  </si>
+  <si>
+    <t>Bad choice, someone is in need</t>
+  </si>
+  <si>
+    <t>Good choice, you don't know if anyone is at risk</t>
+  </si>
+  <si>
+    <t>The information provided could have directed officers to the youths and make arrests</t>
+  </si>
+  <si>
+    <t>Good call, with the identity of the youths, officers will be able to make arrests</t>
+  </si>
+  <si>
+    <t>Although it is not obvious, this is a serious incident as the elderly family member may be in need</t>
+  </si>
+  <si>
+    <t>The elderly family member requires assistance, leaving them could be very damaging</t>
+  </si>
+  <si>
+    <t>Great choice, this is a serious incident</t>
+  </si>
+  <si>
+    <t>Citizens may be able to help with this case, but it is very serious and officers should be sent</t>
+  </si>
+  <si>
+    <t>Although not corroborated, this is a serious incident</t>
+  </si>
+  <si>
+    <t>Good choice, this is a serious incident</t>
+  </si>
+  <si>
+    <t>Citizens may be able to provide more information, but a location is known and the incident is serious, you should have sent officers</t>
+  </si>
+  <si>
+    <t>A lack of deployment will not solve the crime</t>
+  </si>
+  <si>
+    <t>Good, using the information known and sending officers will help to make arrests</t>
+  </si>
+  <si>
+    <t>Bad choice, although the incident is not serious, it is a priority</t>
+  </si>
+  <si>
+    <t>Sending officers is a good idea to help gather information, but maybe citizens could have provided the same information</t>
+  </si>
+  <si>
+    <t>Good choice, citizens will be able to offer more information on the incident</t>
+  </si>
+  <si>
+    <t>Good choice, this behaviour cannot be ignored</t>
+  </si>
+  <si>
+    <t>You should use the information available, your officers could help resolve this case</t>
+  </si>
+  <si>
+    <t>Good choice, officers will have more chance of lacating the vehicle with this information</t>
+  </si>
+  <si>
+    <t>The incident could get worse, consider your options carefully</t>
+  </si>
+  <si>
+    <t>Sending officers is a good choice, but the inicident is not a priority</t>
+  </si>
+  <si>
+    <t>Great, citizens should be able to provide a lot of information with incidents like this</t>
+  </si>
+  <si>
+    <t>Although this is not a serious incident, it is a priority</t>
+  </si>
+  <si>
+    <t>You should use the information provided by citizens, ignoring this can make them feel ignored</t>
+  </si>
+  <si>
+    <t>Sending officers could help locate the dog, but without a known location it may prove difficult</t>
+  </si>
+  <si>
+    <t>Great, you have the information required to send officers to deal with this incident</t>
+  </si>
 </sst>
 </file>
 
@@ -676,11 +1015,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -983,151 +1322,155 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D109" sqref="D109"/>
+      <pane ySplit="3" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O135" sqref="O135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.453125" customWidth="1"/>
-    <col min="4" max="4" width="20.81640625" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="11" max="11" width="18.453125" customWidth="1"/>
+    <col min="1" max="2" width="14.453125" style="3"/>
+    <col min="3" max="3" width="14.453125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.81640625" style="3" customWidth="1"/>
+    <col min="5" max="6" width="14.453125" style="3"/>
+    <col min="7" max="7" width="16" style="3" customWidth="1"/>
+    <col min="8" max="10" width="14.453125" style="3"/>
+    <col min="11" max="11" width="18.453125" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="14.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:26" ht="59" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>6</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="G3" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="G3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>1</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>1</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>0</v>
       </c>
       <c r="L3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M3" s="1">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="N3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O3" s="1">
-        <v>-1</v>
+        <v>4</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="P3" s="1">
         <v>-1</v>
@@ -1145,57 +1488,57 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>6</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>5</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>3</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>3</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>5</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>3</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M4" s="1">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="N4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O4" s="1">
-        <v>-1</v>
+        <v>4</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="P4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>-1</v>
+        <v>3</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -1207,51 +1550,51 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:26" ht="76" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
         <v>3</v>
       </c>
-      <c r="F5" s="2">
-        <v>4</v>
-      </c>
-      <c r="G5" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
         <v>1</v>
       </c>
-      <c r="J5" s="2">
-        <v>3</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M5" s="1">
-        <v>-1</v>
+      <c r="M5" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="N5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O5" s="1">
-        <v>-1</v>
+        <v>5</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="P5" s="1">
         <v>-1</v>
@@ -1269,38 +1612,38 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:26" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F6" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G6" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="E6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>3</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>4</v>
       </c>
       <c r="L6" s="1">
@@ -1331,38 +1674,38 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:26" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="E7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="1">
         <v>0</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>0</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>3</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>4</v>
       </c>
       <c r="L7" s="1">
@@ -1393,38 +1736,38 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:26" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F8" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G8" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="E8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="1">
         <v>0</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>0</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>3</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <v>-6</v>
       </c>
       <c r="L8" s="1">
@@ -1455,51 +1798,51 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:26" ht="41.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>2</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>8</v>
       </c>
-      <c r="G9" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="G9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="2">
         <v>1</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>1</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>1</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M9" s="1">
-        <v>-1</v>
+        <v>4</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="N9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O9" s="1">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="P9" s="1">
         <v>-1</v>
@@ -1517,51 +1860,51 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:26" ht="59" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>2</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>3</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>9</v>
       </c>
-      <c r="G10" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="G10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="2">
         <v>1</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>2</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>1</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <v>0</v>
       </c>
       <c r="L10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M10" s="1">
-        <v>-1</v>
+        <v>3</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="N10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O10" s="1">
-        <v>-1</v>
+        <v>2</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="P10" s="1">
         <v>-1</v>
@@ -1579,57 +1922,57 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:26" ht="51.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>3</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>4</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>10</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>6</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>1</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>2</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>2</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <v>0</v>
       </c>
       <c r="L11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M11" s="1">
-        <v>-1</v>
+        <v>2</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="N11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O11" s="1">
-        <v>-1</v>
+        <v>4</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="P11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>-1</v>
+        <v>3</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -1641,57 +1984,57 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>4</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>11</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>12</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>5</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
+        <v>3</v>
+      </c>
+      <c r="I12" s="2">
+        <v>4</v>
+      </c>
+      <c r="J12" s="2">
+        <v>3</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N12" s="1">
         <v>5</v>
       </c>
-      <c r="I12" s="3">
-        <v>4</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="O12" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P12" s="1">
         <v>3</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>-1</v>
+      <c r="Q12" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -1703,51 +2046,51 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:26" ht="64" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>5</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2">
+        <v>13</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>4</v>
+      </c>
+      <c r="I13" s="2">
+        <v>2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>3</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N13" s="1">
         <v>5</v>
       </c>
-      <c r="F13" s="3">
-        <v>13</v>
-      </c>
-      <c r="G13" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H13" s="3">
-        <v>4</v>
-      </c>
-      <c r="I13" s="3">
-        <v>2</v>
-      </c>
-      <c r="J13" s="3">
-        <v>3</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O13" s="1">
-        <v>-1</v>
+      <c r="O13" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="P13" s="1">
         <v>-1</v>
@@ -1765,51 +2108,51 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>6</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="3">
-        <v>6</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="2">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2">
         <v>14</v>
       </c>
-      <c r="G14" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="G14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H14" s="2">
         <v>1</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <v>1</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <v>2</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="2">
         <v>0</v>
       </c>
       <c r="L14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M14" s="1">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="N14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O14" s="1">
-        <v>-1</v>
+        <v>5</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="P14" s="1">
         <v>-1</v>
@@ -1827,38 +2170,38 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>7</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F15" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G15" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="E15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H15" s="2">
         <v>0</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <v>0</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <v>1</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="2">
         <v>1</v>
       </c>
       <c r="L15" s="1">
@@ -1889,38 +2232,38 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:26" ht="68.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>8</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F16" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G16" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H16" s="3">
+      <c r="E16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <v>0</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <v>1</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="2">
         <v>1</v>
       </c>
       <c r="L16" s="1">
@@ -1951,38 +2294,38 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:26" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>9</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F17" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G17" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="E17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="2">
         <v>0</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="2">
         <v>0</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="2">
         <v>2</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="2">
         <v>2</v>
       </c>
       <c r="L17" s="1">
@@ -2013,38 +2356,38 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>10</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F18" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G18" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="E18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H18" s="2">
         <v>0</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
         <v>0</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
         <v>2</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="2">
         <v>2</v>
       </c>
       <c r="L18" s="1">
@@ -2075,39 +2418,39 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>11</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F19" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G19" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H19" s="3">
+      <c r="E19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H19" s="2">
         <v>0</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="2">
         <v>0</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="2">
         <v>3</v>
       </c>
-      <c r="K19" s="3">
-        <v>-4</v>
+      <c r="K19" s="2">
+        <v>-3</v>
       </c>
       <c r="L19" s="1">
         <v>-1</v>
@@ -2137,38 +2480,38 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:26" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>12</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F20" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G20" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="E20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H20" s="2">
         <v>0</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="2">
         <v>0</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="2">
         <v>3</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="2">
         <v>4</v>
       </c>
       <c r="L20" s="1">
@@ -2199,38 +2542,38 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>13</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F21" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G21" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="E21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H21" s="2">
         <v>0</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="2">
         <v>0</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="2">
         <v>3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="2">
         <v>4</v>
       </c>
       <c r="L21" s="1">
@@ -2261,38 +2604,38 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:26" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>14</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F22" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G22" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="E22" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H22" s="2">
         <v>0</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="2">
         <v>0</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="2">
         <v>2</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="2">
         <v>5</v>
       </c>
       <c r="L22" s="1">
@@ -2323,57 +2666,57 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:26" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>1</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>2</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>3</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <v>5</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <v>1</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <v>3</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="2">
         <v>1</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="2">
         <v>0</v>
       </c>
       <c r="L23" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M23" s="1">
-        <v>-1</v>
+        <v>2</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="N23" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O23" s="1">
-        <v>-1</v>
+        <v>4</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="P23" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>-1</v>
+        <v>4</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -2385,38 +2728,38 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:26" ht="51.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>2</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F24" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G24" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="E24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H24" s="2">
         <v>0</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="2">
         <v>0</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="2">
         <v>2</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="2">
         <v>-2</v>
       </c>
       <c r="L24" s="1">
@@ -2447,51 +2790,51 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:26" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>3</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>3</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <v>4</v>
       </c>
-      <c r="G25" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H25" s="3">
+      <c r="G25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H25" s="2">
         <v>1</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="2">
         <v>5</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="2">
         <v>2</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="2">
         <v>0</v>
       </c>
       <c r="L25" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M25" s="1">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="N25" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O25" s="1">
-        <v>-1</v>
+        <v>4</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="P25" s="1">
         <v>-1</v>
@@ -2509,38 +2852,38 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:26" ht="89.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>4</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F26" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G26" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="E26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H26" s="2">
         <v>0</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="2">
         <v>0</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="2">
         <v>2</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="2">
         <v>1</v>
       </c>
       <c r="L26" s="1">
@@ -2571,51 +2914,51 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>5</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>5</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>6</v>
       </c>
-      <c r="G27" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="G27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H27" s="2">
         <v>2</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="2">
         <v>5</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="2">
         <v>2</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="2">
         <v>0</v>
       </c>
       <c r="L27" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M27" s="1">
-        <v>-1</v>
+        <v>2</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="N27" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O27" s="1">
-        <v>-1</v>
+        <v>4</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="P27" s="1">
         <v>-1</v>
@@ -2633,38 +2976,38 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:26" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>6</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F28" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G28" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H28" s="3">
+      <c r="E28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H28" s="2">
         <v>0</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="2">
         <v>0</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="2">
         <v>2</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="2">
         <v>3</v>
       </c>
       <c r="L28" s="1">
@@ -2695,57 +3038,57 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:26" ht="56.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>1</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>4</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <v>2</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="2">
         <v>3</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="2">
         <v>1</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="2">
         <v>2</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="2">
         <v>1</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="2">
         <v>0</v>
       </c>
       <c r="L29" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M29" s="1">
-        <v>-1</v>
+        <v>2</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="N29" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O29" s="1">
-        <v>-1</v>
+        <v>3</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="P29" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>-1</v>
+        <v>4</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -2757,56 +3100,56 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:26" ht="80.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>2</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F30" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G30" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H30" s="3">
+      <c r="E30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H30" s="2">
         <v>0</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="2">
         <v>0</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="2">
         <v>1</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="2">
         <v>1</v>
       </c>
-      <c r="L30" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M30" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N30" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O30" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P30" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q30" s="2">
+      <c r="L30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q30" s="1">
         <v>-1</v>
       </c>
       <c r="R30" s="1"/>
@@ -2819,56 +3162,56 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:26" ht="83.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>3</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F31" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G31" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H31" s="3">
+      <c r="E31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H31" s="2">
         <v>0</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="2">
         <v>0</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="2">
         <v>1</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="2">
         <v>1</v>
       </c>
-      <c r="L31" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M31" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N31" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O31" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P31" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q31" s="2">
+      <c r="L31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q31" s="1">
         <v>-1</v>
       </c>
       <c r="R31" s="1"/>
@@ -2881,56 +3224,56 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:26" ht="45.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>4</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <v>4</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <v>5</v>
       </c>
-      <c r="G32" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="G32" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H32" s="2">
         <v>1</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="2">
         <v>2</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="2">
         <v>1</v>
       </c>
-      <c r="K32" s="3">
-        <v>-1</v>
-      </c>
-      <c r="L32" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M32" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N32" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O32" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P32" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q32" s="2">
+      <c r="K32" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L32" s="1">
+        <v>2</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="N32" s="1">
+        <v>3</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="P32" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q32" s="1">
         <v>-1</v>
       </c>
       <c r="R32" s="1"/>
@@ -2944,55 +3287,55 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>5</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F33" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G33" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="E33" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H33" s="2">
         <v>0</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="2">
         <v>0</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="2">
         <v>1</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="2">
         <v>-2</v>
       </c>
-      <c r="L33" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M33" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N33" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O33" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P33" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q33" s="2">
+      <c r="L33" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M33" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N33" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O33" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P33" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q33" s="1">
         <v>-1</v>
       </c>
       <c r="R33" s="1"/>
@@ -3006,56 +3349,56 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>1</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>2</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <v>3</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="2">
         <v>6</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="2">
         <v>1</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="2">
         <v>3</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="2">
         <v>2</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="2">
         <v>0</v>
       </c>
-      <c r="L34" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M34" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N34" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O34" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P34" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q34" s="2">
-        <v>-1</v>
+      <c r="L34" s="1">
+        <v>1</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="N34" s="1">
+        <v>4</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="P34" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -3068,55 +3411,55 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>2</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F35" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G35" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="E35" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H35" s="2">
         <v>0</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="2">
         <v>0</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="2">
         <v>2</v>
       </c>
-      <c r="K35" s="3">
-        <v>-1</v>
-      </c>
-      <c r="L35" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M35" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N35" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O35" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P35" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q35" s="2">
+      <c r="K35" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L35" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M35" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N35" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O35" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P35" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q35" s="1">
         <v>-1</v>
       </c>
       <c r="R35" s="1"/>
@@ -3130,55 +3473,55 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>3</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <v>5</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <v>4</v>
       </c>
-      <c r="G36" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H36" s="3">
+      <c r="G36" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H36" s="2">
         <v>1</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="2">
         <v>2</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="2">
         <v>2</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="2">
         <v>0</v>
       </c>
-      <c r="L36" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M36" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N36" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O36" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P36" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q36" s="2">
+      <c r="L36" s="1">
+        <v>2</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N36" s="1">
+        <v>4</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="P36" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q36" s="1">
         <v>-1</v>
       </c>
       <c r="R36" s="1"/>
@@ -3192,55 +3535,55 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="50" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>4</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F37" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G37" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H37" s="3">
+      <c r="E37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H37" s="2">
         <v>0</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="2">
         <v>0</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="2">
         <v>2</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="2">
         <v>2</v>
       </c>
-      <c r="L37" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M37" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N37" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O37" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P37" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q37" s="2">
+      <c r="L37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q37" s="1">
         <v>-1</v>
       </c>
       <c r="R37" s="1"/>
@@ -3254,55 +3597,55 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="2">
         <v>5</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F38" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G38" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H38" s="3">
+      <c r="E38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H38" s="2">
         <v>0</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="2">
         <v>0</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38" s="2">
         <v>2</v>
       </c>
-      <c r="K38" s="3">
-        <v>-1</v>
-      </c>
-      <c r="L38" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M38" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N38" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O38" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P38" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q38" s="2">
+      <c r="K38" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q38" s="1">
         <v>-1</v>
       </c>
       <c r="R38" s="1"/>
@@ -3316,55 +3659,55 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="2">
         <v>6</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <v>6</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="2">
         <v>7</v>
       </c>
-      <c r="G39" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H39" s="3">
+      <c r="G39" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H39" s="2">
         <v>1</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="2">
         <v>1</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="2">
         <v>2</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39" s="2">
         <v>0</v>
       </c>
-      <c r="L39" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M39" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N39" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O39" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P39" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q39" s="2">
+      <c r="L39" s="1">
+        <v>2</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N39" s="1">
+        <v>4</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="P39" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q39" s="1">
         <v>-1</v>
       </c>
       <c r="R39" s="1"/>
@@ -3378,55 +3721,55 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="25" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <v>7</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F40" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G40" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H40" s="3">
+      <c r="E40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H40" s="2">
         <v>0</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="2">
         <v>0</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="2">
         <v>2</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40" s="2">
         <v>2</v>
       </c>
-      <c r="L40" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M40" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N40" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O40" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P40" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q40" s="2">
+      <c r="L40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q40" s="1">
         <v>-1</v>
       </c>
       <c r="R40" s="1"/>
@@ -3439,57 +3782,57 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="50" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>1</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <v>2</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="2">
         <v>8</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="2">
         <v>6</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="2">
         <v>1</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="2">
         <v>2</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="2">
         <v>1</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="2">
         <v>0</v>
       </c>
-      <c r="L41" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M41" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N41" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O41" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P41" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>-1</v>
+      <c r="L41" s="1">
+        <v>1</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="N41" s="1">
+        <v>5</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="P41" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
@@ -3501,56 +3844,56 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="50" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>2</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <v>3</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="2">
         <v>4</v>
       </c>
-      <c r="G42" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H42" s="3">
+      <c r="G42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H42" s="2">
         <v>1</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="2">
         <v>1</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="2">
         <v>2</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="2">
         <v>0</v>
       </c>
-      <c r="L42" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M42" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N42" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O42" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P42" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q42" s="2">
+      <c r="L42" s="1">
+        <v>1</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="N42" s="1">
+        <v>4</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="P42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q42" s="1">
         <v>-1</v>
       </c>
       <c r="R42" s="1"/>
@@ -3564,55 +3907,55 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="2">
         <v>3</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F43" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G43" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="E43" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H43" s="2">
         <v>0</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="2">
         <v>0</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="2">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>-4</v>
-      </c>
-      <c r="L43" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M43" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N43" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O43" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P43" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q43" s="2">
+      <c r="K43" s="2">
+        <v>-3</v>
+      </c>
+      <c r="L43" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M43" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N43" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O43" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P43" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q43" s="1">
         <v>-1</v>
       </c>
       <c r="R43" s="1"/>
@@ -3626,55 +3969,55 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="75" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="2">
         <v>4</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="2">
         <v>6</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="2">
         <v>5</v>
       </c>
-      <c r="G44" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="G44" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H44" s="2">
         <v>5</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="2">
         <v>6</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="2">
         <v>2</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="2">
         <v>0</v>
       </c>
-      <c r="L44" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M44" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N44" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O44" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P44" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q44" s="2">
+      <c r="L44" s="1">
+        <v>2</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="N44" s="1">
+        <v>5</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="P44" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q44" s="1">
         <v>-1</v>
       </c>
       <c r="R44" s="1"/>
@@ -3688,55 +4031,55 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="2">
         <v>5</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F45" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G45" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="E45" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G45" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H45" s="2">
         <v>0</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="2">
         <v>0</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="2">
         <v>2</v>
       </c>
-      <c r="K45" s="3">
-        <v>4</v>
-      </c>
-      <c r="L45" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M45" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N45" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O45" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P45" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q45" s="2">
+      <c r="K45" s="2">
+        <v>3</v>
+      </c>
+      <c r="L45" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M45" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N45" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O45" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P45" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q45" s="1">
         <v>-1</v>
       </c>
       <c r="R45" s="1"/>
@@ -3750,55 +4093,55 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:26" ht="100" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="2">
         <v>6</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E46" s="3">
-        <v>6</v>
-      </c>
-      <c r="F46" s="3">
+      <c r="E46" s="2">
+        <v>3</v>
+      </c>
+      <c r="F46" s="2">
         <v>7</v>
       </c>
-      <c r="G46" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="G46" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H46" s="2">
         <v>1</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I46" s="2">
         <v>3</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46" s="2">
         <v>2</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="2">
         <v>0</v>
       </c>
-      <c r="L46" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M46" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N46" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O46" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P46" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q46" s="2">
+      <c r="L46" s="1">
+        <v>1</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="N46" s="1">
+        <v>4</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="P46" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q46" s="1">
         <v>-1</v>
       </c>
       <c r="R46" s="1"/>
@@ -3812,55 +4155,55 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="25" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="2">
         <v>7</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E47" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F47" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G47" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="E47" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F47" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G47" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H47" s="2">
         <v>0</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="2">
         <v>0</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="2">
         <v>2</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="2">
         <v>2</v>
       </c>
-      <c r="L47" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M47" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N47" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O47" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P47" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q47" s="2">
+      <c r="L47" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M47" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N47" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O47" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P47" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q47" s="1">
         <v>-1</v>
       </c>
       <c r="R47" s="1"/>
@@ -3874,55 +4217,55 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="100" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="2">
         <v>8</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E48" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F48" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G48" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H48" s="3">
+      <c r="E48" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F48" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G48" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H48" s="2">
         <v>0</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="2">
         <v>0</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="2">
         <v>1</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="2">
         <v>1</v>
       </c>
-      <c r="L48" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M48" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N48" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O48" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P48" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q48" s="2">
+      <c r="L48" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M48" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N48" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O48" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P48" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q48" s="1">
         <v>-1</v>
       </c>
       <c r="R48" s="1"/>
@@ -3936,56 +4279,56 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="2">
         <v>1</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="2">
         <v>2</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="2">
         <v>9</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="2">
         <v>10</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="2">
         <v>1</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="2">
         <v>2</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="2">
         <v>1</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="2">
         <v>0</v>
       </c>
-      <c r="L49" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M49" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N49" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O49" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P49" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q49" s="2">
-        <v>-1</v>
+      <c r="L49" s="1">
+        <v>2</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="N49" s="1">
+        <v>4</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="P49" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
@@ -3998,55 +4341,55 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26" ht="50" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="2">
         <v>2</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="2">
         <v>3</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="2">
         <v>7</v>
       </c>
-      <c r="G50" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H50" s="3">
+      <c r="G50" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H50" s="2">
         <v>2</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I50" s="2">
         <v>3</v>
       </c>
-      <c r="J50" s="3">
+      <c r="J50" s="2">
         <v>2</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K50" s="2">
         <v>0</v>
       </c>
-      <c r="L50" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M50" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N50" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O50" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P50" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q50" s="2">
+      <c r="L50" s="1">
+        <v>2</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="N50" s="1">
+        <v>4</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="P50" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q50" s="1">
         <v>-1</v>
       </c>
       <c r="R50" s="1"/>
@@ -4059,56 +4402,56 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+    <row r="51" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="2">
         <v>3</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="2">
+        <v>6</v>
+      </c>
+      <c r="F51" s="2">
+        <v>4</v>
+      </c>
+      <c r="G51" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H51" s="2">
+        <v>2</v>
+      </c>
+      <c r="I51" s="2">
         <v>3</v>
       </c>
-      <c r="F51" s="3">
+      <c r="J51" s="2">
+        <v>2</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0</v>
+      </c>
+      <c r="L51" s="1">
+        <v>1</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="N51" s="1">
         <v>4</v>
       </c>
-      <c r="G51" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H51" s="3">
-        <v>2</v>
-      </c>
-      <c r="I51" s="3">
-        <v>3</v>
-      </c>
-      <c r="J51" s="3">
-        <v>2</v>
-      </c>
-      <c r="K51" s="3">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M51" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N51" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O51" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P51" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q51" s="2">
+      <c r="O51" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="P51" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q51" s="1">
         <v>-1</v>
       </c>
       <c r="R51" s="1"/>
@@ -4121,56 +4464,56 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" ht="50" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+    <row r="52" spans="1:26" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="2">
         <v>4</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="2">
+        <v>8</v>
+      </c>
+      <c r="F52" s="2">
+        <v>5</v>
+      </c>
+      <c r="G52" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H52" s="2">
+        <v>2</v>
+      </c>
+      <c r="I52" s="2">
+        <v>3</v>
+      </c>
+      <c r="J52" s="2">
+        <v>2</v>
+      </c>
+      <c r="K52" s="2">
+        <v>0</v>
+      </c>
+      <c r="L52" s="1">
+        <v>2</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="N52" s="1">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
-        <v>5</v>
-      </c>
-      <c r="G52" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H52" s="3">
-        <v>2</v>
-      </c>
-      <c r="I52" s="3">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3">
-        <v>2</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M52" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N52" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O52" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P52" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q52" s="2">
+      <c r="O52" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P52" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q52" s="1">
         <v>-1</v>
       </c>
       <c r="R52" s="1"/>
@@ -4183,56 +4526,56 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26" ht="50" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+    <row r="53" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="2">
         <v>5</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E53" s="3">
-        <v>5</v>
-      </c>
-      <c r="F53" s="3">
+      <c r="E53" s="2">
+        <v>8</v>
+      </c>
+      <c r="F53" s="2">
         <v>6</v>
       </c>
-      <c r="G53" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H53" s="3">
+      <c r="G53" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H53" s="2">
         <v>2</v>
       </c>
-      <c r="I53" s="3">
+      <c r="I53" s="2">
         <v>3</v>
       </c>
-      <c r="J53" s="3">
+      <c r="J53" s="2">
         <v>2</v>
       </c>
-      <c r="K53" s="3">
+      <c r="K53" s="2">
         <v>0</v>
       </c>
-      <c r="L53" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M53" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N53" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O53" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P53" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q53" s="2">
+      <c r="L53" s="1">
+        <v>3</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="N53" s="1">
+        <v>4</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="P53" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q53" s="1">
         <v>-1</v>
       </c>
       <c r="R53" s="1"/>
@@ -4246,55 +4589,55 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54" spans="1:26" ht="75" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="2">
         <v>6</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E54" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F54" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G54" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H54" s="3">
+      <c r="E54" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G54" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H54" s="2">
         <v>0</v>
       </c>
-      <c r="I54" s="3">
+      <c r="I54" s="2">
         <v>0</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J54" s="2">
         <v>2</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="2">
         <v>2</v>
       </c>
-      <c r="L54" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M54" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N54" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O54" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P54" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q54" s="2">
+      <c r="L54" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M54" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N54" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O54" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P54" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q54" s="1">
         <v>-1</v>
       </c>
       <c r="R54" s="1"/>
@@ -4307,56 +4650,56 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26" ht="75" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+    <row r="55" spans="1:26" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="2">
         <v>7</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E55" s="3">
-        <v>7</v>
-      </c>
-      <c r="F55" s="3">
+      <c r="E55" s="2">
         <v>8</v>
       </c>
-      <c r="G55" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H55" s="3">
+      <c r="F55" s="2">
+        <v>10</v>
+      </c>
+      <c r="G55" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H55" s="2">
         <v>2</v>
       </c>
-      <c r="I55" s="3">
+      <c r="I55" s="2">
         <v>3</v>
       </c>
-      <c r="J55" s="3">
+      <c r="J55" s="2">
         <v>2</v>
       </c>
-      <c r="K55" s="3">
+      <c r="K55" s="2">
         <v>0</v>
       </c>
-      <c r="L55" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M55" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N55" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O55" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P55" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q55" s="2">
+      <c r="L55" s="1">
+        <v>2</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N55" s="1">
+        <v>4</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="P55" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q55" s="1">
         <v>-1</v>
       </c>
       <c r="R55" s="1"/>
@@ -4370,55 +4713,55 @@
       <c r="Z55" s="1"/>
     </row>
     <row r="56" spans="1:26" ht="50" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="2">
         <v>8</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E56" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F56" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G56" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H56" s="3">
+      <c r="E56" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F56" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G56" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H56" s="2">
         <v>0</v>
       </c>
-      <c r="I56" s="3">
+      <c r="I56" s="2">
         <v>0</v>
       </c>
-      <c r="J56" s="3">
+      <c r="J56" s="2">
         <v>2</v>
       </c>
-      <c r="K56" s="3">
-        <v>1</v>
-      </c>
-      <c r="L56" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M56" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N56" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O56" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P56" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q56" s="2">
+      <c r="K56" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L56" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M56" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N56" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O56" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P56" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q56" s="1">
         <v>-1</v>
       </c>
       <c r="R56" s="1"/>
@@ -4432,55 +4775,55 @@
       <c r="Z56" s="1"/>
     </row>
     <row r="57" spans="1:26" ht="100" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="2">
         <v>9</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E57" s="3">
-        <v>9</v>
-      </c>
-      <c r="F57" s="3">
+      <c r="E57" s="2">
         <v>8</v>
       </c>
-      <c r="G57" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="F57" s="2">
+        <v>8</v>
+      </c>
+      <c r="G57" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H57" s="2">
         <v>1</v>
       </c>
-      <c r="I57" s="3">
+      <c r="I57" s="2">
         <v>2</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57" s="2">
         <v>1</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="2">
         <v>0</v>
       </c>
-      <c r="L57" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M57" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N57" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O57" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P57" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q57" s="2">
+      <c r="L57" s="1">
+        <v>2</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="N57" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O57" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P57" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q57" s="1">
         <v>-1</v>
       </c>
       <c r="R57" s="1"/>
@@ -4493,56 +4836,56 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" ht="50" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+    <row r="58" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="2">
         <v>10</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E58" s="3">
-        <v>10</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="E58" s="2">
+        <v>8</v>
+      </c>
+      <c r="F58" s="2">
         <v>11</v>
       </c>
-      <c r="G58" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="G58" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H58" s="2">
         <v>1</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="2">
         <v>2</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="2">
         <v>1</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="2">
         <v>0</v>
       </c>
-      <c r="L58" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M58" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N58" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O58" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P58" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q58" s="2">
+      <c r="L58" s="1">
+        <v>1</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="N58" s="1">
+        <v>5</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="P58" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q58" s="1">
         <v>-1</v>
       </c>
       <c r="R58" s="1"/>
@@ -4556,55 +4899,55 @@
       <c r="Z58" s="1"/>
     </row>
     <row r="59" spans="1:26" ht="25" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="2">
         <v>11</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E59" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F59" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G59" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="E59" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F59" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G59" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H59" s="2">
         <v>0</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="2">
         <v>0</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="2">
         <v>1</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="2">
         <v>2</v>
       </c>
-      <c r="L59" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M59" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N59" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O59" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P59" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q59" s="2">
+      <c r="L59" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M59" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N59" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O59" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P59" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q59" s="1">
         <v>-1</v>
       </c>
       <c r="R59" s="1"/>
@@ -4617,57 +4960,57 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+    <row r="60" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="2">
         <v>1</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="2">
         <v>5</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="2">
         <v>2</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G60" s="2">
         <v>3</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H60" s="2">
         <v>1</v>
       </c>
-      <c r="I60" s="3">
+      <c r="I60" s="2">
         <v>2</v>
       </c>
-      <c r="J60" s="3">
+      <c r="J60" s="2">
         <v>1</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="2">
         <v>0</v>
       </c>
-      <c r="L60" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M60" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N60" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O60" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P60" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q60" s="2">
-        <v>-1</v>
+      <c r="L60" s="1">
+        <v>4</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="N60" s="1">
+        <v>3</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="P60" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
@@ -4680,55 +5023,55 @@
       <c r="Z60" s="1"/>
     </row>
     <row r="61" spans="1:26" ht="50" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="2">
         <v>2</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E61" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F61" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G61" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H61" s="3">
+      <c r="E61" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F61" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G61" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H61" s="2">
         <v>0</v>
       </c>
-      <c r="I61" s="3">
+      <c r="I61" s="2">
         <v>0</v>
       </c>
-      <c r="J61" s="3">
+      <c r="J61" s="2">
         <v>1</v>
       </c>
-      <c r="K61" s="3">
+      <c r="K61" s="2">
         <v>1</v>
       </c>
-      <c r="L61" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M61" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N61" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O61" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P61" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q61" s="2">
+      <c r="L61" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M61" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N61" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O61" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P61" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q61" s="1">
         <v>-1</v>
       </c>
       <c r="R61" s="1"/>
@@ -4742,55 +5085,55 @@
       <c r="Z61" s="1"/>
     </row>
     <row r="62" spans="1:26" ht="50" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="2">
         <v>3</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="2">
         <v>5</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="2">
         <v>4</v>
       </c>
-      <c r="G62" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H62" s="3">
+      <c r="G62" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H62" s="2">
         <v>1</v>
       </c>
-      <c r="I62" s="3">
+      <c r="I62" s="2">
         <v>1</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62" s="2">
         <v>1</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="2">
         <v>0</v>
       </c>
-      <c r="L62" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M62" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N62" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O62" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P62" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q62" s="2">
+      <c r="L62" s="1">
+        <v>2</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="N62" s="1">
+        <v>4</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="P62" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q62" s="1">
         <v>-1</v>
       </c>
       <c r="R62" s="1"/>
@@ -4804,55 +5147,55 @@
       <c r="Z62" s="1"/>
     </row>
     <row r="63" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="2">
         <v>4</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E63" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F63" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G63" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H63" s="3">
+      <c r="E63" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F63" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G63" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H63" s="2">
         <v>0</v>
       </c>
-      <c r="I63" s="3">
+      <c r="I63" s="2">
         <v>0</v>
       </c>
-      <c r="J63" s="3">
+      <c r="J63" s="2">
         <v>1</v>
       </c>
-      <c r="K63" s="3">
+      <c r="K63" s="2">
         <v>2</v>
       </c>
-      <c r="L63" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M63" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N63" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O63" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P63" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q63" s="2">
+      <c r="L63" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M63" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N63" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O63" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P63" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q63" s="1">
         <v>-1</v>
       </c>
       <c r="R63" s="1"/>
@@ -4866,55 +5209,55 @@
       <c r="Z63" s="1"/>
     </row>
     <row r="64" spans="1:26" ht="50" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="2">
         <v>5</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="2">
         <v>6</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="2">
         <v>7</v>
       </c>
-      <c r="G64" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H64" s="3">
+      <c r="G64" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H64" s="2">
         <v>2</v>
       </c>
-      <c r="I64" s="3">
+      <c r="I64" s="2">
         <v>2</v>
       </c>
-      <c r="J64" s="3">
+      <c r="J64" s="2">
         <v>1</v>
       </c>
-      <c r="K64" s="3">
+      <c r="K64" s="2">
         <v>0</v>
       </c>
-      <c r="L64" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M64" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N64" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O64" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P64" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q64" s="2">
+      <c r="L64" s="1">
+        <v>2</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="N64" s="1">
+        <v>4</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="P64" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q64" s="1">
         <v>-1</v>
       </c>
       <c r="R64" s="1"/>
@@ -4927,56 +5270,56 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:26" ht="50" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+    <row r="65" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="2">
         <v>6</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="2">
         <v>8</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="2">
         <v>7</v>
       </c>
-      <c r="G65" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H65" s="3">
+      <c r="G65" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H65" s="2">
         <v>3</v>
       </c>
-      <c r="I65" s="3">
+      <c r="I65" s="2">
         <v>3</v>
       </c>
-      <c r="J65" s="3">
+      <c r="J65" s="2">
         <v>2</v>
       </c>
-      <c r="K65" s="3">
+      <c r="K65" s="2">
         <v>0</v>
       </c>
-      <c r="L65" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M65" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N65" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O65" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P65" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q65" s="2">
+      <c r="L65" s="1">
+        <v>1</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="N65" s="1">
+        <v>3</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="P65" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q65" s="1">
         <v>-1</v>
       </c>
       <c r="R65" s="1"/>
@@ -4990,55 +5333,55 @@
       <c r="Z65" s="1"/>
     </row>
     <row r="66" spans="1:26" ht="25" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="2">
         <v>7</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E66" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F66" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G66" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H66" s="3">
+      <c r="E66" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F66" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G66" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H66" s="2">
         <v>0</v>
       </c>
-      <c r="I66" s="3">
+      <c r="I66" s="2">
         <v>0</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J66" s="2">
         <v>2</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="2">
         <v>2</v>
       </c>
-      <c r="L66" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M66" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N66" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O66" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P66" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q66" s="2">
+      <c r="L66" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M66" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N66" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O66" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P66" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q66" s="1">
         <v>-1</v>
       </c>
       <c r="R66" s="1"/>
@@ -5052,55 +5395,55 @@
       <c r="Z66" s="1"/>
     </row>
     <row r="67" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="2">
         <v>8</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E67" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F67" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G67" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H67" s="3">
+      <c r="E67" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F67" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G67" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H67" s="2">
         <v>0</v>
       </c>
-      <c r="I67" s="3">
+      <c r="I67" s="2">
         <v>0</v>
       </c>
-      <c r="J67" s="3">
+      <c r="J67" s="2">
         <v>2</v>
       </c>
-      <c r="K67" s="3">
+      <c r="K67" s="2">
         <v>-2</v>
       </c>
-      <c r="L67" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M67" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N67" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O67" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P67" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q67" s="2">
+      <c r="L67" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M67" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N67" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O67" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P67" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q67" s="1">
         <v>-1</v>
       </c>
       <c r="R67" s="1"/>
@@ -5113,57 +5456,57 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26" ht="50" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+    <row r="68" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="2">
         <v>1</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F68" s="2">
+        <v>2</v>
+      </c>
+      <c r="G68" s="2">
+        <v>6</v>
+      </c>
+      <c r="H68" s="2">
         <v>1</v>
       </c>
-      <c r="F68" s="3">
+      <c r="I68" s="2">
         <v>2</v>
       </c>
-      <c r="G68" s="3">
-        <v>6</v>
-      </c>
-      <c r="H68" s="3">
-        <v>1</v>
-      </c>
-      <c r="I68" s="3">
+      <c r="J68" s="2">
         <v>2</v>
       </c>
-      <c r="J68" s="3">
-        <v>2</v>
-      </c>
-      <c r="K68" s="3">
+      <c r="K68" s="2">
         <v>0</v>
       </c>
-      <c r="L68" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M68" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N68" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O68" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P68" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q68" s="2">
-        <v>-1</v>
+      <c r="L68" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M68" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N68" s="1">
+        <v>3</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="P68" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
@@ -5175,56 +5518,56 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+    <row r="69" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="2">
         <v>2</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69" s="2">
         <v>4</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69" s="2">
         <v>3</v>
       </c>
-      <c r="G69" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H69" s="3">
+      <c r="G69" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H69" s="2">
         <v>1</v>
       </c>
-      <c r="I69" s="3">
+      <c r="I69" s="2">
         <v>3</v>
       </c>
-      <c r="J69" s="3">
+      <c r="J69" s="2">
         <v>3</v>
       </c>
-      <c r="K69" s="3">
+      <c r="K69" s="2">
         <v>0</v>
       </c>
-      <c r="L69" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M69" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N69" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O69" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P69" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q69" s="2">
+      <c r="L69" s="1">
+        <v>1</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N69" s="1">
+        <v>5</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="P69" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q69" s="1">
         <v>-1</v>
       </c>
       <c r="R69" s="1"/>
@@ -5238,55 +5581,55 @@
       <c r="Z69" s="1"/>
     </row>
     <row r="70" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="2">
         <v>3</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E70" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F70" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G70" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H70" s="3">
+      <c r="E70" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F70" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G70" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H70" s="2">
         <v>0</v>
       </c>
-      <c r="I70" s="3">
+      <c r="I70" s="2">
         <v>0</v>
       </c>
-      <c r="J70" s="3">
+      <c r="J70" s="2">
         <v>3</v>
       </c>
-      <c r="K70" s="3">
+      <c r="K70" s="2">
         <v>2</v>
       </c>
-      <c r="L70" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M70" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N70" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O70" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P70" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q70" s="2">
+      <c r="L70" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M70" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N70" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O70" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P70" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q70" s="1">
         <v>-1</v>
       </c>
       <c r="R70" s="1"/>
@@ -5300,55 +5643,55 @@
       <c r="Z70" s="1"/>
     </row>
     <row r="71" spans="1:26" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="2">
         <v>4</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="2">
+        <v>3</v>
+      </c>
+      <c r="F71" s="2">
+        <v>5</v>
+      </c>
+      <c r="G71" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H71" s="2">
+        <v>1</v>
+      </c>
+      <c r="I71" s="2">
         <v>4</v>
       </c>
-      <c r="F71" s="3">
-        <v>5</v>
-      </c>
-      <c r="G71" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H71" s="3">
-        <v>1</v>
-      </c>
-      <c r="I71" s="3">
+      <c r="J71" s="2">
+        <v>2</v>
+      </c>
+      <c r="K71" s="2">
+        <v>0</v>
+      </c>
+      <c r="L71" s="1">
+        <v>2</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="N71" s="1">
         <v>4</v>
       </c>
-      <c r="J71" s="3">
-        <v>2</v>
-      </c>
-      <c r="K71" s="3">
-        <v>0</v>
-      </c>
-      <c r="L71" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M71" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N71" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O71" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P71" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q71" s="2">
+      <c r="O71" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="P71" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q71" s="1">
         <v>-1</v>
       </c>
       <c r="R71" s="1"/>
@@ -5362,55 +5705,55 @@
       <c r="Z71" s="1"/>
     </row>
     <row r="72" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="2">
         <v>5</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E72" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F72" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G72" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H72" s="3">
+      <c r="E72" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F72" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G72" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H72" s="2">
         <v>0</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="2">
         <v>0</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="2">
         <v>2</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="2">
         <v>4</v>
       </c>
-      <c r="L72" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M72" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N72" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O72" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P72" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q72" s="2">
+      <c r="L72" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M72" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N72" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O72" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P72" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q72" s="1">
         <v>-1</v>
       </c>
       <c r="R72" s="1"/>
@@ -5423,56 +5766,56 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+    <row r="73" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="2">
         <v>6</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73" s="2">
+        <v>3</v>
+      </c>
+      <c r="F73" s="2">
         <v>4</v>
       </c>
-      <c r="F73" s="3">
+      <c r="G73" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H73" s="2">
+        <v>1</v>
+      </c>
+      <c r="I73" s="2">
         <v>3</v>
       </c>
-      <c r="G73" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H73" s="3">
-        <v>1</v>
-      </c>
-      <c r="I73" s="3">
+      <c r="J73" s="2">
         <v>3</v>
       </c>
-      <c r="J73" s="3">
-        <v>3</v>
-      </c>
-      <c r="K73" s="3">
+      <c r="K73" s="2">
         <v>0</v>
       </c>
-      <c r="L73" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M73" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N73" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O73" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P73" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q73" s="2">
+      <c r="L73" s="1">
+        <v>2</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="N73" s="1">
+        <v>5</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="P73" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q73" s="1">
         <v>-1</v>
       </c>
       <c r="R73" s="1"/>
@@ -5485,56 +5828,56 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+    <row r="74" spans="1:26" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="2">
         <v>1</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="2">
         <v>2</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F74" s="2">
         <v>3</v>
       </c>
-      <c r="G74" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H74" s="3">
+      <c r="G74" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H74" s="2">
         <v>1</v>
       </c>
-      <c r="I74" s="3">
+      <c r="I74" s="2">
         <v>3</v>
       </c>
-      <c r="J74" s="3">
+      <c r="J74" s="2">
         <v>1</v>
       </c>
-      <c r="K74" s="3">
+      <c r="K74" s="2">
         <v>0</v>
       </c>
-      <c r="L74" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M74" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N74" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O74" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P74" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q74" s="2">
+      <c r="L74" s="1">
+        <v>5</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="N74" s="1">
+        <v>2</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="P74" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q74" s="1">
         <v>-1</v>
       </c>
       <c r="R74" s="1"/>
@@ -5548,55 +5891,55 @@
       <c r="Z74" s="1"/>
     </row>
     <row r="75" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="2">
         <v>2</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E75" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F75" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G75" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H75" s="3">
+      <c r="E75" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F75" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G75" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H75" s="2">
         <v>0</v>
       </c>
-      <c r="I75" s="3">
+      <c r="I75" s="2">
         <v>0</v>
       </c>
-      <c r="J75" s="3">
+      <c r="J75" s="2">
         <v>1</v>
       </c>
-      <c r="K75" s="3">
+      <c r="K75" s="2">
         <v>-2</v>
       </c>
-      <c r="L75" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M75" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N75" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O75" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P75" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q75" s="2">
+      <c r="L75" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M75" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N75" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O75" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P75" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q75" s="1">
         <v>-1</v>
       </c>
       <c r="R75" s="1"/>
@@ -5610,55 +5953,55 @@
       <c r="Z75" s="1"/>
     </row>
     <row r="76" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="2">
         <v>3</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E76" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F76" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G76" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="E76" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F76" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G76" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H76" s="2">
         <v>0</v>
       </c>
-      <c r="I76" s="3">
+      <c r="I76" s="2">
         <v>0</v>
       </c>
-      <c r="J76" s="3">
+      <c r="J76" s="2">
         <v>1</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="2">
         <v>1</v>
       </c>
-      <c r="L76" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M76" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N76" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O76" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P76" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q76" s="2">
+      <c r="L76" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M76" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N76" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O76" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P76" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q76" s="1">
         <v>-1</v>
       </c>
       <c r="R76" s="1"/>
@@ -5672,56 +6015,56 @@
       <c r="Z76" s="1"/>
     </row>
     <row r="77" spans="1:26" ht="100" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="2">
         <v>1</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77" s="2">
         <v>2</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F77" s="2">
         <v>3</v>
       </c>
-      <c r="G77" s="3">
+      <c r="G77" s="2">
         <v>3</v>
       </c>
-      <c r="H77" s="3">
+      <c r="H77" s="2">
         <v>2</v>
       </c>
-      <c r="I77" s="3">
+      <c r="I77" s="2">
         <v>3</v>
       </c>
-      <c r="J77" s="3">
+      <c r="J77" s="2">
         <v>2</v>
       </c>
-      <c r="K77" s="3">
+      <c r="K77" s="2">
         <v>0</v>
       </c>
-      <c r="L77" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M77" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N77" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O77" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P77" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q77" s="2">
-        <v>-1</v>
+      <c r="L77" s="1">
+        <v>2</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="N77" s="1">
+        <v>4</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="P77" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
@@ -5734,55 +6077,55 @@
       <c r="Z77" s="1"/>
     </row>
     <row r="78" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="2">
         <v>2</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E78" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F78" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G78" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H78" s="3">
+      <c r="E78" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F78" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G78" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H78" s="2">
         <v>0</v>
       </c>
-      <c r="I78" s="3">
+      <c r="I78" s="2">
         <v>0</v>
       </c>
-      <c r="J78" s="3">
+      <c r="J78" s="2">
         <v>2</v>
       </c>
-      <c r="K78" s="3">
+      <c r="K78" s="2">
         <v>-3</v>
       </c>
-      <c r="L78" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M78" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N78" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O78" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P78" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q78" s="2">
+      <c r="L78" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M78" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N78" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O78" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P78" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q78" s="1">
         <v>-1</v>
       </c>
       <c r="R78" s="1"/>
@@ -5796,55 +6139,55 @@
       <c r="Z78" s="1"/>
     </row>
     <row r="79" spans="1:26" ht="50" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="2">
         <v>3</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79" s="2">
+        <v>2</v>
+      </c>
+      <c r="F79" s="2">
+        <v>5</v>
+      </c>
+      <c r="G79" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H79" s="2">
+        <v>1</v>
+      </c>
+      <c r="I79" s="2">
+        <v>2</v>
+      </c>
+      <c r="J79" s="2">
+        <v>2</v>
+      </c>
+      <c r="K79" s="2">
+        <v>0</v>
+      </c>
+      <c r="L79" s="1">
+        <v>1</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="N79" s="1">
         <v>4</v>
       </c>
-      <c r="F79" s="3">
-        <v>5</v>
-      </c>
-      <c r="G79" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H79" s="3">
-        <v>1</v>
-      </c>
-      <c r="I79" s="3">
-        <v>2</v>
-      </c>
-      <c r="J79" s="3">
-        <v>2</v>
-      </c>
-      <c r="K79" s="3">
-        <v>0</v>
-      </c>
-      <c r="L79" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M79" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N79" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O79" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P79" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q79" s="2">
+      <c r="O79" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="P79" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q79" s="1">
         <v>-1</v>
       </c>
       <c r="R79" s="1"/>
@@ -5858,55 +6201,55 @@
       <c r="Z79" s="1"/>
     </row>
     <row r="80" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="2">
         <v>4</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E80" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F80" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G80" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H80" s="3">
+      <c r="E80" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F80" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G80" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H80" s="2">
         <v>0</v>
       </c>
-      <c r="I80" s="3">
+      <c r="I80" s="2">
         <v>0</v>
       </c>
-      <c r="J80" s="3">
+      <c r="J80" s="2">
         <v>2</v>
       </c>
-      <c r="K80" s="3">
+      <c r="K80" s="2">
         <v>1</v>
       </c>
-      <c r="L80" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M80" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N80" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O80" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P80" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q80" s="2">
+      <c r="L80" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M80" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N80" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O80" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P80" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q80" s="1">
         <v>-1</v>
       </c>
       <c r="R80" s="1"/>
@@ -5919,56 +6262,56 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+    <row r="81" spans="1:26" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="2">
         <v>5</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="2">
+        <v>2</v>
+      </c>
+      <c r="F81" s="2">
+        <v>6</v>
+      </c>
+      <c r="G81" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H81" s="2">
+        <v>1</v>
+      </c>
+      <c r="I81" s="2">
+        <v>2</v>
+      </c>
+      <c r="J81" s="2">
+        <v>2</v>
+      </c>
+      <c r="K81" s="2">
+        <v>0</v>
+      </c>
+      <c r="L81" s="1">
+        <v>2</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="N81" s="1">
         <v>5</v>
       </c>
-      <c r="F81" s="3">
-        <v>6</v>
-      </c>
-      <c r="G81" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H81" s="3">
-        <v>1</v>
-      </c>
-      <c r="I81" s="3">
-        <v>2</v>
-      </c>
-      <c r="J81" s="3">
-        <v>2</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M81" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N81" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O81" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P81" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q81" s="2">
+      <c r="O81" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="P81" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q81" s="1">
         <v>-1</v>
       </c>
       <c r="R81" s="1"/>
@@ -5982,55 +6325,55 @@
       <c r="Z81" s="1"/>
     </row>
     <row r="82" spans="1:26" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="2">
         <v>6</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E82" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F82" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G82" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H82" s="3">
+      <c r="E82" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F82" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G82" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H82" s="2">
         <v>0</v>
       </c>
-      <c r="I82" s="3">
+      <c r="I82" s="2">
         <v>0</v>
       </c>
-      <c r="J82" s="3">
+      <c r="J82" s="2">
         <v>2</v>
       </c>
-      <c r="K82" s="3">
-        <v>-1</v>
-      </c>
-      <c r="L82" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M82" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N82" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O82" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P82" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q82" s="2">
+      <c r="K82" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L82" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M82" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N82" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O82" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P82" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q82" s="1">
         <v>-1</v>
       </c>
       <c r="R82" s="1"/>
@@ -6043,57 +6386,57 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" spans="1:26" ht="50" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+    <row r="83" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="2">
         <v>1</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="2">
         <v>2</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="2">
         <v>5</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" s="2">
         <v>5</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="2">
         <v>1</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="2">
         <v>2</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="2">
         <v>1</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="2">
         <v>0</v>
       </c>
-      <c r="L83" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M83" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N83" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O83" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P83" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q83" s="2">
-        <v>-1</v>
+      <c r="L83" s="1">
+        <v>3</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="N83" s="1">
+        <v>4</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="P83" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
@@ -6105,56 +6448,56 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+    <row r="84" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="2">
         <v>2</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84" s="2">
         <v>4</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F84" s="2">
         <v>3</v>
       </c>
-      <c r="G84" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H84" s="3">
+      <c r="G84" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H84" s="2">
         <v>3</v>
       </c>
-      <c r="I84" s="3">
+      <c r="I84" s="2">
         <v>2</v>
       </c>
-      <c r="J84" s="3">
+      <c r="J84" s="2">
         <v>2</v>
       </c>
-      <c r="K84" s="3">
+      <c r="K84" s="2">
         <v>0</v>
       </c>
-      <c r="L84" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M84" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N84" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O84" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P84" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q84" s="2">
+      <c r="L84" s="1">
+        <v>3</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="N84" s="1">
+        <v>4</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="P84" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q84" s="1">
         <v>-1</v>
       </c>
       <c r="R84" s="1"/>
@@ -6168,55 +6511,55 @@
       <c r="Z84" s="1"/>
     </row>
     <row r="85" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="2">
         <v>3</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E85" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F85" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G85" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H85" s="3">
+      <c r="E85" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F85" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G85" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H85" s="2">
         <v>0</v>
       </c>
-      <c r="I85" s="3">
+      <c r="I85" s="2">
         <v>0</v>
       </c>
-      <c r="J85" s="3">
+      <c r="J85" s="2">
         <v>2</v>
       </c>
-      <c r="K85" s="3">
+      <c r="K85" s="2">
         <v>2</v>
       </c>
-      <c r="L85" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M85" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N85" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O85" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P85" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q85" s="2">
+      <c r="L85" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M85" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N85" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O85" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P85" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q85" s="1">
         <v>-1</v>
       </c>
       <c r="R85" s="1"/>
@@ -6230,55 +6573,55 @@
       <c r="Z85" s="1"/>
     </row>
     <row r="86" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="2">
         <v>4</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E86" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F86" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G86" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H86" s="3">
+      <c r="E86" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F86" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G86" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H86" s="2">
         <v>0</v>
       </c>
-      <c r="I86" s="3">
+      <c r="I86" s="2">
         <v>0</v>
       </c>
-      <c r="J86" s="3">
+      <c r="J86" s="2">
         <v>2</v>
       </c>
-      <c r="K86" s="3">
+      <c r="K86" s="2">
         <v>-2</v>
       </c>
-      <c r="L86" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M86" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N86" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O86" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P86" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q86" s="2">
+      <c r="L86" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M86" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N86" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O86" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P86" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q86" s="1">
         <v>-1</v>
       </c>
       <c r="R86" s="1"/>
@@ -6292,55 +6635,55 @@
       <c r="Z86" s="1"/>
     </row>
     <row r="87" spans="1:26" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="2">
         <v>5</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E87" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F87" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G87" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H87" s="3">
+      <c r="E87" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F87" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G87" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H87" s="2">
         <v>0</v>
       </c>
-      <c r="I87" s="3">
+      <c r="I87" s="2">
         <v>0</v>
       </c>
-      <c r="J87" s="3">
+      <c r="J87" s="2">
         <v>1</v>
       </c>
-      <c r="K87" s="3">
+      <c r="K87" s="2">
         <v>1</v>
       </c>
-      <c r="L87" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M87" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N87" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O87" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P87" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q87" s="2">
+      <c r="L87" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M87" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N87" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O87" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P87" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q87" s="1">
         <v>-1</v>
       </c>
       <c r="R87" s="1"/>
@@ -6353,7 +6696,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>133</v>
       </c>
@@ -6387,23 +6730,23 @@
       <c r="K88" s="1">
         <v>0</v>
       </c>
-      <c r="L88" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M88" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N88" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O88" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P88" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q88" s="2">
-        <v>-1</v>
+      <c r="L88" s="1">
+        <v>3</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="N88" s="1">
+        <v>2</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="P88" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>274</v>
       </c>
       <c r="R88" s="1"/>
       <c r="S88" s="1"/>
@@ -6415,8 +6758,8 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+    <row r="89" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B89" s="1">
@@ -6449,22 +6792,22 @@
       <c r="K89" s="1">
         <v>0</v>
       </c>
-      <c r="L89" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M89" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N89" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O89" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P89" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q89" s="2">
+      <c r="L89" s="1">
+        <v>2</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="N89" s="1">
+        <v>4</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="P89" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q89" s="1">
         <v>-1</v>
       </c>
       <c r="R89" s="1"/>
@@ -6477,8 +6820,8 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+    <row r="90" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B90" s="1">
@@ -6511,22 +6854,22 @@
       <c r="K90" s="1">
         <v>0</v>
       </c>
-      <c r="L90" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M90" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N90" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O90" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P90" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q90" s="2">
+      <c r="L90" s="1">
+        <v>2</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="N90" s="1">
+        <v>4</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="P90" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q90" s="1">
         <v>-1</v>
       </c>
       <c r="R90" s="1"/>
@@ -6540,7 +6883,7 @@
       <c r="Z90" s="1"/>
     </row>
     <row r="91" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B91" s="1">
@@ -6573,22 +6916,22 @@
       <c r="K91" s="1">
         <v>1</v>
       </c>
-      <c r="L91" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M91" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N91" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O91" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P91" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q91" s="2">
+      <c r="L91" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M91" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N91" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O91" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P91" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q91" s="1">
         <v>-1</v>
       </c>
       <c r="R91" s="1"/>
@@ -6602,7 +6945,7 @@
       <c r="Z91" s="1"/>
     </row>
     <row r="92" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B92" s="1">
@@ -6635,22 +6978,22 @@
       <c r="K92" s="1">
         <v>1</v>
       </c>
-      <c r="L92" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M92" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N92" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O92" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P92" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q92" s="2">
+      <c r="L92" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M92" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N92" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O92" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P92" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q92" s="1">
         <v>-1</v>
       </c>
       <c r="R92" s="1"/>
@@ -6663,8 +7006,8 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+    <row r="93" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B93" s="1">
@@ -6697,22 +7040,22 @@
       <c r="K93" s="1">
         <v>0</v>
       </c>
-      <c r="L93" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M93" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N93" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O93" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P93" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q93" s="2">
+      <c r="L93" s="1">
+        <v>1</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="N93" s="1">
+        <v>4</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="P93" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q93" s="1">
         <v>-1</v>
       </c>
       <c r="R93" s="1"/>
@@ -6726,7 +7069,7 @@
       <c r="Z93" s="1"/>
     </row>
     <row r="94" spans="1:26" ht="50" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B94" s="1">
@@ -6759,22 +7102,22 @@
       <c r="K94" s="1">
         <v>2</v>
       </c>
-      <c r="L94" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M94" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N94" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O94" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P94" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q94" s="2">
+      <c r="L94" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M94" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N94" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O94" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P94" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q94" s="1">
         <v>-1</v>
       </c>
       <c r="R94" s="1"/>
@@ -6788,7 +7131,7 @@
       <c r="Z94" s="1"/>
     </row>
     <row r="95" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B95" s="1">
@@ -6821,22 +7164,22 @@
       <c r="K95" s="1">
         <v>-2</v>
       </c>
-      <c r="L95" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M95" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N95" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O95" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P95" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q95" s="2">
+      <c r="L95" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M95" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N95" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O95" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P95" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q95" s="1">
         <v>-1</v>
       </c>
       <c r="R95" s="1"/>
@@ -6849,7 +7192,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>143</v>
       </c>
@@ -6872,7 +7215,7 @@
         <v>4</v>
       </c>
       <c r="H96" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I96" s="1">
         <v>2</v>
@@ -6883,23 +7226,23 @@
       <c r="K96" s="1">
         <v>0</v>
       </c>
-      <c r="L96" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M96" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N96" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O96" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P96" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q96" s="2">
-        <v>-1</v>
+      <c r="L96" s="1">
+        <v>1</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="N96" s="1">
+        <v>4</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="P96" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q96" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
@@ -6911,8 +7254,8 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+    <row r="97" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B97" s="1">
@@ -6934,7 +7277,7 @@
         <v>-1</v>
       </c>
       <c r="H97" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I97" s="1">
         <v>2</v>
@@ -6945,22 +7288,22 @@
       <c r="K97" s="1">
         <v>0</v>
       </c>
-      <c r="L97" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M97" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N97" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O97" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P97" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q97" s="2">
+      <c r="L97" s="1">
+        <v>1</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="N97" s="1">
+        <v>3</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="P97" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q97" s="1">
         <v>-1</v>
       </c>
       <c r="R97" s="1"/>
@@ -6974,7 +7317,7 @@
       <c r="Z97" s="1"/>
     </row>
     <row r="98" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B98" s="1">
@@ -7007,22 +7350,22 @@
       <c r="K98" s="1">
         <v>-3</v>
       </c>
-      <c r="L98" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M98" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N98" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O98" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P98" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q98" s="2">
+      <c r="L98" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M98" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N98" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O98" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P98" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q98" s="1">
         <v>-1</v>
       </c>
       <c r="R98" s="1"/>
@@ -7036,7 +7379,7 @@
       <c r="Z98" s="1"/>
     </row>
     <row r="99" spans="1:26" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B99" s="1">
@@ -7069,22 +7412,22 @@
       <c r="K99" s="1">
         <v>1</v>
       </c>
-      <c r="L99" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M99" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N99" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O99" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P99" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q99" s="2">
+      <c r="L99" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M99" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N99" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O99" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P99" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q99" s="1">
         <v>-1</v>
       </c>
       <c r="R99" s="1"/>
@@ -7098,7 +7441,7 @@
       <c r="Z99" s="1"/>
     </row>
     <row r="100" spans="1:26" ht="50" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B100" s="1">
@@ -7131,22 +7474,22 @@
       <c r="K100" s="1">
         <v>2</v>
       </c>
-      <c r="L100" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M100" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N100" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O100" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P100" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q100" s="2">
+      <c r="L100" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M100" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N100" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O100" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P100" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q100" s="1">
         <v>-1</v>
       </c>
       <c r="R100" s="1"/>
@@ -7193,22 +7536,22 @@
       <c r="K101" s="1">
         <v>0</v>
       </c>
-      <c r="L101" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M101" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N101" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O101" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P101" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q101" s="2">
+      <c r="L101" s="1">
+        <v>3</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="N101" s="1">
+        <v>4</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="P101" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q101" s="1">
         <v>-1</v>
       </c>
       <c r="R101" s="1"/>
@@ -7222,7 +7565,7 @@
       <c r="Z101" s="1"/>
     </row>
     <row r="102" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B102" s="1">
@@ -7255,22 +7598,22 @@
       <c r="K102" s="1">
         <v>1</v>
       </c>
-      <c r="L102" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M102" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N102" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O102" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P102" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q102" s="2">
+      <c r="L102" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M102" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N102" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O102" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P102" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q102" s="1">
         <v>-1</v>
       </c>
       <c r="R102" s="1"/>
@@ -7284,7 +7627,7 @@
       <c r="Z102" s="1"/>
     </row>
     <row r="103" spans="1:26" ht="100" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B103" s="1">
@@ -7317,22 +7660,22 @@
       <c r="K103" s="1">
         <v>0</v>
       </c>
-      <c r="L103" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M103" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N103" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O103" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P103" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q103" s="2">
+      <c r="L103" s="1">
+        <v>2</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="N103" s="1">
+        <v>3</v>
+      </c>
+      <c r="O103" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="P103" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q103" s="1">
         <v>-1</v>
       </c>
       <c r="R103" s="1"/>
@@ -7346,7 +7689,7 @@
       <c r="Z103" s="1"/>
     </row>
     <row r="104" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B104" s="1">
@@ -7379,22 +7722,22 @@
       <c r="K104" s="1">
         <v>1</v>
       </c>
-      <c r="L104" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M104" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N104" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O104" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P104" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q104" s="2">
+      <c r="L104" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M104" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N104" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O104" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P104" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q104" s="1">
         <v>-1</v>
       </c>
       <c r="R104" s="1"/>
@@ -7408,7 +7751,7 @@
       <c r="Z104" s="1"/>
     </row>
     <row r="105" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B105" s="1">
@@ -7441,22 +7784,22 @@
       <c r="K105" s="1">
         <v>0</v>
       </c>
-      <c r="L105" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M105" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N105" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O105" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P105" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q105" s="2">
+      <c r="L105" s="1">
+        <v>1</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="N105" s="1">
+        <v>4</v>
+      </c>
+      <c r="O105" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="P105" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q105" s="1">
         <v>-1</v>
       </c>
       <c r="R105" s="1"/>
@@ -7470,7 +7813,7 @@
       <c r="Z105" s="1"/>
     </row>
     <row r="106" spans="1:26" ht="50" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B106" s="1">
@@ -7503,22 +7846,22 @@
       <c r="K106" s="1">
         <v>1</v>
       </c>
-      <c r="L106" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M106" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N106" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O106" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P106" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q106" s="2">
+      <c r="L106" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M106" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N106" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O106" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P106" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q106" s="1">
         <v>-1</v>
       </c>
       <c r="R106" s="1"/>
@@ -7532,7 +7875,7 @@
       <c r="Z106" s="1"/>
     </row>
     <row r="107" spans="1:26" ht="50" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B107" s="1">
@@ -7565,22 +7908,22 @@
       <c r="K107" s="1">
         <v>-2</v>
       </c>
-      <c r="L107" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M107" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N107" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O107" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P107" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q107" s="2">
+      <c r="L107" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M107" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N107" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O107" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P107" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q107" s="1">
         <v>-1</v>
       </c>
       <c r="R107" s="1"/>
@@ -7627,23 +7970,23 @@
       <c r="K108" s="1">
         <v>0</v>
       </c>
-      <c r="L108" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M108" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N108" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O108" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P108" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q108" s="2">
-        <v>-1</v>
+      <c r="L108" s="1">
+        <v>1</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="N108" s="1">
+        <v>4</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="P108" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q108" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="R108" s="1"/>
       <c r="S108" s="1"/>
@@ -7656,7 +7999,7 @@
       <c r="Z108" s="1"/>
     </row>
     <row r="109" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+      <c r="A109" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B109" s="1">
@@ -7689,22 +8032,22 @@
       <c r="K109" s="1">
         <v>-1</v>
       </c>
-      <c r="L109" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M109" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N109" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O109" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P109" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q109" s="2">
+      <c r="L109" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M109" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N109" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O109" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P109" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q109" s="1">
         <v>-1</v>
       </c>
       <c r="R109" s="1"/>
@@ -7718,7 +8061,7 @@
       <c r="Z109" s="1"/>
     </row>
     <row r="110" spans="1:26" ht="75" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+      <c r="A110" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B110" s="1">
@@ -7751,22 +8094,22 @@
       <c r="K110" s="1">
         <v>-3</v>
       </c>
-      <c r="L110" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M110" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N110" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O110" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P110" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q110" s="2">
+      <c r="L110" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M110" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N110" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O110" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P110" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q110" s="1">
         <v>-1</v>
       </c>
       <c r="R110" s="1"/>
@@ -7779,8 +8122,8 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
     </row>
-    <row r="111" spans="1:26" ht="50" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+    <row r="111" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B111" s="1">
@@ -7813,22 +8156,22 @@
       <c r="K111" s="1">
         <v>0</v>
       </c>
-      <c r="L111" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M111" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N111" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O111" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P111" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q111" s="2">
+      <c r="L111" s="1">
+        <v>2</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="N111" s="1">
+        <v>4</v>
+      </c>
+      <c r="O111" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="P111" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q111" s="1">
         <v>-1</v>
       </c>
       <c r="R111" s="1"/>
@@ -7842,7 +8185,7 @@
       <c r="Z111" s="1"/>
     </row>
     <row r="112" spans="1:26" ht="75" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+      <c r="A112" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B112" s="1">
@@ -7875,22 +8218,22 @@
       <c r="K112" s="1">
         <v>2</v>
       </c>
-      <c r="L112" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M112" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N112" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O112" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P112" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q112" s="2">
+      <c r="L112" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M112" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N112" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O112" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P112" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q112" s="1">
         <v>-1</v>
       </c>
       <c r="R112" s="1"/>
@@ -7904,7 +8247,7 @@
       <c r="Z112" s="1"/>
     </row>
     <row r="113" spans="1:26" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B113" s="1">
@@ -7937,22 +8280,22 @@
       <c r="K113" s="1">
         <v>-1</v>
       </c>
-      <c r="L113" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M113" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N113" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O113" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P113" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q113" s="2">
+      <c r="L113" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M113" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N113" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O113" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P113" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q113" s="1">
         <v>-1</v>
       </c>
       <c r="R113" s="1"/>
@@ -7999,23 +8342,23 @@
       <c r="K114" s="1">
         <v>0</v>
       </c>
-      <c r="L114" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M114" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N114" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O114" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P114" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q114" s="2">
-        <v>-1</v>
+      <c r="L114" s="1">
+        <v>1</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="N114" s="1">
+        <v>5</v>
+      </c>
+      <c r="O114" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="P114" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q114" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="R114" s="1"/>
       <c r="S114" s="1"/>
@@ -8027,8 +8370,8 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
     </row>
-    <row r="115" spans="1:26" ht="75" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+    <row r="115" spans="1:26" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B115" s="1">
@@ -8061,22 +8404,22 @@
       <c r="K115" s="1">
         <v>0</v>
       </c>
-      <c r="L115" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M115" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N115" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O115" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P115" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q115" s="2">
+      <c r="L115" s="1">
+        <v>1</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="N115" s="1">
+        <v>5</v>
+      </c>
+      <c r="O115" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="P115" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q115" s="1">
         <v>-1</v>
       </c>
       <c r="R115" s="1"/>
@@ -8090,7 +8433,7 @@
       <c r="Z115" s="1"/>
     </row>
     <row r="116" spans="1:26" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
+      <c r="A116" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B116" s="1">
@@ -8123,22 +8466,22 @@
       <c r="K116" s="1">
         <v>-3</v>
       </c>
-      <c r="L116" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M116" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N116" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O116" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P116" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q116" s="2">
+      <c r="L116" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M116" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N116" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O116" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P116" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q116" s="1">
         <v>-1</v>
       </c>
       <c r="R116" s="1"/>
@@ -8152,7 +8495,7 @@
       <c r="Z116" s="1"/>
     </row>
     <row r="117" spans="1:26" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+      <c r="A117" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B117" s="1">
@@ -8185,22 +8528,22 @@
       <c r="K117" s="1">
         <v>1</v>
       </c>
-      <c r="L117" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M117" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N117" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O117" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P117" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q117" s="2">
+      <c r="L117" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M117" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N117" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O117" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P117" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q117" s="1">
         <v>-1</v>
       </c>
       <c r="R117" s="1"/>
@@ -8214,7 +8557,7 @@
       <c r="Z117" s="1"/>
     </row>
     <row r="118" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
+      <c r="A118" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B118" s="1">
@@ -8247,22 +8590,22 @@
       <c r="K118" s="1">
         <v>1</v>
       </c>
-      <c r="L118" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M118" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N118" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O118" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P118" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q118" s="2">
+      <c r="L118" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M118" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N118" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O118" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P118" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q118" s="1">
         <v>-1</v>
       </c>
       <c r="R118" s="1"/>
@@ -8276,7 +8619,7 @@
       <c r="Z118" s="1"/>
     </row>
     <row r="119" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B119" s="1">
@@ -8309,22 +8652,22 @@
       <c r="K119" s="1">
         <v>-2</v>
       </c>
-      <c r="L119" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M119" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N119" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O119" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P119" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q119" s="2">
+      <c r="L119" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M119" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N119" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O119" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P119" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q119" s="1">
         <v>-1</v>
       </c>
       <c r="R119" s="1"/>
@@ -8371,23 +8714,23 @@
       <c r="K120" s="1">
         <v>0</v>
       </c>
-      <c r="L120" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M120" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N120" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O120" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P120" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q120" s="2">
-        <v>-1</v>
+      <c r="L120" s="1">
+        <v>2</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="N120" s="1">
+        <v>4</v>
+      </c>
+      <c r="O120" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="P120" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q120" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="R120" s="1"/>
       <c r="S120" s="1"/>
@@ -8400,7 +8743,7 @@
       <c r="Z120" s="1"/>
     </row>
     <row r="121" spans="1:26" ht="100" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
+      <c r="A121" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B121" s="1">
@@ -8433,22 +8776,22 @@
       <c r="K121" s="1">
         <v>-1</v>
       </c>
-      <c r="L121" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M121" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N121" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O121" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P121" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q121" s="2">
+      <c r="L121" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M121" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N121" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O121" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P121" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q121" s="1">
         <v>-1</v>
       </c>
       <c r="R121" s="1"/>
@@ -8461,8 +8804,8 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
     </row>
-    <row r="122" spans="1:26" ht="50" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
+    <row r="122" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B122" s="1">
@@ -8484,7 +8827,7 @@
         <v>-1</v>
       </c>
       <c r="H122" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I122" s="1">
         <v>4</v>
@@ -8495,22 +8838,22 @@
       <c r="K122" s="1">
         <v>0</v>
       </c>
-      <c r="L122" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M122" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N122" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O122" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P122" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q122" s="2">
+      <c r="L122" s="1">
+        <v>2</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="N122" s="1">
+        <v>4</v>
+      </c>
+      <c r="O122" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="P122" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q122" s="1">
         <v>-1</v>
       </c>
       <c r="R122" s="1"/>
@@ -8524,7 +8867,7 @@
       <c r="Z122" s="1"/>
     </row>
     <row r="123" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
+      <c r="A123" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B123" s="1">
@@ -8557,22 +8900,22 @@
       <c r="K123" s="1">
         <v>-2</v>
       </c>
-      <c r="L123" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M123" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N123" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O123" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P123" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q123" s="2">
+      <c r="L123" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M123" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N123" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O123" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P123" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q123" s="1">
         <v>-1</v>
       </c>
       <c r="R123" s="1"/>
@@ -8586,7 +8929,7 @@
       <c r="Z123" s="1"/>
     </row>
     <row r="124" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
+      <c r="A124" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B124" s="1">
@@ -8619,22 +8962,22 @@
       <c r="K124" s="1">
         <v>2</v>
       </c>
-      <c r="L124" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M124" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N124" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O124" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P124" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q124" s="2">
+      <c r="L124" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M124" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N124" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O124" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P124" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q124" s="1">
         <v>-1</v>
       </c>
       <c r="R124" s="1"/>
@@ -8681,23 +9024,23 @@
       <c r="K125" s="1">
         <v>0</v>
       </c>
-      <c r="L125" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M125" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N125" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O125" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P125" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q125" s="2">
-        <v>-1</v>
+      <c r="L125" s="1">
+        <v>2</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="N125" s="1">
+        <v>3</v>
+      </c>
+      <c r="O125" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="P125" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q125" s="1" t="s">
+        <v>305</v>
       </c>
       <c r="R125" s="1"/>
       <c r="S125" s="1"/>
@@ -8710,7 +9053,7 @@
       <c r="Z125" s="1"/>
     </row>
     <row r="126" spans="1:26" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
+      <c r="A126" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B126" s="1">
@@ -8743,22 +9086,22 @@
       <c r="K126" s="1">
         <v>0</v>
       </c>
-      <c r="L126" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M126" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N126" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O126" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P126" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q126" s="2">
+      <c r="L126" s="1">
+        <v>2</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="N126" s="1">
+        <v>4</v>
+      </c>
+      <c r="O126" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="P126" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q126" s="1">
         <v>-1</v>
       </c>
       <c r="R126" s="1"/>
@@ -8771,8 +9114,8 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" spans="1:26" ht="50" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
+    <row r="127" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B127" s="1">
@@ -8805,22 +9148,22 @@
       <c r="K127" s="1">
         <v>0</v>
       </c>
-      <c r="L127" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M127" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N127" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O127" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P127" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q127" s="2">
+      <c r="L127" s="1">
+        <v>2</v>
+      </c>
+      <c r="M127" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="N127" s="1">
+        <v>4</v>
+      </c>
+      <c r="O127" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="P127" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q127" s="1">
         <v>-1</v>
       </c>
       <c r="R127" s="1"/>
@@ -8834,7 +9177,7 @@
       <c r="Z127" s="1"/>
     </row>
     <row r="128" spans="1:26" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
+      <c r="A128" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B128" s="1">
@@ -8867,22 +9210,22 @@
       <c r="K128" s="1">
         <v>-2</v>
       </c>
-      <c r="L128" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M128" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N128" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O128" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P128" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q128" s="2">
+      <c r="L128" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M128" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N128" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O128" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P128" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q128" s="1">
         <v>-1</v>
       </c>
       <c r="R128" s="1"/>
@@ -8895,8 +9238,8 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
     </row>
-    <row r="129" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
+    <row r="129" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B129" s="1">
@@ -8929,22 +9272,22 @@
       <c r="K129" s="1">
         <v>0</v>
       </c>
-      <c r="L129" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M129" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N129" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O129" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P129" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q129" s="2">
+      <c r="L129" s="1">
+        <v>1</v>
+      </c>
+      <c r="M129" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="N129" s="1">
+        <v>4</v>
+      </c>
+      <c r="O129" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="P129" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q129" s="1">
         <v>-1</v>
       </c>
       <c r="R129" s="1"/>
@@ -8958,7 +9301,7 @@
       <c r="Z129" s="1"/>
     </row>
     <row r="130" spans="1:26" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
+      <c r="A130" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B130" s="1">
@@ -8991,22 +9334,22 @@
       <c r="K130" s="1">
         <v>2</v>
       </c>
-      <c r="L130" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M130" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N130" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O130" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P130" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q130" s="2">
+      <c r="L130" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M130" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N130" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O130" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P130" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q130" s="1">
         <v>-1</v>
       </c>
       <c r="R130" s="1"/>
@@ -9020,7 +9363,7 @@
       <c r="Z130" s="1"/>
     </row>
     <row r="131" spans="1:26" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
+      <c r="A131" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B131" s="1">
@@ -9053,22 +9396,22 @@
       <c r="K131" s="1">
         <v>3</v>
       </c>
-      <c r="L131" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M131" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N131" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O131" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P131" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q131" s="2">
+      <c r="L131" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M131" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N131" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O131" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P131" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q131" s="1">
         <v>-1</v>
       </c>
       <c r="R131" s="1"/>
@@ -9115,22 +9458,22 @@
       <c r="K132" s="1">
         <v>-2</v>
       </c>
-      <c r="L132" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M132" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N132" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O132" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P132" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q132" s="2">
+      <c r="L132" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M132" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N132" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O132" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P132" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q132" s="1">
         <v>-1</v>
       </c>
       <c r="R132" s="1"/>
@@ -9177,23 +9520,23 @@
       <c r="K133" s="1">
         <v>0</v>
       </c>
-      <c r="L133" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M133" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N133" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O133" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P133" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q133" s="2">
-        <v>-1</v>
+      <c r="L133" s="1">
+        <v>2</v>
+      </c>
+      <c r="M133" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="N133" s="1">
+        <v>3</v>
+      </c>
+      <c r="O133" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="P133" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q133" s="1" t="s">
+        <v>311</v>
       </c>
       <c r="R133" s="1"/>
       <c r="S133" s="1"/>
@@ -9206,7 +9549,7 @@
       <c r="Z133" s="1"/>
     </row>
     <row r="134" spans="1:26" ht="75" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
+      <c r="A134" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B134" s="1">
@@ -9239,22 +9582,22 @@
       <c r="K134" s="1">
         <v>0</v>
       </c>
-      <c r="L134" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M134" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N134" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O134" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P134" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q134" s="2">
+      <c r="L134" s="1">
+        <v>2</v>
+      </c>
+      <c r="M134" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="N134" s="1">
+        <v>3</v>
+      </c>
+      <c r="O134" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="P134" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q134" s="1">
         <v>-1</v>
       </c>
       <c r="R134" s="1"/>
@@ -9267,8 +9610,8 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135" spans="1:26" ht="50" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
+    <row r="135" spans="1:26" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B135" s="1">
@@ -9301,22 +9644,22 @@
       <c r="K135" s="1">
         <v>0</v>
       </c>
-      <c r="L135" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M135" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N135" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O135" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P135" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q135" s="2">
+      <c r="L135" s="1">
+        <v>1</v>
+      </c>
+      <c r="M135" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="N135" s="1">
+        <v>5</v>
+      </c>
+      <c r="O135" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="P135" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q135" s="1">
         <v>-1</v>
       </c>
       <c r="R135" s="1"/>
@@ -9330,7 +9673,7 @@
       <c r="Z135" s="1"/>
     </row>
     <row r="136" spans="1:26" ht="50" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
+      <c r="A136" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B136" s="1">
@@ -9363,22 +9706,22 @@
       <c r="K136" s="1">
         <v>-3</v>
       </c>
-      <c r="L136" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M136" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N136" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O136" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P136" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q136" s="2">
+      <c r="L136" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M136" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N136" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O136" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P136" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q136" s="1">
         <v>-1</v>
       </c>
       <c r="R136" s="1"/>
@@ -9392,7 +9735,7 @@
       <c r="Z136" s="1"/>
     </row>
     <row r="137" spans="1:26" ht="75" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
+      <c r="A137" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B137" s="1">
@@ -9425,22 +9768,22 @@
       <c r="K137" s="1">
         <v>-3</v>
       </c>
-      <c r="L137" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M137" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N137" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O137" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P137" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q137" s="2">
+      <c r="L137" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M137" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N137" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O137" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P137" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q137" s="1">
         <v>-1</v>
       </c>
       <c r="R137" s="1"/>
@@ -9454,7 +9797,7 @@
       <c r="Z137" s="1"/>
     </row>
     <row r="138" spans="1:26" ht="100" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
+      <c r="A138" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B138" s="1">
@@ -9487,22 +9830,22 @@
       <c r="K138" s="1">
         <v>-1</v>
       </c>
-      <c r="L138" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M138" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N138" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O138" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P138" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q138" s="2">
+      <c r="L138" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M138" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N138" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O138" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P138" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q138" s="1">
         <v>-1</v>
       </c>
       <c r="R138" s="1"/>

--- a/Assets/Resources/RFScenarios/Preston/AllLancashireScenarios.xlsx
+++ b/Assets/Resources/RFScenarios/Preston/AllLancashireScenarios.xlsx
@@ -1322,8 +1322,8 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O135" sqref="O135"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1446,7 +1446,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>

--- a/Assets/Resources/RFScenarios/Preston/AllLancashireScenarios.xlsx
+++ b/Assets/Resources/RFScenarios/Preston/AllLancashireScenarios.xlsx
@@ -1323,7 +1323,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Assets/Resources/RFScenarios/Preston/AllLancashireScenarios.xlsx
+++ b/Assets/Resources/RFScenarios/Preston/AllLancashireScenarios.xlsx
@@ -1322,8 +1322,8 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2804,7 +2804,7 @@
         <v>31</v>
       </c>
       <c r="E25" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25" s="2">
         <v>4</v>
@@ -2928,7 +2928,7 @@
         <v>33</v>
       </c>
       <c r="E27" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F27" s="2">
         <v>6</v>
@@ -3238,7 +3238,7 @@
         <v>39</v>
       </c>
       <c r="E32" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F32" s="2">
         <v>5</v>
@@ -3672,7 +3672,7 @@
         <v>47</v>
       </c>
       <c r="E39" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F39" s="2">
         <v>7</v>
